--- a/Controle de bandejas.xlsx
+++ b/Controle de bandejas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/980841a2e24dade8/Profissional/The Coffee/Operação/2.Gestão da Qualidade/Bandejas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Repositories\bonus_bandejas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2236" documentId="14_{156752E3-00C2-46FA-8B06-43988C5E67DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C71992F4-E610-42A1-9988-9A4EF30C2FB3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4308C8-484C-47DA-8905-DA7433A8BF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CFECCB-4CFF-4A8C-8AE9-C6FF4049EEB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9CFECCB-4CFF-4A8C-8AE9-C6FF4049EEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="linhadotempo" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -409,7 +409,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -417,12 +416,6 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="44">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1038,6 +1031,12 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
@@ -4072,6 +4071,7 @@
       <sheetName val="pivot"/>
       <sheetName val="OP"/>
       <sheetName val="Planilha1"/>
+      <sheetName val="BANDEJA DO PERIODO"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4080,13 +4080,10 @@
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4096,70 +4093,70 @@
     <tableColumn id="1" xr3:uid="{3F285AB6-3207-4521-9833-C1F884DD7E56}" name="Ano"/>
     <tableColumn id="2" xr3:uid="{4AF046E5-793E-4801-8A36-97DB43D8876E}" name="Semana"/>
     <tableColumn id="3" xr3:uid="{D75767E6-B058-483D-B6B5-A74A4979CA48}" name="Ideal, valor" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{E89FD64E-DD05-499C-9B13-308BB71A6C09}" name="Meta ideal" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{E89FD64E-DD05-499C-9B13-308BB71A6C09}" name="Meta ideal" dataDxfId="40">
       <calculatedColumnFormula>ROUNDUP(1500/C2*7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{12F97016-80FB-402C-A0EE-79232F4A23F3}" name="Meta ajustada" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{12F97016-80FB-402C-A0EE-79232F4A23F3}" name="Meta ajustada" dataDxfId="39">
       <calculatedColumnFormula>ROUNDUP(1500*7/F2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{30EFC432-A98B-40C4-AE20-C3441E71C589}" name="Semanal, valor" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
+    <tableColumn id="6" xr3:uid="{30EFC432-A98B-40C4-AE20-C3441E71C589}" name="Semanal, valor" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[Ticket período]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FAF39A7E-B38D-4AAF-86EF-DF9F90BB9DFD}" name="Recomendada, valor" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
+    <tableColumn id="7" xr3:uid="{FAF39A7E-B38D-4AAF-86EF-DF9F90BB9DFD}" name="Recomendada, valor" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
       <calculatedColumnFormula>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32B83BBF-2DD1-4C6A-9E9B-7B0B3CE39131}" name="vendas realizadas (bandejas)" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="8" xr3:uid="{32B83BBF-2DD1-4C6A-9E9B-7B0B3CE39131}" name="vendas realizadas (bandejas)" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{F088F117-AFF3-4ACC-ABB1-EE8174EA4871}" name="total de conversões">
       <calculatedColumnFormula>[1]!Tabela2[[#This Row],[Recomendações]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D8AF781B-4A0C-4C6A-B4F9-4B53DD9522B8}" name="Equiv. product line" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
+    <tableColumn id="10" xr3:uid="{D8AF781B-4A0C-4C6A-B4F9-4B53DD9522B8}" name="Equiv. product line" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E66BFEC8-392B-483B-B7A7-7D8593D4F081}" name="Conversões + Equiv. Prod. Line" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="11" xr3:uid="{E66BFEC8-392B-483B-B7A7-7D8593D4F081}" name="Conversões + Equiv. Prod. Line" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>J2+I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C3725EF8-EF29-4DB4-810C-0FAF4D9834F8}" name="meta de conversões" dataDxfId="30">
+    <tableColumn id="12" xr3:uid="{C3725EF8-EF29-4DB4-810C-0FAF4D9834F8}" name="meta de conversões" dataDxfId="28">
       <calculatedColumnFormula>1.5*(0.65*EXP(-0.003*H2))*H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{19A21289-F5FA-408D-93C7-DCF1F28A38C9}" name="Dif. Meta/conversões" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Porcentagem">
+    <tableColumn id="25" xr3:uid="{19A21289-F5FA-408D-93C7-DCF1F28A38C9}" name="Dif. Meta/conversões" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8CCA114B-EED9-48FA-BAAA-066EACBE454B}" name="eficiência de conversão" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="13" xr3:uid="{8CCA114B-EED9-48FA-BAAA-066EACBE454B}" name="eficiência de conversão" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>G2/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0F96DAD9-4F96-419A-A6DB-8EA3B6DA159A}" name="% meta de vendas" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="15" xr3:uid="{0F96DAD9-4F96-419A-A6DB-8EA3B6DA159A}" name="% meta de vendas" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>H2/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D990F55D-3226-4581-8531-9A656531D215}" name="% valor ideal" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="16" xr3:uid="{D990F55D-3226-4581-8531-9A656531D215}" name="% valor ideal" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>F2/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{15A25A1B-53D5-44BC-899C-10344331F197}" name="var. % movimento" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="14" xr3:uid="{15A25A1B-53D5-44BC-899C-10344331F197}" name="var. % movimento" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>(H2-H1)/H1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{89DFE577-631A-4B01-BD18-F48A3B87074B}" name="A$%  (total -S)" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="17" xr3:uid="{89DFE577-631A-4B01-BD18-F48A3B87074B}" name="A$%  (total -S)" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{211729AB-8134-45BE-BA09-89078E0EE82F}" name="B$%  (total -S)" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="18" xr3:uid="{211729AB-8134-45BE-BA09-89078E0EE82F}" name="B$%  (total -S)" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{91660FF1-DD88-4BCB-B1BC-3B1BADDF02D6}" name="D$% (total-S)" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="19" xr3:uid="{91660FF1-DD88-4BCB-B1BC-3B1BADDF02D6}" name="D$% (total-S)" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[D$% (total-S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{393E7819-9DA2-46C7-B011-849DFA12B1EF}" name="F$%  (total -S)" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="20" xr3:uid="{393E7819-9DA2-46C7-B011-849DFA12B1EF}" name="F$%  (total -S)" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{9B2D05C9-FAD6-4B52-8E86-8FF086FC3A50}" name="K$%  (total -S)" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="21" xr3:uid="{9B2D05C9-FAD6-4B52-8E86-8FF086FC3A50}" name="K$%  (total -S)" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2634621D-715D-48AB-B4D1-E8ECD47D0CFA}" name="P$%  (total-S)" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="22" xr3:uid="{2634621D-715D-48AB-B4D1-E8ECD47D0CFA}" name="P$%  (total-S)" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{3BE70BDE-4E30-45FA-BC07-64C7101747DE}" name="S$%  (total -S)" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="23" xr3:uid="{3BE70BDE-4E30-45FA-BC07-64C7101747DE}" name="S$%  (total -S)" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{C03A06C7-A4C2-43C9-A37F-7B2A6760B48B}" name="$%  (Total-S)" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="24" xr3:uid="{C03A06C7-A4C2-43C9-A37F-7B2A6760B48B}" name="$%  (Total-S)" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4466,39 +4463,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88528C36-905A-4A75-A2E6-76E08C9D0F38}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+    <col min="12" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="23.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" customWidth="1"/>
+    <col min="20" max="20" width="15.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" customWidth="1"/>
     <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4575,12 +4572,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>33.92</v>
@@ -4673,12 +4670,12 @@
         <v>1.054010099888679</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
         <v>33.92</v>
@@ -4772,12 +4769,12 @@
         <v>1.0468876890929966</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3">
         <v>33.92</v>
@@ -4871,12 +4868,12 @@
         <v>1.0167755196586277</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3">
         <v>33.92</v>
@@ -4970,12 +4967,12 @@
         <v>1.0394500498673287</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>33.92</v>
@@ -5069,12 +5066,12 @@
         <v>1.0229300425248062</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2022</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3">
         <v>41.34</v>
@@ -5168,12 +5165,12 @@
         <v>1.035846692132266</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
         <v>41.34</v>
@@ -5267,12 +5264,12 @@
         <v>1.04124207980631</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3">
         <v>41.34</v>
@@ -5366,12 +5363,12 @@
         <v>1.0184419813836061</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3">
         <v>41.34</v>
@@ -5465,12 +5462,12 @@
         <v>1.0605554519154179</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3">
         <v>41.34</v>
@@ -5564,12 +5561,12 @@
         <v>1.1188565535466821</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3">
         <v>41.34</v>
@@ -5663,12 +5660,12 @@
         <v>1.0542389206573994</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3">
         <v>41.34</v>
@@ -5762,12 +5759,12 @@
         <v>1.0354995734943329</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3">
         <v>41.34</v>
@@ -5861,12 +5858,12 @@
         <v>1.0477621138587168</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2022</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
         <v>41.34</v>
@@ -5960,12 +5957,12 @@
         <v>1.0603448651016651</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2022</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>41.34</v>
@@ -6059,12 +6056,12 @@
         <v>1.0186587776045566</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2022</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>40.58</v>
@@ -6158,12 +6155,12 @@
         <v>1.0057656898835958</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
       <c r="B18">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>40.58</v>
@@ -6257,12 +6254,12 @@
         <v>1.0038940679993278</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
       <c r="B19">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3">
         <v>40.58</v>
@@ -6356,12 +6353,12 @@
         <v>1.0256359321815507</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2022</v>
       </c>
       <c r="B20">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3">
         <v>40.58</v>
@@ -6455,12 +6452,12 @@
         <v>1.0091314835289107</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3">
         <v>40.58</v>
@@ -6554,12 +6551,12 @@
         <v>1.0821941707563218</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2022</v>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3">
         <v>40.58</v>
@@ -6653,12 +6650,12 @@
         <v>1.0060135821047251</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2022</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3">
         <v>40.58</v>
@@ -6752,12 +6749,12 @@
         <v>1.0367126676921765</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2022</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3">
         <v>40.58</v>
@@ -6851,12 +6848,12 @@
         <v>1.0681144944003527</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2022</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3">
         <v>40.58</v>
@@ -6950,12 +6947,12 @@
         <v>1.0182818496814785</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2022</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3">
         <v>40.58</v>
@@ -7049,12 +7046,12 @@
         <v>1.0202247824004957</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2022</v>
       </c>
       <c r="B27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3">
         <v>40.58</v>
@@ -7148,12 +7145,12 @@
         <v>1.0725590868587431</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2022</v>
       </c>
       <c r="B28">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3">
         <v>40.58</v>
@@ -7247,7 +7244,7 @@
         <v>1.0229290265522732</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2023</v>
       </c>
@@ -7346,7 +7343,7 @@
         <v>1.0196020409300324</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -7445,7 +7442,7 @@
         <v>1.02139586017904</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2023</v>
       </c>
@@ -7544,7 +7541,7 @@
         <v>1.0241386639795635</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2023</v>
       </c>
@@ -7643,7 +7640,7 @@
         <v>1.0145415957394686</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -7742,7 +7739,7 @@
         <v>1.0582314028235635</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -7841,7 +7838,7 @@
         <v>1.0222521565183638</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2023</v>
       </c>
@@ -7940,7 +7937,7 @@
         <v>1.0445714285714285</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2023</v>
       </c>
@@ -8039,7 +8036,7 @@
         <v>1.0117485320215118</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2023</v>
       </c>
@@ -8138,7 +8135,7 @@
         <v>1.0494654863052115</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2023</v>
       </c>
@@ -8237,7 +8234,7 @@
         <v>1.024073368768762</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2023</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>1.1092886951156571</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2023</v>
       </c>
@@ -8435,7 +8432,7 @@
         <v>1.0226961108570169</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2023</v>
       </c>
@@ -8534,7 +8531,7 @@
         <v>1.02163097779315</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2023</v>
       </c>
@@ -8633,7 +8630,7 @@
         <v>1.0096941451518944</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2023</v>
       </c>
@@ -8732,7 +8729,7 @@
         <v>1.0528243521867244</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2023</v>
       </c>
@@ -8831,7 +8828,7 @@
         <v>1.0129797583685125</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2023</v>
       </c>
@@ -8930,7 +8927,7 @@
         <v>1.0822949922140248</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -9029,7 +9026,7 @@
         <v>1.0095213574121524</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2023</v>
       </c>
@@ -9128,7 +9125,7 @@
         <v>1.0392699191431689</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -9227,7 +9224,7 @@
         <v>1.0151892610811664</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2023</v>
       </c>
@@ -9326,7 +9323,7 @@
         <v>1.0099539866341773</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2023</v>
       </c>
@@ -9425,7 +9422,7 @@
         <v>1.0421891499663742</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2023</v>
       </c>
@@ -9524,7 +9521,7 @@
         <v>1.0413808142262881</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2023</v>
       </c>
@@ -9623,7 +9620,7 @@
         <v>1.058200008363527</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -9722,7 +9719,7 @@
         <v>1.0128911735607649</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2023</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>1.0344215107296151</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2023</v>
       </c>
@@ -9920,7 +9917,7 @@
         <v>1.0261919807298321</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2023</v>
       </c>
@@ -10019,7 +10016,7 @@
         <v>1.0199307821210519</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2023</v>
       </c>
@@ -10118,7 +10115,7 @@
         <v>1.0221841083605958</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2023</v>
       </c>
@@ -10217,7 +10214,7 @@
         <v>1.0372163797977039</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2023</v>
       </c>
@@ -10316,7 +10313,7 @@
         <v>1.0045480341291226</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2023</v>
       </c>
@@ -10415,7 +10412,7 @@
         <v>1.0142178539426157</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2023</v>
       </c>
@@ -10513,7 +10510,7 @@
         <v>1.0408884976888928</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2023</v>
       </c>
@@ -10612,7 +10609,7 @@
         <v>1.0278516491044747</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2023</v>
       </c>
@@ -10711,7 +10708,7 @@
         <v>1.0337615886638263</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2023</v>
       </c>
@@ -10810,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2023</v>
       </c>
@@ -10909,7 +10906,7 @@
         <v>1.0098131356840456</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2023</v>
       </c>
@@ -11008,7 +11005,7 @@
         <v>1.0490071672226393</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2023</v>
       </c>
@@ -11107,7 +11104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2023</v>
       </c>
@@ -11117,7 +11114,7 @@
       <c r="C68" s="3">
         <v>48.89</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68">
         <f>ROUNDUP(2000/C68*7,0)</f>
         <v>287</v>
       </c>
@@ -11206,7 +11203,7 @@
         <v>1.0137390578966352</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2023</v>
       </c>
@@ -11216,7 +11213,7 @@
       <c r="C69" s="3">
         <v>48.89</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69">
         <f t="shared" ref="D69:D72" si="75">ROUNDUP(2000/C69*7,0)</f>
         <v>287</v>
       </c>
@@ -11305,7 +11302,7 @@
         <v>1.0309444084424264</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2023</v>
       </c>
@@ -11315,7 +11312,7 @@
       <c r="C70" s="3">
         <v>48.89</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70">
         <f t="shared" si="75"/>
         <v>287</v>
       </c>
@@ -11404,7 +11401,7 @@
         <v>1.0028690687163475</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2023</v>
       </c>
@@ -11414,7 +11411,7 @@
       <c r="C71" s="3">
         <v>48.89</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71">
         <f t="shared" si="75"/>
         <v>287</v>
       </c>
@@ -11503,7 +11500,7 @@
         <v>1.0321282348610701</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2023</v>
       </c>
@@ -11513,7 +11510,7 @@
       <c r="C72" s="3">
         <v>48.89</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72">
         <f t="shared" si="75"/>
         <v>287</v>
       </c>
@@ -11604,10 +11601,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M2:M72">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11691,18 +11688,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="17"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -11710,7 +11707,7 @@
         <v>7.0568261580929686E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -11718,7 +11715,7 @@
         <v>5.9654612566935354E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11726,7 +11723,7 @@
         <v>7.0685719062960811E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11734,7 +11731,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -11742,7 +11739,7 @@
         <v>4.0459726744444709E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -11750,7 +11747,7 @@
         <v>1.6369894882351343E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11758,7 +11755,7 @@
         <v>4.4367887051815931</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -11766,7 +11763,7 @@
         <v>1.4134313474815658</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -11774,7 +11771,7 @@
         <v>0.21541526146547929</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -11782,7 +11779,7 @@
         <v>1.9214875353949785E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -11790,7 +11787,7 @@
         <v>0.23463013681942907</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -11798,7 +11795,7 @@
         <v>3.2461400327227654</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -11806,7 +11803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>67</v>
       </c>
@@ -11827,32 +11824,32 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -11860,7 +11857,7 @@
         <v>0.79668472802169177</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -11868,7 +11865,7 @@
         <v>0.63470655586299696</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -11876,7 +11873,7 @@
         <v>0.62640443213261054</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -11884,7 +11881,7 @@
         <v>2.472998215628458E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
@@ -11892,12 +11889,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16" t="s">
         <v>48</v>
@@ -11915,7 +11912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -11935,7 +11932,7 @@
         <v>3.5424237328808716E-11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -11949,7 +11946,7 @@
         <v>6.1157201745015374E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>46</v>
       </c>
@@ -11963,8 +11960,8 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
         <v>53</v>
@@ -11991,7 +11988,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -12020,7 +12017,7 @@
         <v>0.27378641728571529</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
@@ -12049,7 +12046,7 @@
         <v>-1.4113058198744131E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -12057,8 +12054,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>61</v>
       </c>
@@ -12078,7 +12075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -12098,7 +12095,7 @@
         <v>1.9214875353949785E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12118,7 +12115,7 @@
         <v>1.9293551665185388E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -12138,7 +12135,7 @@
         <v>2.1402378806555832E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -12158,7 +12155,7 @@
         <v>2.1873591432871254E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -12178,7 +12175,7 @@
         <v>2.4451688592768837E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -12198,7 +12195,7 @@
         <v>2.8968352462320372E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7</v>
       </c>
@@ -12218,7 +12215,7 @@
         <v>2.9123905736681291E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -12238,7 +12235,7 @@
         <v>3.0039901760827534E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -12258,7 +12255,7 @@
         <v>3.0396480060029658E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -12278,7 +12275,7 @@
         <v>3.4492773937565911E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>11</v>
       </c>
@@ -12298,7 +12295,7 @@
         <v>3.6880605292335375E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12</v>
       </c>
@@ -12318,7 +12315,7 @@
         <v>3.8038822925710994E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13</v>
       </c>
@@ -12338,7 +12335,7 @@
         <v>3.8280116662410074E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -12358,7 +12355,7 @@
         <v>3.8522186862285888E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>15</v>
       </c>
@@ -12378,7 +12375,7 @@
         <v>4.0772823859477184E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>16</v>
       </c>
@@ -12398,7 +12395,7 @@
         <v>4.4943328134318304E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>17</v>
       </c>
@@ -12418,7 +12415,7 @@
         <v>4.8146899121257733E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>18</v>
       </c>
@@ -12438,7 +12435,7 @@
         <v>5.026244705287583E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>19</v>
       </c>
@@ -12458,7 +12455,7 @@
         <v>5.4034847987806937E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20</v>
       </c>
@@ -12478,7 +12475,7 @@
         <v>5.4232283794637112E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>21</v>
       </c>
@@ -12498,7 +12495,7 @@
         <v>5.4712666443967696E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>22</v>
       </c>
@@ -12518,7 +12515,7 @@
         <v>6.8655731660971955E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>23</v>
       </c>
@@ -12538,7 +12535,7 @@
         <v>6.9808663946635929E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>24</v>
       </c>
@@ -12558,7 +12555,7 @@
         <v>7.1562774179285707E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>25</v>
       </c>
@@ -12578,7 +12575,7 @@
         <v>7.4817245762244772E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>26</v>
       </c>
@@ -12598,7 +12595,7 @@
         <v>7.8362202475799836E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>27</v>
       </c>
@@ -12618,7 +12615,7 @@
         <v>8.1709814281439128E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>28</v>
       </c>
@@ -12638,7 +12635,7 @@
         <v>8.1733465109056644E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>29</v>
       </c>
@@ -12658,7 +12655,7 @@
         <v>8.3661483017992949E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>30</v>
       </c>
@@ -12678,7 +12675,7 @@
         <v>8.6385510879121108E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>31</v>
       </c>
@@ -12698,7 +12695,7 @@
         <v>8.9449859808939478E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>32</v>
       </c>
@@ -12718,7 +12715,7 @@
         <v>9.2790307738703851E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>33</v>
       </c>
@@ -12738,7 +12735,7 @@
         <v>9.306450307036801E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>34</v>
       </c>
@@ -12758,7 +12755,7 @@
         <v>9.4047894538948587E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>35</v>
       </c>
@@ -12778,7 +12775,7 @@
         <v>9.4474396241194178E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>36</v>
       </c>
@@ -12798,7 +12795,7 @@
         <v>0.10133634213983586</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>37</v>
       </c>
@@ -12818,7 +12815,7 @@
         <v>0.10213722860700671</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>38</v>
       </c>
@@ -12838,7 +12835,7 @@
         <v>0.10229080091330563</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>39</v>
       </c>
@@ -12858,7 +12855,7 @@
         <v>0.10312374334598796</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>40</v>
       </c>
@@ -12878,7 +12875,7 @@
         <v>0.10535754576217192</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>41</v>
       </c>
@@ -12898,7 +12895,7 @@
         <v>0.10853867252938192</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>42</v>
       </c>
@@ -12918,7 +12915,7 @@
         <v>0.1098349467048972</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>43</v>
       </c>
@@ -12938,7 +12935,7 @@
         <v>0.11118730729518359</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>44</v>
       </c>
@@ -12958,7 +12955,7 @@
         <v>0.11639822704796121</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>45</v>
       </c>
@@ -12978,7 +12975,7 @@
         <v>0.13269670090106236</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <v>46</v>
       </c>
@@ -13015,14 +13012,14 @@
       <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -13033,7 +13030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>396.36851966536864</v>
       </c>
@@ -13045,7 +13042,7 @@
         <v>0.23463013681942907</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>986.44451665860322</v>
       </c>
@@ -13057,7 +13054,7 @@
         <v>3.8522186862285888E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>857.37515372107919</v>
       </c>
@@ -13069,7 +13066,7 @@
         <v>9.4474396241194178E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>881.16743745116571</v>
       </c>
@@ -13081,7 +13078,7 @@
         <v>0.10213722860700671</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>1013.036838553253</v>
       </c>
@@ -13093,7 +13090,7 @@
         <v>9.2790307738703851E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>815.71834250067877</v>
       </c>
@@ -13105,7 +13102,7 @@
         <v>5.026244705287583E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>753.03470279687349</v>
       </c>
@@ -13117,7 +13114,7 @@
         <v>8.3661483017992949E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>683.38721711047322</v>
       </c>
@@ -13129,7 +13126,7 @@
         <v>0.10535754576217192</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>680.90083520861299</v>
       </c>
@@ -13141,7 +13138,7 @@
         <v>0.10133634213983586</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>833.9495562284186</v>
       </c>
@@ -13153,7 +13150,7 @@
         <v>0.10312374334598796</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>845.04912058862044</v>
       </c>
@@ -13165,7 +13162,7 @@
         <v>8.6385510879121108E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>650.82397365936777</v>
       </c>
@@ -13177,7 +13174,7 @@
         <v>7.8362202475799836E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>690.99794803273608</v>
       </c>
@@ -13189,7 +13186,7 @@
         <v>0.10853867252938192</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>730.2516726906523</v>
       </c>
@@ -13201,7 +13198,7 @@
         <v>0.11639822704796121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>811.412162764713</v>
       </c>
@@ -13213,7 +13210,7 @@
         <v>0.10229080091330563</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>827.27910538999583</v>
       </c>
@@ -13225,7 +13222,7 @@
         <v>8.9449859808939478E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>896.78190333251371</v>
       </c>
@@ -13237,7 +13234,7 @@
         <v>0.13269670090106236</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>752.16648335909065</v>
       </c>
@@ -13249,7 +13246,7 @@
         <v>9.306450307036801E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>695.02692153686439</v>
       </c>
@@ -13261,7 +13258,7 @@
         <v>7.4817245762244772E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>685.35218801397684</v>
       </c>
@@ -13273,7 +13270,7 @@
         <v>8.1709814281439128E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>673.73820646375907</v>
       </c>
@@ -13285,7 +13282,7 @@
         <v>0.1098349467048972</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>712.40297646698423</v>
       </c>
@@ -13297,7 +13294,7 @@
         <v>9.4047894538948587E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>755.48191644747851</v>
       </c>
@@ -13309,7 +13306,7 @@
         <v>0.11118730729518359</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>844.20744804999481</v>
       </c>
@@ -13321,7 +13318,7 @@
         <v>8.1733465109056644E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>932.14246928049272</v>
       </c>
@@ -13333,7 +13330,7 @@
         <v>5.4712666443967696E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>1044.9288948818382</v>
       </c>
@@ -13345,7 +13342,7 @@
         <v>3.8280116662410074E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>996.94893910223027</v>
       </c>
@@ -13357,7 +13354,7 @@
         <v>4.8146899121257733E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>830.84243016507423</v>
       </c>
@@ -13369,7 +13366,7 @@
         <v>6.9808663946635929E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>1139.1742089207062</v>
       </c>
@@ -13381,7 +13378,7 @@
         <v>2.8968352462320372E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>1052.7534746392862</v>
       </c>
@@ -13393,7 +13390,7 @@
         <v>3.0396480060029658E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>949.00828558998171</v>
       </c>
@@ -13405,7 +13402,7 @@
         <v>3.6880605292335375E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>1020.0834279721132</v>
       </c>
@@ -13417,7 +13414,7 @@
         <v>7.1562774179285707E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>1073.3813855289795</v>
       </c>
@@ -13429,7 +13426,7 @@
         <v>5.4034847987806937E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>995.74556593468049</v>
       </c>
@@ -13441,7 +13438,7 @@
         <v>2.9123905736681291E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>866.64246296497856</v>
       </c>
@@ -13453,7 +13450,7 @@
         <v>5.4232283794637112E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>1121.5378255705259</v>
       </c>
@@ -13465,7 +13462,7 @@
         <v>6.8655731660971955E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>1130.4240429305103</v>
       </c>
@@ -13477,7 +13474,7 @@
         <v>3.8038822925710994E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>934.47556371041037</v>
       </c>
@@ -13489,7 +13486,7 @@
         <v>2.1402378806555832E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>981.52730470719246</v>
       </c>
@@ -13501,7 +13498,7 @@
         <v>2.4451688592768837E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>1097.2135085202888</v>
       </c>
@@ -13513,7 +13510,7 @@
         <v>2.1873591432871254E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>1243.9389292593157</v>
       </c>
@@ -13525,7 +13522,7 @@
         <v>1.9293551665185388E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>1152.7285959389192</v>
       </c>
@@ -13537,7 +13534,7 @@
         <v>4.0772823859477184E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>1098.5388788132616</v>
       </c>
@@ -13549,7 +13546,7 @@
         <v>3.0039901760827534E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>1101.6800234386017</v>
       </c>
@@ -13561,7 +13558,7 @@
         <v>3.4492773937565911E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>1040.8602518407088</v>
       </c>
@@ -13573,7 +13570,7 @@
         <v>1.9214875353949785E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>1001.260962817714</v>
       </c>

--- a/Controle de bandejas.xlsx
+++ b/Controle de bandejas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Repositories\bonus_bandejas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4308C8-484C-47DA-8905-DA7433A8BF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F76BB-62E7-49A9-ACA8-D1638CFB1C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9CFECCB-4CFF-4A8C-8AE9-C6FF4049EEB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CFECCB-4CFF-4A8C-8AE9-C6FF4049EEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="linhadotempo" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -409,13 +409,114 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4071,92 +4172,90 @@
       <sheetName val="pivot"/>
       <sheetName val="OP"/>
       <sheetName val="Planilha1"/>
-      <sheetName val="BANDEJA DO PERIODO"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}" name="Tabela1" displayName="Tabela1" ref="A1:Y72" totalsRowShown="0" dataDxfId="43" dataCellStyle="Porcentagem">
-  <autoFilter ref="A1:Y72" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}" name="Tabela1" displayName="Tabela1" ref="A1:Y77" totalsRowShown="0" dataDxfId="53" dataCellStyle="Porcentagem">
+  <autoFilter ref="A1:Y77" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{3F285AB6-3207-4521-9833-C1F884DD7E56}" name="Ano"/>
     <tableColumn id="2" xr3:uid="{4AF046E5-793E-4801-8A36-97DB43D8876E}" name="Semana"/>
-    <tableColumn id="3" xr3:uid="{D75767E6-B058-483D-B6B5-A74A4979CA48}" name="Ideal, valor" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{E89FD64E-DD05-499C-9B13-308BB71A6C09}" name="Meta ideal" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{D75767E6-B058-483D-B6B5-A74A4979CA48}" name="Ideal, valor" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{E89FD64E-DD05-499C-9B13-308BB71A6C09}" name="Meta ideal" dataDxfId="50">
       <calculatedColumnFormula>ROUNDUP(1500/C2*7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{12F97016-80FB-402C-A0EE-79232F4A23F3}" name="Meta ajustada" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{12F97016-80FB-402C-A0EE-79232F4A23F3}" name="Meta ajustada" dataDxfId="49">
       <calculatedColumnFormula>ROUNDUP(1500*7/F2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{30EFC432-A98B-40C4-AE20-C3441E71C589}" name="Semanal, valor" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
+    <tableColumn id="6" xr3:uid="{30EFC432-A98B-40C4-AE20-C3441E71C589}" name="Semanal, valor" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[Ticket período]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FAF39A7E-B38D-4AAF-86EF-DF9F90BB9DFD}" name="Recomendada, valor" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
+    <tableColumn id="7" xr3:uid="{FAF39A7E-B38D-4AAF-86EF-DF9F90BB9DFD}" name="Recomendada, valor" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
       <calculatedColumnFormula>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32B83BBF-2DD1-4C6A-9E9B-7B0B3CE39131}" name="vendas realizadas (bandejas)" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="8" xr3:uid="{32B83BBF-2DD1-4C6A-9E9B-7B0B3CE39131}" name="vendas realizadas (bandejas)" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{F088F117-AFF3-4ACC-ABB1-EE8174EA4871}" name="total de conversões">
       <calculatedColumnFormula>[1]!Tabela2[[#This Row],[Recomendações]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D8AF781B-4A0C-4C6A-B4F9-4B53DD9522B8}" name="Equiv. product line" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
+    <tableColumn id="10" xr3:uid="{D8AF781B-4A0C-4C6A-B4F9-4B53DD9522B8}" name="Equiv. product line" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E66BFEC8-392B-483B-B7A7-7D8593D4F081}" name="Conversões + Equiv. Prod. Line" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="11" xr3:uid="{E66BFEC8-392B-483B-B7A7-7D8593D4F081}" name="Conversões + Equiv. Prod. Line" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>J2+I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C3725EF8-EF29-4DB4-810C-0FAF4D9834F8}" name="meta de conversões" dataDxfId="28">
+    <tableColumn id="12" xr3:uid="{C3725EF8-EF29-4DB4-810C-0FAF4D9834F8}" name="meta de conversões" dataDxfId="38">
       <calculatedColumnFormula>1.5*(0.65*EXP(-0.003*H2))*H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{19A21289-F5FA-408D-93C7-DCF1F28A38C9}" name="Dif. Meta/conversões" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Porcentagem">
+    <tableColumn id="25" xr3:uid="{19A21289-F5FA-408D-93C7-DCF1F28A38C9}" name="Dif. Meta/conversões" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8CCA114B-EED9-48FA-BAAA-066EACBE454B}" name="eficiência de conversão" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="13" xr3:uid="{8CCA114B-EED9-48FA-BAAA-066EACBE454B}" name="eficiência de conversão" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>G2/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0F96DAD9-4F96-419A-A6DB-8EA3B6DA159A}" name="% meta de vendas" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="15" xr3:uid="{0F96DAD9-4F96-419A-A6DB-8EA3B6DA159A}" name="% meta de vendas" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>H2/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D990F55D-3226-4581-8531-9A656531D215}" name="% valor ideal" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="16" xr3:uid="{D990F55D-3226-4581-8531-9A656531D215}" name="% valor ideal" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>F2/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{15A25A1B-53D5-44BC-899C-10344331F197}" name="var. % movimento" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="14" xr3:uid="{15A25A1B-53D5-44BC-899C-10344331F197}" name="var. % movimento" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>(H2-H1)/H1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{89DFE577-631A-4B01-BD18-F48A3B87074B}" name="A$%  (total -S)" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="17" xr3:uid="{89DFE577-631A-4B01-BD18-F48A3B87074B}" name="A$%  (total -S)" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{211729AB-8134-45BE-BA09-89078E0EE82F}" name="B$%  (total -S)" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="18" xr3:uid="{211729AB-8134-45BE-BA09-89078E0EE82F}" name="B$%  (total -S)" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{91660FF1-DD88-4BCB-B1BC-3B1BADDF02D6}" name="D$% (total-S)" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="19" xr3:uid="{91660FF1-DD88-4BCB-B1BC-3B1BADDF02D6}" name="D$% (total-S)" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[D$% (total-S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{393E7819-9DA2-46C7-B011-849DFA12B1EF}" name="F$%  (total -S)" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="20" xr3:uid="{393E7819-9DA2-46C7-B011-849DFA12B1EF}" name="F$%  (total -S)" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{9B2D05C9-FAD6-4B52-8E86-8FF086FC3A50}" name="K$%  (total -S)" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="21" xr3:uid="{9B2D05C9-FAD6-4B52-8E86-8FF086FC3A50}" name="K$%  (total -S)" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2634621D-715D-48AB-B4D1-E8ECD47D0CFA}" name="P$%  (total-S)" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="22" xr3:uid="{2634621D-715D-48AB-B4D1-E8ECD47D0CFA}" name="P$%  (total-S)" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{3BE70BDE-4E30-45FA-BC07-64C7101747DE}" name="S$%  (total -S)" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="23" xr3:uid="{3BE70BDE-4E30-45FA-BC07-64C7101747DE}" name="S$%  (total -S)" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{C03A06C7-A4C2-43C9-A37F-7B2A6760B48B}" name="$%  (Total-S)" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="24" xr3:uid="{C03A06C7-A4C2-43C9-A37F-7B2A6760B48B}" name="$%  (Total-S)" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4461,41 +4560,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88528C36-905A-4A75-A2E6-76E08C9D0F38}">
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="13" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="23.88671875" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" customWidth="1"/>
-    <col min="20" max="20" width="15.44140625" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="15.44140625" customWidth="1"/>
+    <col min="12" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
     <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" customWidth="1"/>
-    <col min="26" max="26" width="14.109375" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4572,7 +4671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -4670,7 +4769,7 @@
         <v>1.054010099888679</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -4769,7 +4868,7 @@
         <v>1.0468876890929966</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -4868,7 +4967,7 @@
         <v>1.0167755196586277</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -4967,7 +5066,7 @@
         <v>1.0394500498673287</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -5066,7 +5165,7 @@
         <v>1.0229300425248062</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -5165,7 +5264,7 @@
         <v>1.035846692132266</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -5264,7 +5363,7 @@
         <v>1.04124207980631</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -5363,7 +5462,7 @@
         <v>1.0184419813836061</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5462,7 +5561,7 @@
         <v>1.0605554519154179</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -5561,7 +5660,7 @@
         <v>1.1188565535466821</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -5660,7 +5759,7 @@
         <v>1.0542389206573994</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -5759,7 +5858,7 @@
         <v>1.0354995734943329</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -5858,7 +5957,7 @@
         <v>1.0477621138587168</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -5957,7 +6056,7 @@
         <v>1.0603448651016651</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -6056,7 +6155,7 @@
         <v>1.0186587776045566</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -6155,7 +6254,7 @@
         <v>1.0057656898835958</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -6254,7 +6353,7 @@
         <v>1.0038940679993278</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -6353,7 +6452,7 @@
         <v>1.0256359321815507</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -6452,7 +6551,7 @@
         <v>1.0091314835289107</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -6551,7 +6650,7 @@
         <v>1.0821941707563218</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -6650,7 +6749,7 @@
         <v>1.0060135821047251</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -6749,7 +6848,7 @@
         <v>1.0367126676921765</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -6848,7 +6947,7 @@
         <v>1.0681144944003527</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -6947,7 +7046,7 @@
         <v>1.0182818496814785</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -7046,7 +7145,7 @@
         <v>1.0202247824004957</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -7145,7 +7244,7 @@
         <v>1.0725590868587431</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -7244,7 +7343,7 @@
         <v>1.0229290265522732</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2023</v>
       </c>
@@ -7343,7 +7442,7 @@
         <v>1.0196020409300324</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -7442,7 +7541,7 @@
         <v>1.02139586017904</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2023</v>
       </c>
@@ -7541,7 +7640,7 @@
         <v>1.0241386639795635</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2023</v>
       </c>
@@ -7640,7 +7739,7 @@
         <v>1.0145415957394686</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -7739,7 +7838,7 @@
         <v>1.0582314028235635</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -7838,7 +7937,7 @@
         <v>1.0222521565183638</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2023</v>
       </c>
@@ -7937,7 +8036,7 @@
         <v>1.0445714285714285</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2023</v>
       </c>
@@ -8036,7 +8135,7 @@
         <v>1.0117485320215118</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2023</v>
       </c>
@@ -8135,7 +8234,7 @@
         <v>1.0494654863052115</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2023</v>
       </c>
@@ -8234,7 +8333,7 @@
         <v>1.024073368768762</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2023</v>
       </c>
@@ -8333,7 +8432,7 @@
         <v>1.1092886951156571</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2023</v>
       </c>
@@ -8432,7 +8531,7 @@
         <v>1.0226961108570169</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2023</v>
       </c>
@@ -8531,7 +8630,7 @@
         <v>1.02163097779315</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2023</v>
       </c>
@@ -8630,7 +8729,7 @@
         <v>1.0096941451518944</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2023</v>
       </c>
@@ -8729,7 +8828,7 @@
         <v>1.0528243521867244</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2023</v>
       </c>
@@ -8828,7 +8927,7 @@
         <v>1.0129797583685125</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2023</v>
       </c>
@@ -8927,7 +9026,7 @@
         <v>1.0822949922140248</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -9026,7 +9125,7 @@
         <v>1.0095213574121524</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2023</v>
       </c>
@@ -9125,7 +9224,7 @@
         <v>1.0392699191431689</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -9224,7 +9323,7 @@
         <v>1.0151892610811664</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2023</v>
       </c>
@@ -9323,7 +9422,7 @@
         <v>1.0099539866341773</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2023</v>
       </c>
@@ -9422,7 +9521,7 @@
         <v>1.0421891499663742</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2023</v>
       </c>
@@ -9521,7 +9620,7 @@
         <v>1.0413808142262881</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2023</v>
       </c>
@@ -9620,7 +9719,7 @@
         <v>1.058200008363527</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -9719,7 +9818,7 @@
         <v>1.0128911735607649</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2023</v>
       </c>
@@ -9818,7 +9917,7 @@
         <v>1.0344215107296151</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2023</v>
       </c>
@@ -9917,7 +10016,7 @@
         <v>1.0261919807298321</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2023</v>
       </c>
@@ -10016,7 +10115,7 @@
         <v>1.0199307821210519</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2023</v>
       </c>
@@ -10115,7 +10214,7 @@
         <v>1.0221841083605958</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2023</v>
       </c>
@@ -10214,7 +10313,7 @@
         <v>1.0372163797977039</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2023</v>
       </c>
@@ -10313,7 +10412,7 @@
         <v>1.0045480341291226</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2023</v>
       </c>
@@ -10412,7 +10511,7 @@
         <v>1.0142178539426157</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2023</v>
       </c>
@@ -10510,7 +10609,7 @@
         <v>1.0408884976888928</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2023</v>
       </c>
@@ -10609,7 +10708,7 @@
         <v>1.0278516491044747</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2023</v>
       </c>
@@ -10708,7 +10807,7 @@
         <v>1.0337615886638263</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2023</v>
       </c>
@@ -10807,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2023</v>
       </c>
@@ -10906,7 +11005,7 @@
         <v>1.0098131356840456</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2023</v>
       </c>
@@ -11005,7 +11104,7 @@
         <v>1.0490071672226393</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2023</v>
       </c>
@@ -11104,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2023</v>
       </c>
@@ -11203,7 +11302,7 @@
         <v>1.0137390578966352</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2023</v>
       </c>
@@ -11302,7 +11401,7 @@
         <v>1.0309444084424264</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2023</v>
       </c>
@@ -11401,7 +11500,7 @@
         <v>1.0028690687163475</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2023</v>
       </c>
@@ -11500,7 +11599,7 @@
         <v>1.0321282348610701</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2023</v>
       </c>
@@ -11598,17 +11697,512 @@
         <v>1.0198477767006608</v>
       </c>
     </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2023</v>
+      </c>
+      <c r="B73">
+        <v>45</v>
+      </c>
+      <c r="C73" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D73" s="18">
+        <f>ROUNDUP(1500/C73*7,0)</f>
+        <v>215</v>
+      </c>
+      <c r="E73" s="4">
+        <f>ROUNDUP(1500*7/F73,0)</f>
+        <v>945</v>
+      </c>
+      <c r="F73" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.114407898658484</v>
+      </c>
+      <c r="G73" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>16.690074349799939</v>
+      </c>
+      <c r="H73" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>887.6431084102345</v>
+      </c>
+      <c r="I73">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>38</v>
+      </c>
+      <c r="J73" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>17.274874356840414</v>
+      </c>
+      <c r="K73" s="7">
+        <f>J73+I73</f>
+        <v>55.274874356840414</v>
+      </c>
+      <c r="L73" s="7">
+        <f>1.5*(0.65*EXP(-0.003*H73))*H73</f>
+        <v>60.359757965858449</v>
+      </c>
+      <c r="M73" s="10">
+        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-5.0848836090180356</v>
+      </c>
+      <c r="N73" s="8">
+        <f>G73/F73</f>
+        <v>1.5016611322870776</v>
+      </c>
+      <c r="O73" s="11">
+        <f>H73/E73</f>
+        <v>0.93930487662458673</v>
+      </c>
+      <c r="P73" s="8">
+        <f>F73/C73</f>
+        <v>0.22733499485904038</v>
+      </c>
+      <c r="Q73" s="9">
+        <f>(H73-H72)/H72</f>
+        <v>0</v>
+      </c>
+      <c r="R73" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>5.2487705940236877E-2</v>
+      </c>
+      <c r="S73" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.63732735026582166</v>
+      </c>
+      <c r="T73" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.16406389486698106</v>
+      </c>
+      <c r="U73" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>8.4709304716629338E-2</v>
+      </c>
+      <c r="V73" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>1.4458898629817427E-2</v>
+      </c>
+      <c r="W73" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.6952845580513436E-2</v>
+      </c>
+      <c r="X73" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>1.9847776700660999E-2</v>
+      </c>
+      <c r="Y73" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0198477767006608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2023</v>
+      </c>
+      <c r="B74">
+        <v>46</v>
+      </c>
+      <c r="C74" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D74" s="18">
+        <f>ROUNDUP(1500/C74*7,0)</f>
+        <v>215</v>
+      </c>
+      <c r="E74" s="4">
+        <f>ROUNDUP(1500*7/F74,0)</f>
+        <v>951</v>
+      </c>
+      <c r="F74" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.04192748686437</v>
+      </c>
+      <c r="G74" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>15.830891812865499</v>
+      </c>
+      <c r="H74" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>908.88095185314023</v>
+      </c>
+      <c r="I74">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>40</v>
+      </c>
+      <c r="J74" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>12.316690193970889</v>
+      </c>
+      <c r="K74" s="7">
+        <f>J74+I74</f>
+        <v>52.316690193970885</v>
+      </c>
+      <c r="L74" s="7">
+        <f>1.5*(0.65*EXP(-0.003*H74))*H74</f>
+        <v>57.98900687816991</v>
+      </c>
+      <c r="M74" s="10">
+        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-5.6723166841990249</v>
+      </c>
+      <c r="N74" s="8">
+        <f>G74/F74</f>
+        <v>1.433707279068636</v>
+      </c>
+      <c r="O74" s="11">
+        <f>H74/E74</f>
+        <v>0.95571078007690879</v>
+      </c>
+      <c r="P74" s="8">
+        <f>F74/C74</f>
+        <v>0.22585247467507405</v>
+      </c>
+      <c r="Q74" s="9">
+        <f>(H74-H73)/H73</f>
+        <v>2.3926106384065355E-2</v>
+      </c>
+      <c r="R74" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>4.9314755301818516E-2</v>
+      </c>
+      <c r="S74" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.69816015840605161</v>
+      </c>
+      <c r="T74" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.11173520677549868</v>
+      </c>
+      <c r="U74" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>7.3075360135288661E-2</v>
+      </c>
+      <c r="V74" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>1.2477527856010723E-2</v>
+      </c>
+      <c r="W74" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>5.5236991525331826E-2</v>
+      </c>
+      <c r="X74" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>1.3737654645276393E-2</v>
+      </c>
+      <c r="Y74" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0137376546452763</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2023</v>
+      </c>
+      <c r="B75">
+        <v>47</v>
+      </c>
+      <c r="C75" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D75" s="18">
+        <f>ROUNDUP(1500/C75*7,0)</f>
+        <v>215</v>
+      </c>
+      <c r="E75" s="4">
+        <f>ROUNDUP(1500*7/F75,0)</f>
+        <v>933</v>
+      </c>
+      <c r="F75" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.255394322236393</v>
+      </c>
+      <c r="G75" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>15.258149142043706</v>
+      </c>
+      <c r="H75" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>864.96854695119373</v>
+      </c>
+      <c r="I75">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>38</v>
+      </c>
+      <c r="J75" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>3.1096200628753863</v>
+      </c>
+      <c r="K75" s="7">
+        <f>J75+I75</f>
+        <v>41.109620062875386</v>
+      </c>
+      <c r="L75" s="7">
+        <f>1.5*(0.65*EXP(-0.003*H75))*H75</f>
+        <v>62.958116983812417</v>
+      </c>
+      <c r="M75" s="10">
+        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-21.848496920937031</v>
+      </c>
+      <c r="N75" s="8">
+        <f>G75/F75</f>
+        <v>1.3556299055555421</v>
+      </c>
+      <c r="O75" s="11">
+        <f>H75/E75</f>
+        <v>0.92708311570331592</v>
+      </c>
+      <c r="P75" s="8">
+        <f>F75/C75</f>
+        <v>0.23021874252886873</v>
+      </c>
+      <c r="Q75" s="9">
+        <f>(H75-H74)/H74</f>
+        <v>-4.831480383917431E-2</v>
+      </c>
+      <c r="R75" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>4.5976718838623365E-2</v>
+      </c>
+      <c r="S75" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.64897299170985223</v>
+      </c>
+      <c r="T75" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.15766759045117293</v>
+      </c>
+      <c r="U75" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>9.1021977041820176E-2</v>
+      </c>
+      <c r="V75" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>1.7501271725510793E-2</v>
+      </c>
+      <c r="W75" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>3.8859450233020704E-2</v>
+      </c>
+      <c r="X75" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>3.6080383527527567E-3</v>
+      </c>
+      <c r="Y75" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.003608038352753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2023</v>
+      </c>
+      <c r="B76">
+        <v>48</v>
+      </c>
+      <c r="C76" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D76" s="18">
+        <f>ROUNDUP(1500/C76*7,0)</f>
+        <v>215</v>
+      </c>
+      <c r="E76" s="4">
+        <f>ROUNDUP(1500*7/F76,0)</f>
+        <v>920</v>
+      </c>
+      <c r="F76" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.423440717089179</v>
+      </c>
+      <c r="G76" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>14.714600795971414</v>
+      </c>
+      <c r="H76" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>744.05456066605598</v>
+      </c>
+      <c r="I76">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>45</v>
+      </c>
+      <c r="J76" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>8.5280269821416308</v>
+      </c>
+      <c r="K76" s="7">
+        <f>J76+I76</f>
+        <v>53.528026982141633</v>
+      </c>
+      <c r="L76" s="7">
+        <f>1.5*(0.65*EXP(-0.003*H76))*H76</f>
+        <v>77.838243833634152</v>
+      </c>
+      <c r="M76" s="10">
+        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-24.31021685149252</v>
+      </c>
+      <c r="N76" s="8">
+        <f>G76/F76</f>
+        <v>1.2881058483508163</v>
+      </c>
+      <c r="O76" s="11">
+        <f>H76/E76</f>
+        <v>0.808754957245713</v>
+      </c>
+      <c r="P76" s="8">
+        <f>F76/C76</f>
+        <v>0.23365597703189156</v>
+      </c>
+      <c r="Q76" s="9">
+        <f>(H76-H75)/H75</f>
+        <v>-0.1397900382751841</v>
+      </c>
+      <c r="R76" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>4.693443533341294E-2</v>
+      </c>
+      <c r="S76" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.61519389531352797</v>
+      </c>
+      <c r="T76" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.1731130466824102</v>
+      </c>
+      <c r="U76" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>0.10263070986350362</v>
+      </c>
+      <c r="V76" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>2.0786709309702688E-2</v>
+      </c>
+      <c r="W76" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.1341203497442504E-2</v>
+      </c>
+      <c r="X76" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>1.1594451854005405E-2</v>
+      </c>
+      <c r="Y76" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0115944518540054</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2023</v>
+      </c>
+      <c r="B77">
+        <v>49</v>
+      </c>
+      <c r="C77" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D77" s="18">
+        <f>ROUNDUP(1500/C77*7,0)</f>
+        <v>215</v>
+      </c>
+      <c r="E77" s="4">
+        <f>ROUNDUP(1500*7/F77,0)</f>
+        <v>930</v>
+      </c>
+      <c r="F77" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.293444063808437</v>
+      </c>
+      <c r="G77" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>15.666122393846935</v>
+      </c>
+      <c r="H77" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>778.06840352569452</v>
+      </c>
+      <c r="I77">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>46</v>
+      </c>
+      <c r="J77" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>24.20906630643421</v>
+      </c>
+      <c r="K77" s="7">
+        <f>J77+I77</f>
+        <v>70.20906630643421</v>
+      </c>
+      <c r="L77" s="7">
+        <f>1.5*(0.65*EXP(-0.003*H77))*H77</f>
+        <v>73.50044230983822</v>
+      </c>
+      <c r="M77" s="10">
+        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-3.2913760034040109</v>
+      </c>
+      <c r="N77" s="8">
+        <f>G77/F77</f>
+        <v>1.3871873190616326</v>
+      </c>
+      <c r="O77" s="11">
+        <f>H77/E77</f>
+        <v>0.83663269196311241</v>
+      </c>
+      <c r="P77" s="8">
+        <f>F77/C77</f>
+        <v>0.23099701500937689</v>
+      </c>
+      <c r="Q77" s="9">
+        <f>(H77-H76)/H76</f>
+        <v>4.5714178311319457E-2</v>
+      </c>
+      <c r="R77" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>4.4522989199927608E-2</v>
+      </c>
+      <c r="S77" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.66216927213182797</v>
+      </c>
+      <c r="T77" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.13755951548642867</v>
+      </c>
+      <c r="U77" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>9.7375692809402101E-2</v>
+      </c>
+      <c r="V77" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>1.4036252586690423E-2</v>
+      </c>
+      <c r="W77" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.4336277785723181E-2</v>
+      </c>
+      <c r="X77" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>3.2113505943606818E-2</v>
+      </c>
+      <c r="Y77" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0321135059436066</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M2:M72">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="M2:M77">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N72">
+  <conditionalFormatting sqref="N2:N77">
     <cfRule type="iconSet" priority="66">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -11617,7 +12211,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O72">
+  <conditionalFormatting sqref="O2:O77">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -11629,7 +12223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P72">
+  <conditionalFormatting sqref="P2:P77">
     <cfRule type="iconSet" priority="68">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
@@ -11640,7 +12234,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q72">
+  <conditionalFormatting sqref="Q2:Q77">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -11672,7 +12266,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q72</xm:sqref>
+          <xm:sqref>Q2:Q77</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11688,18 +12282,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="17"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -11707,7 +12301,7 @@
         <v>7.0568261580929686E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -11715,7 +12309,7 @@
         <v>5.9654612566935354E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11723,7 +12317,7 @@
         <v>7.0685719062960811E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -11731,7 +12325,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -11739,7 +12333,7 @@
         <v>4.0459726744444709E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -11747,7 +12341,7 @@
         <v>1.6369894882351343E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11755,7 +12349,7 @@
         <v>4.4367887051815931</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -11763,7 +12357,7 @@
         <v>1.4134313474815658</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -11771,7 +12365,7 @@
         <v>0.21541526146547929</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -11779,7 +12373,7 @@
         <v>1.9214875353949785E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -11787,7 +12381,7 @@
         <v>0.23463013681942907</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -11795,7 +12389,7 @@
         <v>3.2461400327227654</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -11803,7 +12397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>67</v>
       </c>
@@ -11824,32 +12418,32 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -11857,7 +12451,7 @@
         <v>0.79668472802169177</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -11865,7 +12459,7 @@
         <v>0.63470655586299696</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -11873,7 +12467,7 @@
         <v>0.62640443213261054</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -11881,7 +12475,7 @@
         <v>2.472998215628458E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
@@ -11889,12 +12483,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16" t="s">
         <v>48</v>
@@ -11912,7 +12506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -11932,7 +12526,7 @@
         <v>3.5424237328808716E-11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -11946,7 +12540,7 @@
         <v>6.1157201745015374E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>46</v>
       </c>
@@ -11960,8 +12554,8 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
         <v>53</v>
@@ -11988,7 +12582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -12017,7 +12611,7 @@
         <v>0.27378641728571529</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
@@ -12046,7 +12640,7 @@
         <v>-1.4113058198744131E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -12054,8 +12648,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>61</v>
       </c>
@@ -12075,7 +12669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -12095,7 +12689,7 @@
         <v>1.9214875353949785E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12115,7 +12709,7 @@
         <v>1.9293551665185388E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -12135,7 +12729,7 @@
         <v>2.1402378806555832E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -12155,7 +12749,7 @@
         <v>2.1873591432871254E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -12175,7 +12769,7 @@
         <v>2.4451688592768837E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -12195,7 +12789,7 @@
         <v>2.8968352462320372E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -12215,7 +12809,7 @@
         <v>2.9123905736681291E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -12235,7 +12829,7 @@
         <v>3.0039901760827534E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -12255,7 +12849,7 @@
         <v>3.0396480060029658E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10</v>
       </c>
@@ -12275,7 +12869,7 @@
         <v>3.4492773937565911E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11</v>
       </c>
@@ -12295,7 +12889,7 @@
         <v>3.6880605292335375E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12</v>
       </c>
@@ -12315,7 +12909,7 @@
         <v>3.8038822925710994E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13</v>
       </c>
@@ -12335,7 +12929,7 @@
         <v>3.8280116662410074E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
@@ -12355,7 +12949,7 @@
         <v>3.8522186862285888E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>15</v>
       </c>
@@ -12375,7 +12969,7 @@
         <v>4.0772823859477184E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16</v>
       </c>
@@ -12395,7 +12989,7 @@
         <v>4.4943328134318304E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>17</v>
       </c>
@@ -12415,7 +13009,7 @@
         <v>4.8146899121257733E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>18</v>
       </c>
@@ -12435,7 +13029,7 @@
         <v>5.026244705287583E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>19</v>
       </c>
@@ -12455,7 +13049,7 @@
         <v>5.4034847987806937E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20</v>
       </c>
@@ -12475,7 +13069,7 @@
         <v>5.4232283794637112E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21</v>
       </c>
@@ -12495,7 +13089,7 @@
         <v>5.4712666443967696E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
@@ -12515,7 +13109,7 @@
         <v>6.8655731660971955E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>23</v>
       </c>
@@ -12535,7 +13129,7 @@
         <v>6.9808663946635929E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24</v>
       </c>
@@ -12555,7 +13149,7 @@
         <v>7.1562774179285707E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25</v>
       </c>
@@ -12575,7 +13169,7 @@
         <v>7.4817245762244772E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>26</v>
       </c>
@@ -12595,7 +13189,7 @@
         <v>7.8362202475799836E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>27</v>
       </c>
@@ -12615,7 +13209,7 @@
         <v>8.1709814281439128E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>28</v>
       </c>
@@ -12635,7 +13229,7 @@
         <v>8.1733465109056644E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>29</v>
       </c>
@@ -12655,7 +13249,7 @@
         <v>8.3661483017992949E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>30</v>
       </c>
@@ -12675,7 +13269,7 @@
         <v>8.6385510879121108E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>31</v>
       </c>
@@ -12695,7 +13289,7 @@
         <v>8.9449859808939478E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>32</v>
       </c>
@@ -12715,7 +13309,7 @@
         <v>9.2790307738703851E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>33</v>
       </c>
@@ -12735,7 +13329,7 @@
         <v>9.306450307036801E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>34</v>
       </c>
@@ -12755,7 +13349,7 @@
         <v>9.4047894538948587E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>35</v>
       </c>
@@ -12775,7 +13369,7 @@
         <v>9.4474396241194178E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>36</v>
       </c>
@@ -12795,7 +13389,7 @@
         <v>0.10133634213983586</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>37</v>
       </c>
@@ -12815,7 +13409,7 @@
         <v>0.10213722860700671</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>38</v>
       </c>
@@ -12835,7 +13429,7 @@
         <v>0.10229080091330563</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>39</v>
       </c>
@@ -12855,7 +13449,7 @@
         <v>0.10312374334598796</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>40</v>
       </c>
@@ -12875,7 +13469,7 @@
         <v>0.10535754576217192</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>41</v>
       </c>
@@ -12895,7 +13489,7 @@
         <v>0.10853867252938192</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>42</v>
       </c>
@@ -12915,7 +13509,7 @@
         <v>0.1098349467048972</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>43</v>
       </c>
@@ -12935,7 +13529,7 @@
         <v>0.11118730729518359</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>44</v>
       </c>
@@ -12955,7 +13549,7 @@
         <v>0.11639822704796121</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>45</v>
       </c>
@@ -12975,7 +13569,7 @@
         <v>0.13269670090106236</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>46</v>
       </c>
@@ -13012,14 +13606,14 @@
       <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -13030,7 +13624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>396.36851966536864</v>
       </c>
@@ -13042,7 +13636,7 @@
         <v>0.23463013681942907</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>986.44451665860322</v>
       </c>
@@ -13054,7 +13648,7 @@
         <v>3.8522186862285888E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>857.37515372107919</v>
       </c>
@@ -13066,7 +13660,7 @@
         <v>9.4474396241194178E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>881.16743745116571</v>
       </c>
@@ -13078,7 +13672,7 @@
         <v>0.10213722860700671</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1013.036838553253</v>
       </c>
@@ -13090,7 +13684,7 @@
         <v>9.2790307738703851E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>815.71834250067877</v>
       </c>
@@ -13102,7 +13696,7 @@
         <v>5.026244705287583E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>753.03470279687349</v>
       </c>
@@ -13114,7 +13708,7 @@
         <v>8.3661483017992949E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>683.38721711047322</v>
       </c>
@@ -13126,7 +13720,7 @@
         <v>0.10535754576217192</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>680.90083520861299</v>
       </c>
@@ -13138,7 +13732,7 @@
         <v>0.10133634213983586</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>833.9495562284186</v>
       </c>
@@ -13150,7 +13744,7 @@
         <v>0.10312374334598796</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>845.04912058862044</v>
       </c>
@@ -13162,7 +13756,7 @@
         <v>8.6385510879121108E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>650.82397365936777</v>
       </c>
@@ -13174,7 +13768,7 @@
         <v>7.8362202475799836E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>690.99794803273608</v>
       </c>
@@ -13186,7 +13780,7 @@
         <v>0.10853867252938192</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>730.2516726906523</v>
       </c>
@@ -13198,7 +13792,7 @@
         <v>0.11639822704796121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>811.412162764713</v>
       </c>
@@ -13210,7 +13804,7 @@
         <v>0.10229080091330563</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>827.27910538999583</v>
       </c>
@@ -13222,7 +13816,7 @@
         <v>8.9449859808939478E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>896.78190333251371</v>
       </c>
@@ -13234,7 +13828,7 @@
         <v>0.13269670090106236</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>752.16648335909065</v>
       </c>
@@ -13246,7 +13840,7 @@
         <v>9.306450307036801E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>695.02692153686439</v>
       </c>
@@ -13258,7 +13852,7 @@
         <v>7.4817245762244772E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>685.35218801397684</v>
       </c>
@@ -13270,7 +13864,7 @@
         <v>8.1709814281439128E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>673.73820646375907</v>
       </c>
@@ -13282,7 +13876,7 @@
         <v>0.1098349467048972</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>712.40297646698423</v>
       </c>
@@ -13294,7 +13888,7 @@
         <v>9.4047894538948587E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>755.48191644747851</v>
       </c>
@@ -13306,7 +13900,7 @@
         <v>0.11118730729518359</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>844.20744804999481</v>
       </c>
@@ -13318,7 +13912,7 @@
         <v>8.1733465109056644E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>932.14246928049272</v>
       </c>
@@ -13330,7 +13924,7 @@
         <v>5.4712666443967696E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>1044.9288948818382</v>
       </c>
@@ -13342,7 +13936,7 @@
         <v>3.8280116662410074E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>996.94893910223027</v>
       </c>
@@ -13354,7 +13948,7 @@
         <v>4.8146899121257733E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>830.84243016507423</v>
       </c>
@@ -13366,7 +13960,7 @@
         <v>6.9808663946635929E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>1139.1742089207062</v>
       </c>
@@ -13378,7 +13972,7 @@
         <v>2.8968352462320372E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>1052.7534746392862</v>
       </c>
@@ -13390,7 +13984,7 @@
         <v>3.0396480060029658E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>949.00828558998171</v>
       </c>
@@ -13402,7 +13996,7 @@
         <v>3.6880605292335375E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>1020.0834279721132</v>
       </c>
@@ -13414,7 +14008,7 @@
         <v>7.1562774179285707E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>1073.3813855289795</v>
       </c>
@@ -13426,7 +14020,7 @@
         <v>5.4034847987806937E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>995.74556593468049</v>
       </c>
@@ -13438,7 +14032,7 @@
         <v>2.9123905736681291E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>866.64246296497856</v>
       </c>
@@ -13450,7 +14044,7 @@
         <v>5.4232283794637112E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>1121.5378255705259</v>
       </c>
@@ -13462,7 +14056,7 @@
         <v>6.8655731660971955E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>1130.4240429305103</v>
       </c>
@@ -13474,7 +14068,7 @@
         <v>3.8038822925710994E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>934.47556371041037</v>
       </c>
@@ -13486,7 +14080,7 @@
         <v>2.1402378806555832E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>981.52730470719246</v>
       </c>
@@ -13498,7 +14092,7 @@
         <v>2.4451688592768837E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>1097.2135085202888</v>
       </c>
@@ -13510,7 +14104,7 @@
         <v>2.1873591432871254E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>1243.9389292593157</v>
       </c>
@@ -13522,7 +14116,7 @@
         <v>1.9293551665185388E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>1152.7285959389192</v>
       </c>
@@ -13534,7 +14128,7 @@
         <v>4.0772823859477184E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>1098.5388788132616</v>
       </c>
@@ -13546,7 +14140,7 @@
         <v>3.0039901760827534E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>1101.6800234386017</v>
       </c>
@@ -13558,7 +14152,7 @@
         <v>3.4492773937565911E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>1040.8602518407088</v>
       </c>
@@ -13570,7 +14164,7 @@
         <v>1.9214875353949785E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>1001.260962817714</v>
       </c>

--- a/Controle de bandejas.xlsx
+++ b/Controle de bandejas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Repositories\bonus_bandejas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Repositories\Self_owned\bonus_bandejas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F76BB-62E7-49A9-ACA8-D1638CFB1C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426A26F-C607-446E-8CE9-662451FB4A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CFECCB-4CFF-4A8C-8AE9-C6FF4049EEB0}"/>
+    <workbookView minimized="1" xWindow="2112" yWindow="732" windowWidth="21624" windowHeight="11244" xr2:uid="{E9CFECCB-4CFF-4A8C-8AE9-C6FF4049EEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="linhadotempo" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -409,114 +409,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4172,6 +4071,7 @@
       <sheetName val="pivot"/>
       <sheetName val="OP"/>
       <sheetName val="Planilha1"/>
+      <sheetName val="BANDEJA DO PERIODO"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4180,82 +4080,83 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}" name="Tabela1" displayName="Tabela1" ref="A1:Y77" totalsRowShown="0" dataDxfId="53" dataCellStyle="Porcentagem">
-  <autoFilter ref="A1:Y77" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}" name="Tabela1" displayName="Tabela1" ref="A1:Y86" totalsRowShown="0" dataDxfId="43" dataCellStyle="Porcentagem">
+  <autoFilter ref="A1:Y86" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{3F285AB6-3207-4521-9833-C1F884DD7E56}" name="Ano"/>
     <tableColumn id="2" xr3:uid="{4AF046E5-793E-4801-8A36-97DB43D8876E}" name="Semana"/>
-    <tableColumn id="3" xr3:uid="{D75767E6-B058-483D-B6B5-A74A4979CA48}" name="Ideal, valor" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{E89FD64E-DD05-499C-9B13-308BB71A6C09}" name="Meta ideal" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{D75767E6-B058-483D-B6B5-A74A4979CA48}" name="Ideal, valor" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{E89FD64E-DD05-499C-9B13-308BB71A6C09}" name="Meta ideal" dataDxfId="40">
       <calculatedColumnFormula>ROUNDUP(1500/C2*7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{12F97016-80FB-402C-A0EE-79232F4A23F3}" name="Meta ajustada" dataDxfId="49">
+    <tableColumn id="5" xr3:uid="{12F97016-80FB-402C-A0EE-79232F4A23F3}" name="Meta ajustada" dataDxfId="39">
       <calculatedColumnFormula>ROUNDUP(1500*7/F2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{30EFC432-A98B-40C4-AE20-C3441E71C589}" name="Semanal, valor" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
+    <tableColumn id="6" xr3:uid="{30EFC432-A98B-40C4-AE20-C3441E71C589}" name="Semanal, valor" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[Ticket período]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FAF39A7E-B38D-4AAF-86EF-DF9F90BB9DFD}" name="Recomendada, valor" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
+    <tableColumn id="7" xr3:uid="{FAF39A7E-B38D-4AAF-86EF-DF9F90BB9DFD}" name="Recomendada, valor" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
       <calculatedColumnFormula>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{32B83BBF-2DD1-4C6A-9E9B-7B0B3CE39131}" name="vendas realizadas (bandejas)" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="8" xr3:uid="{32B83BBF-2DD1-4C6A-9E9B-7B0B3CE39131}" name="vendas realizadas (bandejas)" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{F088F117-AFF3-4ACC-ABB1-EE8174EA4871}" name="total de conversões">
       <calculatedColumnFormula>[1]!Tabela2[[#This Row],[Recomendações]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D8AF781B-4A0C-4C6A-B4F9-4B53DD9522B8}" name="Equiv. product line" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
+    <tableColumn id="10" xr3:uid="{D8AF781B-4A0C-4C6A-B4F9-4B53DD9522B8}" name="Equiv. product line" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Moeda" totalsRowCellStyle="Moeda">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E66BFEC8-392B-483B-B7A7-7D8593D4F081}" name="Conversões + Equiv. Prod. Line" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="11" xr3:uid="{E66BFEC8-392B-483B-B7A7-7D8593D4F081}" name="Conversões + Equiv. Prod. Line" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>J2+I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C3725EF8-EF29-4DB4-810C-0FAF4D9834F8}" name="meta de conversões" dataDxfId="38">
+    <tableColumn id="12" xr3:uid="{C3725EF8-EF29-4DB4-810C-0FAF4D9834F8}" name="meta de conversões" dataDxfId="28">
       <calculatedColumnFormula>1.5*(0.65*EXP(-0.003*H2))*H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{19A21289-F5FA-408D-93C7-DCF1F28A38C9}" name="Dif. Meta/conversões" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</calculatedColumnFormula>
+    <tableColumn id="25" xr3:uid="{19A21289-F5FA-408D-93C7-DCF1F28A38C9}" name="Dif. Meta/conversões" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8CCA114B-EED9-48FA-BAAA-066EACBE454B}" name="eficiência de conversão" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="13" xr3:uid="{8CCA114B-EED9-48FA-BAAA-066EACBE454B}" name="eficiência de conversão" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>G2/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0F96DAD9-4F96-419A-A6DB-8EA3B6DA159A}" name="% meta de vendas" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="15" xr3:uid="{0F96DAD9-4F96-419A-A6DB-8EA3B6DA159A}" name="% meta de vendas" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>H2/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D990F55D-3226-4581-8531-9A656531D215}" name="% valor ideal" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="16" xr3:uid="{D990F55D-3226-4581-8531-9A656531D215}" name="% valor ideal" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>F2/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{15A25A1B-53D5-44BC-899C-10344331F197}" name="var. % movimento" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="14" xr3:uid="{15A25A1B-53D5-44BC-899C-10344331F197}" name="var. % movimento" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>(H2-H1)/H1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{89DFE577-631A-4B01-BD18-F48A3B87074B}" name="A$%  (total -S)" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="17" xr3:uid="{89DFE577-631A-4B01-BD18-F48A3B87074B}" name="A$%  (total -S)" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{211729AB-8134-45BE-BA09-89078E0EE82F}" name="B$%  (total -S)" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="18" xr3:uid="{211729AB-8134-45BE-BA09-89078E0EE82F}" name="B$%  (total -S)" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{91660FF1-DD88-4BCB-B1BC-3B1BADDF02D6}" name="D$% (total-S)" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="19" xr3:uid="{91660FF1-DD88-4BCB-B1BC-3B1BADDF02D6}" name="D$% (total-S)" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[D$% (total-S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{393E7819-9DA2-46C7-B011-849DFA12B1EF}" name="F$%  (total -S)" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="20" xr3:uid="{393E7819-9DA2-46C7-B011-849DFA12B1EF}" name="F$%  (total -S)" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{9B2D05C9-FAD6-4B52-8E86-8FF086FC3A50}" name="K$%  (total -S)" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="21" xr3:uid="{9B2D05C9-FAD6-4B52-8E86-8FF086FC3A50}" name="K$%  (total -S)" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2634621D-715D-48AB-B4D1-E8ECD47D0CFA}" name="P$%  (total-S)" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="22" xr3:uid="{2634621D-715D-48AB-B4D1-E8ECD47D0CFA}" name="P$%  (total-S)" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{3BE70BDE-4E30-45FA-BC07-64C7101747DE}" name="S$%  (total -S)" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="23" xr3:uid="{3BE70BDE-4E30-45FA-BC07-64C7101747DE}" name="S$%  (total -S)" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{C03A06C7-A4C2-43C9-A37F-7B2A6760B48B}" name="$%  (Total-S)" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
+    <tableColumn id="24" xr3:uid="{C03A06C7-A4C2-43C9-A37F-7B2A6760B48B}" name="$%  (Total-S)" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4560,41 +4461,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88528C36-905A-4A75-A2E6-76E08C9D0F38}">
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="G74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+    <col min="12" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="23.88671875" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" customWidth="1"/>
+    <col min="20" max="20" width="15.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" customWidth="1"/>
     <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4671,7 +4572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -4714,12 +4615,11 @@
         <v>113.3109091099938</v>
       </c>
       <c r="L2" s="10">
-        <f>1.5*(0.65*EXP(-0.003*H2))*H2</f>
-        <v>117.67434448828158</v>
+        <v>55.056000000000004</v>
       </c>
       <c r="M2" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-4.3634353782877753</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>37.943999999999996</v>
       </c>
       <c r="N2" s="8">
         <f t="shared" ref="N2:N8" si="2">G2/F2</f>
@@ -4769,7 +4669,7 @@
         <v>1.054010099888679</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -4812,12 +4712,11 @@
         <v>82.180578572522677</v>
       </c>
       <c r="L3" s="10">
-        <f t="shared" ref="L3:L47" si="6">1.5*(0.65*EXP(-0.003*H3))*H3</f>
-        <v>49.871800526322744</v>
+        <v>88.283999999999992</v>
       </c>
       <c r="M3" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>32.308778046199933</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-50.283999999999992</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" si="2"/>
@@ -4832,7 +4731,7 @@
         <v>0.26157656026651338</v>
       </c>
       <c r="Q3" s="9">
-        <f t="shared" ref="Q3:Q8" si="7">(H3-H2)/H2</f>
+        <f t="shared" ref="Q3:Q8" si="6">(H3-H2)/H2</f>
         <v>1.4887055043912221</v>
       </c>
       <c r="R3" s="2">
@@ -4868,7 +4767,7 @@
         <v>1.0468876890929966</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -4911,12 +4810,11 @@
         <v>95.145613724940702</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" si="6"/>
-        <v>63.843342291714457</v>
+        <v>99.744</v>
       </c>
       <c r="M4" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>31.302271433226245</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-18.744</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="2"/>
@@ -4931,7 +4829,7 @@
         <v>0.26051478437704972</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.13084300308619731</v>
       </c>
       <c r="R4" s="2">
@@ -4967,7 +4865,7 @@
         <v>1.0167755196586277</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -5010,12 +4908,11 @@
         <v>123.44278000982499</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" si="6"/>
-        <v>61.094847973378812</v>
+        <v>96.48</v>
       </c>
       <c r="M5" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>62.347932036446174</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-6.480000000000004</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="2"/>
@@ -5030,7 +4927,7 @@
         <v>0.25388338036614916</v>
       </c>
       <c r="Q5" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.7750143711100142E-2</v>
       </c>
       <c r="R5" s="2">
@@ -5066,7 +4963,7 @@
         <v>1.0394500498673287</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -5109,12 +5006,11 @@
         <v>116.70827605169094</v>
       </c>
       <c r="L6" s="10">
-        <f t="shared" si="6"/>
-        <v>47.28908679567126</v>
+        <v>64.14</v>
       </c>
       <c r="M6" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>69.419189256019678</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>29.86</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="2"/>
@@ -5129,7 +5025,7 @@
         <v>0.2570544825884627</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.1496530574070328</v>
       </c>
       <c r="R6" s="2">
@@ -5165,7 +5061,7 @@
         <v>1.0229300425248062</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -5208,12 +5104,11 @@
         <v>69.228891893329035</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" si="6"/>
-        <v>68.827012497246756</v>
+        <v>83.016000000000005</v>
       </c>
       <c r="M7" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>0.40187939608227907</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-42.016000000000005</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="2"/>
@@ -5228,7 +5123,7 @@
         <v>0.26221475353352575</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.1947791911835807</v>
       </c>
       <c r="R7" s="2">
@@ -5264,7 +5159,7 @@
         <v>1.035846692132266</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -5307,12 +5202,11 @@
         <v>92.826606042897112</v>
       </c>
       <c r="L8" s="10">
-        <f t="shared" si="6"/>
-        <v>76.683717401336963</v>
+        <v>86.72399999999999</v>
       </c>
       <c r="M8" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>16.142888641560148</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-23.72399999999999</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="2"/>
@@ -5327,7 +5221,7 @@
         <v>0.25790087149857038</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-7.6844710285220941E-2</v>
       </c>
       <c r="R8" s="2">
@@ -5363,7 +5257,7 @@
         <v>1.04124207980631</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -5406,15 +5300,14 @@
         <v>84.374798531600078</v>
       </c>
       <c r="L9" s="10">
-        <f t="shared" si="6"/>
-        <v>85.762528072712129</v>
+        <v>88.164000000000001</v>
       </c>
       <c r="M9" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-1.3877295411120514</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-16.164000000000001</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" ref="N9:N11" si="8">G9/F9</f>
+        <f t="shared" ref="N9:N11" si="7">G9/F9</f>
         <v>1.1815880789997333</v>
       </c>
       <c r="O9" s="11">
@@ -5462,7 +5355,7 @@
         <v>1.0184419813836061</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5473,11 +5366,11 @@
         <v>41.34</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D11" si="9">ROUNDUP(1500/C10*7,0)</f>
+        <f t="shared" ref="D10:D11" si="8">ROUNDUP(1500/C10*7,0)</f>
         <v>254</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E14" si="10">ROUNDUP(1500*7/F10,0)</f>
+        <f t="shared" ref="E10:E14" si="9">ROUNDUP(1500*7/F10,0)</f>
         <v>999</v>
       </c>
       <c r="F10" s="1">
@@ -5501,23 +5394,22 @@
         <v>38.877983900960018</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" ref="K10:K11" si="11">J10+I10</f>
+        <f t="shared" ref="K10:K11" si="10">J10+I10</f>
         <v>107.87798390096002</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" si="6"/>
-        <v>86.090267295458901</v>
+        <v>100.69199999999999</v>
       </c>
       <c r="M10" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>21.787716605501117</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-31.691999999999993</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.1367481101264008</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" ref="O10:O11" si="12">H10/E10</f>
+        <f t="shared" ref="O10:O11" si="11">H10/E10</f>
         <v>0.68158241762623928</v>
       </c>
       <c r="P10" s="8">
@@ -5561,7 +5453,7 @@
         <v>1.0605554519154179</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -5572,11 +5464,11 @@
         <v>41.34</v>
       </c>
       <c r="D11">
+        <f t="shared" si="8"/>
+        <v>254</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="9"/>
-        <v>254</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="10"/>
         <v>1009</v>
       </c>
       <c r="F11" s="1">
@@ -5600,23 +5492,22 @@
         <v>88.590775797747725</v>
       </c>
       <c r="K11" s="10">
+        <f t="shared" si="10"/>
+        <v>174.59077579774771</v>
+      </c>
+      <c r="L11" s="10">
+        <v>90.263999999999996</v>
+      </c>
+      <c r="M11" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-4.2639999999999958</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="7"/>
+        <v>1.1086695609154147</v>
+      </c>
+      <c r="O11" s="11">
         <f t="shared" si="11"/>
-        <v>174.59077579774771</v>
-      </c>
-      <c r="L11" s="10">
-        <f t="shared" si="6"/>
-        <v>66.620107055484169</v>
-      </c>
-      <c r="M11" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>107.97066874226354</v>
-      </c>
-      <c r="N11" s="8">
-        <f t="shared" si="8"/>
-        <v>1.1086695609154147</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="12"/>
         <v>0.82651095760992921</v>
       </c>
       <c r="P11" s="8">
@@ -5624,7 +5515,7 @@
         <v>0.25175142871807976</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" ref="Q11:Q17" si="13">(H11-H10)/H10</f>
+        <f t="shared" ref="Q11:Q17" si="12">(H11-H10)/H10</f>
         <v>0.22477387764242476</v>
       </c>
       <c r="R11" s="2">
@@ -5660,7 +5551,7 @@
         <v>1.1188565535466821</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -5671,11 +5562,11 @@
         <v>41.34</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12" si="14">ROUNDUP(1500/C12*7,0)</f>
+        <f t="shared" ref="D12" si="13">ROUNDUP(1500/C12*7,0)</f>
         <v>254</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1004</v>
       </c>
       <c r="F12" s="1">
@@ -5699,23 +5590,22 @@
         <v>43.476437176717077</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" ref="K12:K17" si="15">J12+I12</f>
+        <f t="shared" ref="K12:K17" si="14">J12+I12</f>
         <v>116.47643717671707</v>
       </c>
       <c r="L12" s="10">
-        <f t="shared" si="6"/>
-        <v>65.295922175581779</v>
+        <v>70.823999999999998</v>
       </c>
       <c r="M12" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>51.180515001135291</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>2.1760000000000019</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" ref="N12:N17" si="16">G12/F12</f>
+        <f t="shared" ref="N12:N17" si="15">G12/F12</f>
         <v>1.1266437986185667</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" ref="O12" si="17">H12/E12</f>
+        <f t="shared" ref="O12" si="16">H12/E12</f>
         <v>0.84168239102452236</v>
       </c>
       <c r="P12" s="8">
@@ -5723,7 +5613,7 @@
         <v>0.25315527266963572</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.3309635189927088E-2</v>
       </c>
       <c r="R12" s="2">
@@ -5759,7 +5649,7 @@
         <v>1.0542389206573994</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -5770,11 +5660,11 @@
         <v>41.34</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="18">ROUNDUP(1500/C13*7,0)</f>
+        <f t="shared" ref="D13" si="17">ROUNDUP(1500/C13*7,0)</f>
         <v>254</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>843</v>
       </c>
       <c r="F13" s="1">
@@ -5798,23 +5688,22 @@
         <v>22.31191018923284</v>
       </c>
       <c r="K13" s="10">
+        <f t="shared" si="14"/>
+        <v>73.311910189232833</v>
+      </c>
+      <c r="L13" s="10">
+        <v>80.88000000000001</v>
+      </c>
+      <c r="M13" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-29.88000000000001</v>
+      </c>
+      <c r="N13" s="8">
         <f t="shared" si="15"/>
-        <v>73.311910189232833</v>
-      </c>
-      <c r="L13" s="10">
-        <f t="shared" si="6"/>
-        <v>90.057601558102263</v>
-      </c>
-      <c r="M13" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-16.74569136886943</v>
-      </c>
-      <c r="N13" s="8">
-        <f t="shared" si="16"/>
         <v>0.90426341612604633</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" ref="O13" si="19">H13/E13</f>
+        <f t="shared" ref="O13" si="18">H13/E13</f>
         <v>0.77203318346306971</v>
       </c>
       <c r="P13" s="8">
@@ -5822,7 +5711,7 @@
         <v>0.30139605986342755</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.22983888415145004</v>
       </c>
       <c r="R13" s="2">
@@ -5858,7 +5747,7 @@
         <v>1.0354995734943329</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -5869,11 +5758,11 @@
         <v>41.34</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14" si="20">ROUNDUP(1500/C14*7,0)</f>
+        <f t="shared" ref="D14" si="19">ROUNDUP(1500/C14*7,0)</f>
         <v>254</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>970</v>
       </c>
       <c r="F14" s="1">
@@ -5897,23 +5786,22 @@
         <v>31.499060935247144</v>
       </c>
       <c r="K14" s="10">
+        <f t="shared" si="14"/>
+        <v>106.49906093524714</v>
+      </c>
+      <c r="L14" s="10">
+        <v>94.128</v>
+      </c>
+      <c r="M14" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-19.128</v>
+      </c>
+      <c r="N14" s="8">
         <f t="shared" si="15"/>
-        <v>106.49906093524714</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="6"/>
-        <v>84.760124488695013</v>
-      </c>
-      <c r="M14" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>21.738936446552131</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="16"/>
         <v>0.96135257137857888</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" ref="O14" si="21">H14/E14</f>
+        <f t="shared" ref="O14" si="20">H14/E14</f>
         <v>0.71236901859044954</v>
       </c>
       <c r="P14" s="8">
@@ -5921,7 +5809,7 @@
         <v>0.26187033278170224</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.1727864982421207E-2</v>
       </c>
       <c r="R14" s="2">
@@ -5957,7 +5845,7 @@
         <v>1.0477621138587168</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -5968,11 +5856,11 @@
         <v>41.34</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D16" si="22">ROUNDUP(1500/C15*7,0)</f>
+        <f t="shared" ref="D15:D16" si="21">ROUNDUP(1500/C15*7,0)</f>
         <v>254</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" ref="E15:E16" si="23">ROUNDUP(1500*7/F15,0)</f>
+        <f t="shared" ref="E15:E16" si="22">ROUNDUP(1500*7/F15,0)</f>
         <v>1049</v>
       </c>
       <c r="F15" s="1">
@@ -5996,31 +5884,30 @@
         <v>41.559062649450027</v>
       </c>
       <c r="K15" s="10">
+        <f t="shared" si="14"/>
+        <v>126.55906264945003</v>
+      </c>
+      <c r="L15" s="10">
+        <v>96.912000000000006</v>
+      </c>
+      <c r="M15" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-11.912000000000006</v>
+      </c>
+      <c r="N15" s="8">
         <f t="shared" si="15"/>
-        <v>126.55906264945003</v>
-      </c>
-      <c r="L15" s="10">
-        <f t="shared" si="6"/>
-        <v>79.62406774714043</v>
-      </c>
-      <c r="M15" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>46.934994902309597</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="16"/>
         <v>1.2323978032334224</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" ref="O15:O16" si="24">H15/E15</f>
+        <f t="shared" ref="O15:O16" si="23">H15/E15</f>
         <v>0.69614077472893454</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" ref="P15:P16" si="25">F15/C15</f>
+        <f t="shared" ref="P15:P16" si="24">F15/C15</f>
         <v>0.24213474607551508</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.6807295549387904E-2</v>
       </c>
       <c r="R15" s="2">
@@ -6056,7 +5943,7 @@
         <v>1.0603448651016651</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -6067,11 +5954,11 @@
         <v>41.34</v>
       </c>
       <c r="D16">
+        <f t="shared" si="21"/>
+        <v>254</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="22"/>
-        <v>254</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="23"/>
         <v>1027</v>
       </c>
       <c r="F16" s="1">
@@ -6095,31 +5982,30 @@
         <v>14.862640389023822</v>
       </c>
       <c r="K16" s="10">
+        <f t="shared" si="14"/>
+        <v>97.862640389023824</v>
+      </c>
+      <c r="L16" s="10">
+        <v>91.703999999999994</v>
+      </c>
+      <c r="M16" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-8.7039999999999935</v>
+      </c>
+      <c r="N16" s="8">
         <f t="shared" si="15"/>
-        <v>97.862640389023824</v>
-      </c>
-      <c r="L16" s="10">
-        <f t="shared" si="6"/>
-        <v>69.353862727202397</v>
-      </c>
-      <c r="M16" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>28.508777661821426</v>
-      </c>
-      <c r="N16" s="8">
-        <f t="shared" si="16"/>
         <v>1.2436740809991016</v>
       </c>
       <c r="O16" s="11">
+        <f t="shared" si="23"/>
+        <v>0.79008000269202827</v>
+      </c>
+      <c r="P16" s="8">
         <f t="shared" si="24"/>
-        <v>0.79008000269202827</v>
-      </c>
-      <c r="P16" s="8">
-        <f t="shared" si="25"/>
         <v>0.24738715477844148</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.11114043707016846</v>
       </c>
       <c r="R16" s="2">
@@ -6155,7 +6041,7 @@
         <v>1.0186587776045566</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -6166,11 +6052,11 @@
         <v>40.58</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D22" si="26">ROUNDUP(1500/C17*7,0)</f>
+        <f t="shared" ref="D17:D22" si="25">ROUNDUP(1500/C17*7,0)</f>
         <v>259</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" ref="E17:E22" si="27">ROUNDUP(1500*7/F17,0)</f>
+        <f t="shared" ref="E17:E22" si="26">ROUNDUP(1500*7/F17,0)</f>
         <v>1083</v>
       </c>
       <c r="F17" s="1">
@@ -6194,31 +6080,30 @@
         <v>4.7424910362663839</v>
       </c>
       <c r="K17" s="10">
+        <f t="shared" si="14"/>
+        <v>78.742491036266387</v>
+      </c>
+      <c r="L17" s="10">
+        <v>122.44800000000001</v>
+      </c>
+      <c r="M17" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-48.448000000000008</v>
+      </c>
+      <c r="N17" s="8">
         <f t="shared" si="15"/>
-        <v>78.742491036266387</v>
-      </c>
-      <c r="L17" s="10">
-        <f t="shared" si="6"/>
-        <v>67.423053893711071</v>
-      </c>
-      <c r="M17" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>11.319437142555316</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="16"/>
         <v>1.3095349661069993</v>
       </c>
       <c r="O17" s="11">
-        <f t="shared" ref="O17:O22" si="28">H17/E17</f>
+        <f t="shared" ref="O17:O22" si="27">H17/E17</f>
         <v>0.76387729029547169</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" ref="P17:P22" si="29">F17/C17</f>
+        <f t="shared" ref="P17:P22" si="28">F17/C17</f>
         <v>0.23902276736466058</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.9554726134766855E-2</v>
       </c>
       <c r="R17" s="2">
@@ -6254,7 +6139,7 @@
         <v>1.0057656898835958</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -6265,11 +6150,11 @@
         <v>40.58</v>
       </c>
       <c r="D18">
+        <f t="shared" si="25"/>
+        <v>259</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="26"/>
-        <v>259</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="27"/>
         <v>1044</v>
       </c>
       <c r="F18" s="1">
@@ -6293,31 +6178,30 @@
         <v>3.478583870012399</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" ref="K18:K23" si="30">J18+I18</f>
+        <f t="shared" ref="K18:K23" si="29">J18+I18</f>
         <v>122.4785838700124</v>
       </c>
       <c r="L18" s="10">
-        <f t="shared" si="6"/>
-        <v>59.332022840137945</v>
+        <v>79.655999999999992</v>
       </c>
       <c r="M18" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>63.146561029874455</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>39.344000000000008</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" ref="N18:N23" si="31">G18/F18</f>
+        <f t="shared" ref="N18:N23" si="30">G18/F18</f>
         <v>1.3389415921273413</v>
       </c>
       <c r="O18" s="11">
+        <f t="shared" si="27"/>
+        <v>0.85898649744493649</v>
+      </c>
+      <c r="P18" s="8">
         <f t="shared" si="28"/>
-        <v>0.85898649744493649</v>
-      </c>
-      <c r="P18" s="8">
-        <f t="shared" si="29"/>
         <v>0.24794395407998165</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" ref="Q18:Q23" si="32">(H18-H17)/H17</f>
+        <f t="shared" ref="Q18:Q23" si="31">(H18-H17)/H17</f>
         <v>8.401372340928745E-2</v>
       </c>
       <c r="R18" s="2">
@@ -6353,7 +6237,7 @@
         <v>1.0038940679993278</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -6364,11 +6248,11 @@
         <v>40.58</v>
       </c>
       <c r="D19">
+        <f t="shared" si="25"/>
+        <v>259</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="26"/>
-        <v>259</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="27"/>
         <v>1034</v>
       </c>
       <c r="F19" s="1">
@@ -6392,31 +6276,30 @@
         <v>18.800520098408466</v>
       </c>
       <c r="K19" s="10">
+        <f t="shared" si="29"/>
+        <v>88.800520098408469</v>
+      </c>
+      <c r="L19" s="10">
+        <v>68.531999999999996</v>
+      </c>
+      <c r="M19" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>1.4680000000000035</v>
+      </c>
+      <c r="N19" s="8">
         <f t="shared" si="30"/>
-        <v>88.800520098408469</v>
-      </c>
-      <c r="L19" s="10">
-        <f t="shared" si="6"/>
-        <v>76.795068728768186</v>
-      </c>
-      <c r="M19" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>12.005451369640284</v>
-      </c>
-      <c r="N19" s="8">
+        <v>1.257469341660566</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="27"/>
+        <v>0.72743373632407216</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="28"/>
+        <v>0.25035222802300772</v>
+      </c>
+      <c r="Q19" s="9">
         <f t="shared" si="31"/>
-        <v>1.257469341660566</v>
-      </c>
-      <c r="O19" s="11">
-        <f t="shared" si="28"/>
-        <v>0.72743373632407216</v>
-      </c>
-      <c r="P19" s="8">
-        <f t="shared" si="29"/>
-        <v>0.25035222802300772</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="shared" si="32"/>
         <v>-0.16126041285625917</v>
       </c>
       <c r="R19" s="2">
@@ -6452,7 +6335,7 @@
         <v>1.0256359321815507</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -6463,11 +6346,11 @@
         <v>40.58</v>
       </c>
       <c r="D20">
+        <f t="shared" si="25"/>
+        <v>259</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="26"/>
-        <v>259</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="27"/>
         <v>1016</v>
       </c>
       <c r="F20" s="1">
@@ -6491,31 +6374,30 @@
         <v>6.2891971856527196</v>
       </c>
       <c r="K20" s="10">
+        <f t="shared" si="29"/>
+        <v>58.289197185652718</v>
+      </c>
+      <c r="L20" s="10">
+        <v>68.543999999999997</v>
+      </c>
+      <c r="M20" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-16.543999999999997</v>
+      </c>
+      <c r="N20" s="8">
         <f t="shared" si="30"/>
-        <v>58.289197185652718</v>
-      </c>
-      <c r="L20" s="10">
-        <f t="shared" si="6"/>
-        <v>84.230072093892957</v>
-      </c>
-      <c r="M20" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-25.940874908240239</v>
-      </c>
-      <c r="N20" s="8">
+        <v>1.1003862223820433</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="27"/>
+        <v>0.6840816156858901</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="28"/>
+        <v>0.25468660399056448</v>
+      </c>
+      <c r="Q20" s="9">
         <f t="shared" si="31"/>
-        <v>1.1003862223820433</v>
-      </c>
-      <c r="O20" s="11">
-        <f t="shared" si="28"/>
-        <v>0.6840816156858901</v>
-      </c>
-      <c r="P20" s="8">
-        <f t="shared" si="29"/>
-        <v>0.25468660399056448</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="shared" si="32"/>
         <v>-7.5966641809200833E-2</v>
       </c>
       <c r="R20" s="2">
@@ -6551,7 +6433,7 @@
         <v>1.0091314835289107</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -6562,11 +6444,11 @@
         <v>40.58</v>
       </c>
       <c r="D21">
+        <f t="shared" si="25"/>
+        <v>259</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="26"/>
-        <v>259</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="27"/>
         <v>1001</v>
       </c>
       <c r="F21" s="1">
@@ -6590,31 +6472,30 @@
         <v>52.053463502275534</v>
       </c>
       <c r="K21" s="10">
+        <f t="shared" si="29"/>
+        <v>108.05346350227553</v>
+      </c>
+      <c r="L21" s="10">
+        <v>83.64</v>
+      </c>
+      <c r="M21" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-27.64</v>
+      </c>
+      <c r="N21" s="8">
         <f t="shared" si="30"/>
-        <v>108.05346350227553</v>
-      </c>
-      <c r="L21" s="10">
-        <f t="shared" si="6"/>
-        <v>85.50359973291765</v>
-      </c>
-      <c r="M21" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>22.549863769357884</v>
-      </c>
-      <c r="N21" s="8">
+        <v>1.3214408856420046</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="27"/>
+        <v>0.68466752049348334</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="28"/>
+        <v>0.25871910009440097</v>
+      </c>
+      <c r="Q21" s="9">
         <f t="shared" si="31"/>
-        <v>1.3214408856420046</v>
-      </c>
-      <c r="O21" s="11">
-        <f t="shared" si="28"/>
-        <v>0.68466752049348334</v>
-      </c>
-      <c r="P21" s="8">
-        <f t="shared" si="29"/>
-        <v>0.25871910009440097</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="shared" si="32"/>
         <v>-1.3919940685886653E-2</v>
       </c>
       <c r="R21" s="2">
@@ -6650,7 +6531,7 @@
         <v>1.0821941707563218</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -6661,11 +6542,11 @@
         <v>40.58</v>
       </c>
       <c r="D22">
+        <f t="shared" si="25"/>
+        <v>259</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="26"/>
-        <v>259</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="27"/>
         <v>1007</v>
       </c>
       <c r="F22" s="1">
@@ -6689,31 +6570,30 @@
         <v>4.027361154690932</v>
       </c>
       <c r="K22" s="10">
+        <f t="shared" si="29"/>
+        <v>78.027361154690936</v>
+      </c>
+      <c r="L22" s="10">
+        <v>79.164000000000001</v>
+      </c>
+      <c r="M22" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-5.1640000000000015</v>
+      </c>
+      <c r="N22" s="8">
         <f t="shared" si="30"/>
-        <v>78.027361154690936</v>
-      </c>
-      <c r="L22" s="10">
-        <f t="shared" si="6"/>
-        <v>87.034900237825852</v>
-      </c>
-      <c r="M22" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-9.0075390831349154</v>
-      </c>
-      <c r="N22" s="8">
+        <v>1.3184683723572961</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="27"/>
+        <v>0.6690548227048253</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="28"/>
+        <v>0.25699026420566706</v>
+      </c>
+      <c r="Q22" s="9">
         <f t="shared" si="31"/>
-        <v>1.3184683723572961</v>
-      </c>
-      <c r="O22" s="11">
-        <f t="shared" si="28"/>
-        <v>0.6690548227048253</v>
-      </c>
-      <c r="P22" s="8">
-        <f t="shared" si="29"/>
-        <v>0.25699026420566706</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="shared" si="32"/>
         <v>-1.6946004920292048E-2</v>
       </c>
       <c r="R22" s="2">
@@ -6749,7 +6629,7 @@
         <v>1.0060135821047251</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -6760,11 +6640,11 @@
         <v>40.58</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:D28" si="33">ROUNDUP(1500/C23*7,0)</f>
+        <f t="shared" ref="D23:D28" si="32">ROUNDUP(1500/C23*7,0)</f>
         <v>259</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" ref="E23:E28" si="34">ROUNDUP(1500*7/F23,0)</f>
+        <f t="shared" ref="E23:E28" si="33">ROUNDUP(1500*7/F23,0)</f>
         <v>1061</v>
       </c>
       <c r="F23" s="1">
@@ -6788,31 +6668,30 @@
         <v>25.228025616945263</v>
       </c>
       <c r="K23" s="10">
+        <f t="shared" si="29"/>
+        <v>92.22802561694526</v>
+      </c>
+      <c r="L23" s="10">
+        <v>81.587999999999994</v>
+      </c>
+      <c r="M23" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-14.587999999999994</v>
+      </c>
+      <c r="N23" s="8">
         <f t="shared" si="30"/>
-        <v>92.22802561694526</v>
-      </c>
-      <c r="L23" s="10">
-        <f t="shared" si="6"/>
-        <v>81.950629945155939</v>
-      </c>
-      <c r="M23" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>10.277395671789321</v>
-      </c>
-      <c r="N23" s="8">
+        <v>1.5135043286245951</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" ref="O23:O28" si="34">H23/E23</f>
+        <v>0.67144484115644132</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" ref="P23:P28" si="35">F23/C23</f>
+        <v>0.24408224617687413</v>
+      </c>
+      <c r="Q23" s="9">
         <f t="shared" si="31"/>
-        <v>1.5135043286245951</v>
-      </c>
-      <c r="O23" s="11">
-        <f t="shared" ref="O23:O28" si="35">H23/E23</f>
-        <v>0.67144484115644132</v>
-      </c>
-      <c r="P23" s="8">
-        <f t="shared" ref="P23:P28" si="36">F23/C23</f>
-        <v>0.24408224617687413</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="shared" si="32"/>
         <v>5.7388418279207334E-2</v>
       </c>
       <c r="R23" s="2">
@@ -6848,7 +6727,7 @@
         <v>1.0367126676921765</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -6859,11 +6738,11 @@
         <v>40.58</v>
       </c>
       <c r="D24">
+        <f t="shared" si="32"/>
+        <v>259</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="33"/>
-        <v>259</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="34"/>
         <v>1063</v>
       </c>
       <c r="F24" s="1">
@@ -6887,31 +6766,30 @@
         <v>48.177671061676811</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" ref="K24:K30" si="37">J24+I24</f>
+        <f t="shared" ref="K24:K30" si="36">J24+I24</f>
         <v>132.17767106167682</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="6"/>
-        <v>76.370178654511633</v>
+        <v>81.504000000000005</v>
       </c>
       <c r="M24" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>55.807492407165185</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>2.4959999999999951</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" ref="N24:N30" si="38">G24/F24</f>
+        <f t="shared" ref="N24:N30" si="37">G24/F24</f>
         <v>1.4802025722587988</v>
       </c>
       <c r="O24" s="11">
+        <f t="shared" si="34"/>
+        <v>0.71070735319612277</v>
+      </c>
+      <c r="P24" s="8">
         <f t="shared" si="35"/>
-        <v>0.71070735319612277</v>
-      </c>
-      <c r="P24" s="8">
-        <f t="shared" si="36"/>
         <v>0.24346181753463667</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" ref="Q24:Q30" si="39">(H24-H23)/H23</f>
+        <f t="shared" ref="Q24:Q30" si="38">(H24-H23)/H23</f>
         <v>6.0469904539331674E-2</v>
       </c>
       <c r="R24" s="2">
@@ -6947,7 +6825,7 @@
         <v>1.0681144944003527</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -6958,11 +6836,11 @@
         <v>40.58</v>
       </c>
       <c r="D25">
+        <f t="shared" si="32"/>
+        <v>259</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="33"/>
-        <v>259</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="34"/>
         <v>1069</v>
       </c>
       <c r="F25" s="1">
@@ -6986,31 +6864,30 @@
         <v>15.156583287880849</v>
       </c>
       <c r="K25" s="10">
+        <f t="shared" si="36"/>
+        <v>84.156583287880849</v>
+      </c>
+      <c r="L25" s="10">
+        <v>73.308000000000007</v>
+      </c>
+      <c r="M25" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-4.3080000000000069</v>
+      </c>
+      <c r="N25" s="8">
         <f t="shared" si="37"/>
-        <v>84.156583287880849</v>
-      </c>
-      <c r="L25" s="10">
-        <f t="shared" si="6"/>
-        <v>65.395804418850688</v>
-      </c>
-      <c r="M25" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>18.760778869030162</v>
-      </c>
-      <c r="N25" s="8">
+        <v>1.3937687940889323</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" si="34"/>
+        <v>0.78971697666042551</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="35"/>
+        <v>0.24225509256879543</v>
+      </c>
+      <c r="Q25" s="9">
         <f t="shared" si="38"/>
-        <v>1.3937687940889323</v>
-      </c>
-      <c r="O25" s="11">
-        <f t="shared" si="35"/>
-        <v>0.78971697666042551</v>
-      </c>
-      <c r="P25" s="8">
-        <f t="shared" si="36"/>
-        <v>0.24225509256879543</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="shared" si="39"/>
         <v>0.11744229699068455</v>
       </c>
       <c r="R25" s="2">
@@ -7046,7 +6923,7 @@
         <v>1.0182818496814785</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -7057,11 +6934,11 @@
         <v>40.58</v>
       </c>
       <c r="D26">
+        <f t="shared" si="32"/>
+        <v>259</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="33"/>
-        <v>259</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="34"/>
         <v>1081</v>
       </c>
       <c r="F26" s="1">
@@ -7085,31 +6962,30 @@
         <v>18.478651893851122</v>
       </c>
       <c r="K26" s="10">
+        <f t="shared" si="36"/>
+        <v>69.478651893851122</v>
+      </c>
+      <c r="L26" s="10">
+        <v>58.14</v>
+      </c>
+      <c r="M26" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-7.1400000000000006</v>
+      </c>
+      <c r="N26" s="8">
         <f t="shared" si="37"/>
-        <v>69.478651893851122</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="6"/>
-        <v>55.464348845917399</v>
-      </c>
-      <c r="M26" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>14.014303047933723</v>
-      </c>
-      <c r="N26" s="8">
+        <v>1.5447018568232576</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="34"/>
+        <v>0.86229645631867968</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" si="35"/>
+        <v>0.23937683804613324</v>
+      </c>
+      <c r="Q26" s="9">
         <f t="shared" si="38"/>
-        <v>1.5447018568232576</v>
-      </c>
-      <c r="O26" s="11">
-        <f t="shared" si="35"/>
-        <v>0.86229645631867968</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" si="36"/>
-        <v>0.23937683804613324</v>
-      </c>
-      <c r="Q26" s="9">
-        <f t="shared" si="39"/>
         <v>0.10416281144358053</v>
       </c>
       <c r="R26" s="2">
@@ -7145,7 +7021,7 @@
         <v>1.0202247824004957</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -7156,11 +7032,11 @@
         <v>40.58</v>
       </c>
       <c r="D27">
+        <f t="shared" si="32"/>
+        <v>259</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="33"/>
-        <v>259</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="34"/>
         <v>1086</v>
       </c>
       <c r="F27" s="1">
@@ -7184,31 +7060,30 @@
         <v>70.689892402102444</v>
       </c>
       <c r="K27" s="10">
+        <f t="shared" si="36"/>
+        <v>110.68989240210244</v>
+      </c>
+      <c r="L27" s="10">
+        <v>66.227999999999994</v>
+      </c>
+      <c r="M27" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-26.227999999999994</v>
+      </c>
+      <c r="N27" s="8">
         <f t="shared" si="37"/>
-        <v>110.68989240210244</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="6"/>
-        <v>44.327250628804947</v>
-      </c>
-      <c r="M27" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>66.362641773297497</v>
-      </c>
-      <c r="N27" s="8">
+        <v>1.5267569889711394</v>
+      </c>
+      <c r="O27" s="11">
+        <f t="shared" si="34"/>
+        <v>0.96218130283778847</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="35"/>
+        <v>0.23844418651447497</v>
+      </c>
+      <c r="Q27" s="9">
         <f t="shared" si="38"/>
-        <v>1.5267569889711394</v>
-      </c>
-      <c r="O27" s="11">
-        <f t="shared" si="35"/>
-        <v>0.96218130283778847</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="36"/>
-        <v>0.23844418651447497</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="shared" si="39"/>
         <v>0.12099698202615285</v>
       </c>
       <c r="R27" s="2">
@@ -7244,7 +7119,7 @@
         <v>1.0725590868587431</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -7255,11 +7130,11 @@
         <v>40.58</v>
       </c>
       <c r="D28">
+        <f t="shared" si="32"/>
+        <v>259</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="33"/>
-        <v>259</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="34"/>
         <v>1096</v>
       </c>
       <c r="F28" s="1">
@@ -7283,31 +7158,30 @@
         <v>22.346681052722527</v>
       </c>
       <c r="K28" s="10">
+        <f t="shared" si="36"/>
+        <v>70.346681052722531</v>
+      </c>
+      <c r="L28" s="10">
+        <v>49.404000000000003</v>
+      </c>
+      <c r="M28" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-1.4040000000000035</v>
+      </c>
+      <c r="N28" s="8">
         <f t="shared" si="37"/>
-        <v>70.346681052722531</v>
-      </c>
-      <c r="L28" s="10">
-        <f t="shared" si="6"/>
-        <v>48.839281059756573</v>
-      </c>
-      <c r="M28" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>21.507399992965958</v>
-      </c>
-      <c r="N28" s="8">
+        <v>1.3197959569127287</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="34"/>
+        <v>0.90962494443634145</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" si="35"/>
+        <v>0.23615274904542313</v>
+      </c>
+      <c r="Q28" s="9">
         <f t="shared" si="38"/>
-        <v>1.3197959569127287</v>
-      </c>
-      <c r="O28" s="11">
-        <f t="shared" si="35"/>
-        <v>0.90962494443634145</v>
-      </c>
-      <c r="P28" s="8">
-        <f t="shared" si="36"/>
-        <v>0.23615274904542313</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="shared" si="39"/>
         <v>-4.5916957617516733E-2</v>
       </c>
       <c r="R28" s="2">
@@ -7343,7 +7217,7 @@
         <v>1.0229290265522732</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2023</v>
       </c>
@@ -7354,11 +7228,11 @@
         <v>45.3</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D34" si="40">ROUNDUP(1500/C29*7,0)</f>
+        <f t="shared" ref="D29:D34" si="39">ROUNDUP(1500/C29*7,0)</f>
         <v>232</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" ref="E29:E34" si="41">ROUNDUP(1500*7/F29,0)</f>
+        <f t="shared" ref="E29:E34" si="40">ROUNDUP(1500*7/F29,0)</f>
         <v>1060</v>
       </c>
       <c r="F29" s="1">
@@ -7382,31 +7256,30 @@
         <v>15.973101924793786</v>
       </c>
       <c r="K29" s="10">
+        <f t="shared" si="36"/>
+        <v>73.973101924793781</v>
+      </c>
+      <c r="L29" s="10">
+        <v>41.411466666666669</v>
+      </c>
+      <c r="M29" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>16.588533333333331</v>
+      </c>
+      <c r="N29" s="8">
         <f t="shared" si="37"/>
-        <v>73.973101924793781</v>
-      </c>
-      <c r="L29" s="10">
-        <f t="shared" si="6"/>
-        <v>66.99346408575326</v>
-      </c>
-      <c r="M29" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>6.9796378390405209</v>
-      </c>
-      <c r="N29" s="8">
+        <v>1.3307903130003225</v>
+      </c>
+      <c r="O29" s="11">
+        <f t="shared" ref="O29:O34" si="41">H29/E29</f>
+        <v>0.78381361336327759</v>
+      </c>
+      <c r="P29" s="8">
+        <f t="shared" ref="P29:P34" si="42">F29/C29</f>
+        <v>0.21880050310590898</v>
+      </c>
+      <c r="Q29" s="9">
         <f t="shared" si="38"/>
-        <v>1.3307903130003225</v>
-      </c>
-      <c r="O29" s="11">
-        <f t="shared" ref="O29:O34" si="42">H29/E29</f>
-        <v>0.78381361336327759</v>
-      </c>
-      <c r="P29" s="8">
-        <f t="shared" ref="P29:P34" si="43">F29/C29</f>
-        <v>0.21880050310590898</v>
-      </c>
-      <c r="Q29" s="9">
-        <f t="shared" si="39"/>
         <v>-0.16661486102461559</v>
       </c>
       <c r="R29" s="2">
@@ -7442,7 +7315,7 @@
         <v>1.0196020409300324</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -7453,11 +7326,11 @@
         <v>45.3</v>
       </c>
       <c r="D30">
+        <f t="shared" si="39"/>
+        <v>232</v>
+      </c>
+      <c r="E30" s="4">
         <f t="shared" si="40"/>
-        <v>232</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="41"/>
         <v>1051</v>
       </c>
       <c r="F30" s="1">
@@ -7481,31 +7354,30 @@
         <v>23.863041788091476</v>
       </c>
       <c r="K30" s="10">
+        <f t="shared" si="36"/>
+        <v>56.863041788091479</v>
+      </c>
+      <c r="L30" s="10">
+        <v>29.291466666666661</v>
+      </c>
+      <c r="M30" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>3.7085333333333388</v>
+      </c>
+      <c r="N30" s="8">
         <f t="shared" si="37"/>
-        <v>56.863041788091479</v>
-      </c>
-      <c r="L30" s="10">
-        <f t="shared" si="6"/>
-        <v>36.423656449771329</v>
-      </c>
-      <c r="M30" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>20.43938533832015</v>
-      </c>
-      <c r="N30" s="8">
+        <v>1.4083007262173723</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="41"/>
+        <v>1.0838955365563332</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="42"/>
+        <v>0.22072241311662533</v>
+      </c>
+      <c r="Q30" s="9">
         <f t="shared" si="38"/>
-        <v>1.4083007262173723</v>
-      </c>
-      <c r="O30" s="11">
-        <f t="shared" si="42"/>
-        <v>1.0838955365563332</v>
-      </c>
-      <c r="P30" s="8">
-        <f t="shared" si="43"/>
-        <v>0.22072241311662533</v>
-      </c>
-      <c r="Q30" s="9">
-        <f t="shared" si="39"/>
         <v>0.37110740564173123</v>
       </c>
       <c r="R30" s="2">
@@ -7541,7 +7413,7 @@
         <v>1.02139586017904</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2023</v>
       </c>
@@ -7552,11 +7424,11 @@
         <v>45.3</v>
       </c>
       <c r="D31">
+        <f t="shared" si="39"/>
+        <v>232</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="40"/>
-        <v>232</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="41"/>
         <v>1063</v>
       </c>
       <c r="F31" s="1">
@@ -7580,31 +7452,30 @@
         <v>24.813107122516147</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" ref="K31:K36" si="44">J31+I31</f>
+        <f t="shared" ref="K31:K36" si="43">J31+I31</f>
         <v>56.813107122516143</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="6"/>
-        <v>43.623069861025172</v>
+        <v>55.955466666666659</v>
       </c>
       <c r="M31" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>13.190037261490971</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-23.955466666666659</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" ref="N31:N36" si="45">G31/F31</f>
+        <f t="shared" ref="N31:N36" si="44">G31/F31</f>
         <v>1.3316940695798003</v>
       </c>
       <c r="O31" s="11">
+        <f t="shared" si="41"/>
+        <v>0.99036074754401338</v>
+      </c>
+      <c r="P31" s="8">
         <f t="shared" si="42"/>
-        <v>0.99036074754401338</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="43"/>
         <v>0.21823188086806966</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" ref="Q31:Q36" si="46">(H31-H30)/H30</f>
+        <f t="shared" ref="Q31:Q36" si="45">(H31-H30)/H30</f>
         <v>-7.5862614870203238E-2</v>
       </c>
       <c r="R31" s="2">
@@ -7640,7 +7511,7 @@
         <v>1.0241386639795635</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2023</v>
       </c>
@@ -7651,11 +7522,11 @@
         <v>45.3</v>
       </c>
       <c r="D32">
+        <f t="shared" si="39"/>
+        <v>232</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="40"/>
-        <v>232</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="41"/>
         <v>1024</v>
       </c>
       <c r="F32" s="1">
@@ -7679,31 +7550,30 @@
         <v>13.602295756437075</v>
       </c>
       <c r="K32" s="10">
+        <f t="shared" si="43"/>
+        <v>48.602295756437073</v>
+      </c>
+      <c r="L32" s="10">
+        <v>35.507466666666666</v>
+      </c>
+      <c r="M32" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-0.50746666666666584</v>
+      </c>
+      <c r="N32" s="8">
         <f t="shared" si="44"/>
-        <v>48.602295756437073</v>
-      </c>
-      <c r="L32" s="10">
-        <f t="shared" si="6"/>
-        <v>53.681845121647129</v>
-      </c>
-      <c r="M32" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-5.0795493652100561</v>
-      </c>
-      <c r="N32" s="8">
+        <v>1.2480123768583953</v>
+      </c>
+      <c r="O32" s="11">
+        <f t="shared" si="41"/>
+        <v>0.92676590389646651</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="42"/>
+        <v>0.22639341577455302</v>
+      </c>
+      <c r="Q32" s="9">
         <f t="shared" si="45"/>
-        <v>1.2480123768583953</v>
-      </c>
-      <c r="O32" s="11">
-        <f t="shared" si="42"/>
-        <v>0.92676590389646651</v>
-      </c>
-      <c r="P32" s="8">
-        <f t="shared" si="43"/>
-        <v>0.22639341577455302</v>
-      </c>
-      <c r="Q32" s="9">
-        <f t="shared" si="46"/>
         <v>-9.8546517820662219E-2</v>
       </c>
       <c r="R32" s="2">
@@ -7739,7 +7609,7 @@
         <v>1.0145415957394686</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -7750,11 +7620,11 @@
         <v>45.3</v>
       </c>
       <c r="D33">
+        <f t="shared" si="39"/>
+        <v>232</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="40"/>
-        <v>232</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="41"/>
         <v>1063</v>
       </c>
       <c r="F33" s="1">
@@ -7778,31 +7648,30 @@
         <v>56.13223048323151</v>
       </c>
       <c r="K33" s="10">
+        <f t="shared" si="43"/>
+        <v>129.13223048323152</v>
+      </c>
+      <c r="L33" s="10">
+        <v>61.97946666666666</v>
+      </c>
+      <c r="M33" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>11.02053333333334</v>
+      </c>
+      <c r="N33" s="8">
         <f t="shared" si="44"/>
-        <v>129.13223048323152</v>
-      </c>
-      <c r="L33" s="10">
-        <f t="shared" si="6"/>
-        <v>46.621956661704843</v>
-      </c>
-      <c r="M33" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>82.510273821526681</v>
-      </c>
-      <c r="N33" s="8">
+        <v>1.3671444211803476</v>
+      </c>
+      <c r="O33" s="11">
+        <f t="shared" si="41"/>
+        <v>0.9596269313002006</v>
+      </c>
+      <c r="P33" s="8">
+        <f t="shared" si="42"/>
+        <v>0.21805968683353913</v>
+      </c>
+      <c r="Q33" s="9">
         <f t="shared" si="45"/>
-        <v>1.3671444211803476</v>
-      </c>
-      <c r="O33" s="11">
-        <f t="shared" si="42"/>
-        <v>0.9596269313002006</v>
-      </c>
-      <c r="P33" s="8">
-        <f t="shared" si="43"/>
-        <v>0.21805968683353913</v>
-      </c>
-      <c r="Q33" s="9">
-        <f t="shared" si="46"/>
         <v>7.4894122065483695E-2</v>
       </c>
       <c r="R33" s="2">
@@ -7838,7 +7707,7 @@
         <v>1.0582314028235635</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -7849,11 +7718,11 @@
         <v>45.3</v>
       </c>
       <c r="D34">
+        <f t="shared" si="39"/>
+        <v>232</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="40"/>
-        <v>232</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="41"/>
         <v>1060</v>
       </c>
       <c r="F34" s="1">
@@ -7877,31 +7746,30 @@
         <v>23.365126150516438</v>
       </c>
       <c r="K34" s="10">
+        <f t="shared" si="43"/>
+        <v>81.365126150516431</v>
+      </c>
+      <c r="L34" s="10">
+        <v>58.22346666666666</v>
+      </c>
+      <c r="M34" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-0.22346666666665982</v>
+      </c>
+      <c r="N34" s="8">
         <f t="shared" si="44"/>
-        <v>81.365126150516431</v>
-      </c>
-      <c r="L34" s="10">
-        <f t="shared" si="6"/>
-        <v>41.808812949627331</v>
-      </c>
-      <c r="M34" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>39.5563132008891</v>
-      </c>
-      <c r="N34" s="8">
+        <v>1.2722729342753369</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" si="41"/>
+        <v>1.0126239486122448</v>
+      </c>
+      <c r="P34" s="8">
+        <f t="shared" si="42"/>
+        <v>0.21881254774838657</v>
+      </c>
+      <c r="Q34" s="9">
         <f t="shared" si="45"/>
-        <v>1.2722729342753369</v>
-      </c>
-      <c r="O34" s="11">
-        <f t="shared" si="42"/>
-        <v>1.0126239486122448</v>
-      </c>
-      <c r="P34" s="8">
-        <f t="shared" si="43"/>
-        <v>0.21881254774838657</v>
-      </c>
-      <c r="Q34" s="9">
-        <f t="shared" si="46"/>
         <v>5.2248626039166836E-2</v>
       </c>
       <c r="R34" s="2">
@@ -7937,7 +7805,7 @@
         <v>1.0222521565183638</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2023</v>
       </c>
@@ -7948,11 +7816,11 @@
         <v>45.3</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D41" si="47">ROUNDUP(1500/C35*7,0)</f>
+        <f t="shared" ref="D35:D41" si="46">ROUNDUP(1500/C35*7,0)</f>
         <v>232</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35:E41" si="48">ROUNDUP(1500*7/F35,0)</f>
+        <f t="shared" ref="E35:E41" si="47">ROUNDUP(1500*7/F35,0)</f>
         <v>1079</v>
       </c>
       <c r="F35" s="1">
@@ -7976,31 +7844,30 @@
         <v>42.488049312311304</v>
       </c>
       <c r="K35" s="10">
+        <f t="shared" si="43"/>
+        <v>71.488049312311304</v>
+      </c>
+      <c r="L35" s="10">
+        <v>31.12746666666666</v>
+      </c>
+      <c r="M35" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-2.1274666666666597</v>
+      </c>
+      <c r="N35" s="8">
         <f t="shared" si="44"/>
-        <v>71.488049312311304</v>
-      </c>
-      <c r="L35" s="10">
-        <f t="shared" si="6"/>
-        <v>48.956750391221199</v>
-      </c>
-      <c r="M35" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>22.531298921090105</v>
-      </c>
-      <c r="N35" s="8">
+        <v>1.2558145294498519</v>
+      </c>
+      <c r="O35" s="11">
+        <f t="shared" ref="O35:O41" si="48">H35/E35</f>
+        <v>0.92284111764103849</v>
+      </c>
+      <c r="P35" s="8">
+        <f t="shared" ref="P35:P41" si="49">F35/C35</f>
+        <v>0.21498838459138034</v>
+      </c>
+      <c r="Q35" s="9">
         <f t="shared" si="45"/>
-        <v>1.2558145294498519</v>
-      </c>
-      <c r="O35" s="11">
-        <f t="shared" ref="O35:O41" si="49">H35/E35</f>
-        <v>0.92284111764103849</v>
-      </c>
-      <c r="P35" s="8">
-        <f t="shared" ref="P35:P41" si="50">F35/C35</f>
-        <v>0.21498838459138034</v>
-      </c>
-      <c r="Q35" s="9">
-        <f t="shared" si="46"/>
         <v>-7.2328270865288827E-2</v>
       </c>
       <c r="R35" s="2">
@@ -8036,7 +7903,7 @@
         <v>1.0445714285714285</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2023</v>
       </c>
@@ -8047,11 +7914,11 @@
         <v>45.3</v>
       </c>
       <c r="D36">
+        <f t="shared" si="46"/>
+        <v>232</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="47"/>
-        <v>232</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="48"/>
         <v>1058</v>
       </c>
       <c r="F36" s="1">
@@ -8075,31 +7942,30 @@
         <v>10.063544848444147</v>
       </c>
       <c r="K36" s="10">
+        <f t="shared" si="43"/>
+        <v>57.063544848444145</v>
+      </c>
+      <c r="L36" s="10">
+        <v>51.899466666666662</v>
+      </c>
+      <c r="M36" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-4.8994666666666618</v>
+      </c>
+      <c r="N36" s="8">
         <f t="shared" si="44"/>
-        <v>57.063544848444145</v>
-      </c>
-      <c r="L36" s="10">
-        <f t="shared" si="6"/>
-        <v>62.763978034319742</v>
-      </c>
-      <c r="M36" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-5.7004331858755961</v>
-      </c>
-      <c r="N36" s="8">
+        <v>1.4072630665966939</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" si="48"/>
+        <v>0.81913276272682278</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" si="49"/>
+        <v>0.21913729669381646</v>
+      </c>
+      <c r="Q36" s="9">
         <f t="shared" si="45"/>
-        <v>1.4072630665966939</v>
-      </c>
-      <c r="O36" s="11">
-        <f t="shared" si="49"/>
-        <v>0.81913276272682278</v>
-      </c>
-      <c r="P36" s="8">
-        <f t="shared" si="50"/>
-        <v>0.21913729669381646</v>
-      </c>
-      <c r="Q36" s="9">
-        <f t="shared" si="46"/>
         <v>-0.12965471038629853</v>
       </c>
       <c r="R36" s="2">
@@ -8135,7 +8001,7 @@
         <v>1.0117485320215118</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2023</v>
       </c>
@@ -8146,11 +8012,11 @@
         <v>45.3</v>
       </c>
       <c r="D37">
+        <f t="shared" si="46"/>
+        <v>232</v>
+      </c>
+      <c r="E37" s="4">
         <f t="shared" si="47"/>
-        <v>232</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="48"/>
         <v>1076</v>
       </c>
       <c r="F37" s="1">
@@ -8174,31 +8040,30 @@
         <v>52.862542575698647</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" ref="K37:K47" si="51">J37+I37</f>
+        <f t="shared" ref="K37:K47" si="50">J37+I37</f>
         <v>129.86254257569865</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" si="6"/>
-        <v>37.808154102354592</v>
+        <v>44.159466666666667</v>
       </c>
       <c r="M37" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>92.054388473344062</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>32.840533333333333</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" ref="N37:N47" si="52">G37/F37</f>
+        <f t="shared" ref="N37:N47" si="51">G37/F37</f>
         <v>1.3967103330266497</v>
       </c>
       <c r="O37" s="11">
+        <f t="shared" si="48"/>
+        <v>1.0423213992291134</v>
+      </c>
+      <c r="P37" s="8">
         <f t="shared" si="49"/>
-        <v>1.0423213992291134</v>
-      </c>
-      <c r="P37" s="8">
-        <f t="shared" si="50"/>
         <v>0.21558683021820882</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" ref="Q37:Q47" si="53">(H37-H36)/H36</f>
+        <f t="shared" ref="Q37:Q47" si="52">(H37-H36)/H36</f>
         <v>0.29411824771831863</v>
       </c>
       <c r="R37" s="2">
@@ -8234,7 +8099,7 @@
         <v>1.0494654863052115</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2023</v>
       </c>
@@ -8245,11 +8110,11 @@
         <v>45.3</v>
       </c>
       <c r="D38">
+        <f t="shared" si="46"/>
+        <v>232</v>
+      </c>
+      <c r="E38" s="4">
         <f t="shared" si="47"/>
-        <v>232</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="48"/>
         <v>1089</v>
       </c>
       <c r="F38" s="1">
@@ -8273,31 +8138,30 @@
         <v>26.573403508441277</v>
       </c>
       <c r="K38" s="10">
+        <f t="shared" si="50"/>
+        <v>69.573403508441274</v>
+      </c>
+      <c r="L38" s="10">
+        <v>48.947466666666671</v>
+      </c>
+      <c r="M38" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-5.9474666666666707</v>
+      </c>
+      <c r="N38" s="8">
         <f t="shared" si="51"/>
-        <v>69.573403508441274</v>
-      </c>
-      <c r="L38" s="10">
-        <f t="shared" si="6"/>
-        <v>37.10523867299834</v>
-      </c>
-      <c r="M38" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>32.468164835442934</v>
-      </c>
-      <c r="N38" s="8">
+        <v>1.4565042281156351</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" si="48"/>
+        <v>1.0380386069150691</v>
+      </c>
+      <c r="P38" s="8">
+        <f t="shared" si="49"/>
+        <v>0.21295504716034516</v>
+      </c>
+      <c r="Q38" s="9">
         <f t="shared" si="52"/>
-        <v>1.4565042281156351</v>
-      </c>
-      <c r="O38" s="11">
-        <f t="shared" si="49"/>
-        <v>1.0380386069150691</v>
-      </c>
-      <c r="P38" s="8">
-        <f t="shared" si="50"/>
-        <v>0.21295504716034516</v>
-      </c>
-      <c r="Q38" s="9">
-        <f t="shared" si="53"/>
         <v>7.9232435655604769E-3</v>
       </c>
       <c r="R38" s="2">
@@ -8333,7 +8197,7 @@
         <v>1.024073368768762</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2023</v>
       </c>
@@ -8344,11 +8208,11 @@
         <v>45.3</v>
       </c>
       <c r="D39">
+        <f t="shared" si="46"/>
+        <v>232</v>
+      </c>
+      <c r="E39" s="4">
         <f t="shared" si="47"/>
-        <v>232</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="48"/>
         <v>1040</v>
       </c>
       <c r="F39" s="1">
@@ -8372,31 +8236,30 @@
         <v>92.06585754011563</v>
       </c>
       <c r="K39" s="10">
+        <f t="shared" si="50"/>
+        <v>112.06585754011563</v>
+      </c>
+      <c r="L39" s="10">
+        <v>22.439466666666661</v>
+      </c>
+      <c r="M39" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-2.4394666666666609</v>
+      </c>
+      <c r="N39" s="8">
         <f t="shared" si="51"/>
-        <v>112.06585754011563</v>
-      </c>
-      <c r="L39" s="10">
-        <f t="shared" si="6"/>
-        <v>55.215349119286209</v>
-      </c>
-      <c r="M39" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>56.850508420829421</v>
-      </c>
-      <c r="N39" s="8">
+        <v>1.2990893947431554</v>
+      </c>
+      <c r="O39" s="11">
+        <f t="shared" si="48"/>
+        <v>0.89853419587539463</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" si="49"/>
+        <v>0.22297839959616964</v>
+      </c>
+      <c r="Q39" s="9">
         <f t="shared" si="52"/>
-        <v>1.2990893947431554</v>
-      </c>
-      <c r="O39" s="11">
-        <f t="shared" si="49"/>
-        <v>0.89853419587539463</v>
-      </c>
-      <c r="P39" s="8">
-        <f t="shared" si="50"/>
-        <v>0.22297839959616964</v>
-      </c>
-      <c r="Q39" s="9">
-        <f t="shared" si="53"/>
         <v>-0.17334068613059861</v>
       </c>
       <c r="R39" s="2">
@@ -8432,7 +8295,7 @@
         <v>1.1092886951156571</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2023</v>
       </c>
@@ -8443,11 +8306,11 @@
         <v>45.3</v>
       </c>
       <c r="D40">
+        <f t="shared" si="46"/>
+        <v>232</v>
+      </c>
+      <c r="E40" s="4">
         <f t="shared" si="47"/>
-        <v>232</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="shared" si="48"/>
         <v>1056</v>
       </c>
       <c r="F40" s="1">
@@ -8471,31 +8334,30 @@
         <v>21.782475048385258</v>
       </c>
       <c r="K40" s="10">
+        <f t="shared" si="50"/>
+        <v>45.782475048385258</v>
+      </c>
+      <c r="L40" s="10">
+        <v>24.911466666666666</v>
+      </c>
+      <c r="M40" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-0.91146666666666576</v>
+      </c>
+      <c r="N40" s="8">
         <f t="shared" si="51"/>
-        <v>45.782475048385258</v>
-      </c>
-      <c r="L40" s="10">
-        <f t="shared" si="6"/>
-        <v>50.360649719350022</v>
-      </c>
-      <c r="M40" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-4.5781746709647635</v>
-      </c>
-      <c r="N40" s="8">
+        <v>1.3514319507166075</v>
+      </c>
+      <c r="O40" s="11">
+        <f t="shared" si="48"/>
+        <v>0.92947661430605344</v>
+      </c>
+      <c r="P40" s="8">
+        <f t="shared" si="49"/>
+        <v>0.21950935066016916</v>
+      </c>
+      <c r="Q40" s="9">
         <f t="shared" si="52"/>
-        <v>1.3514319507166075</v>
-      </c>
-      <c r="O40" s="11">
-        <f t="shared" si="49"/>
-        <v>0.92947661430605344</v>
-      </c>
-      <c r="P40" s="8">
-        <f t="shared" si="50"/>
-        <v>0.21950935066016916</v>
-      </c>
-      <c r="Q40" s="9">
-        <f t="shared" si="53"/>
         <v>5.0350959216054154E-2</v>
       </c>
       <c r="R40" s="2">
@@ -8531,7 +8393,7 @@
         <v>1.0226961108570169</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2023</v>
       </c>
@@ -8542,11 +8404,11 @@
         <v>45.3</v>
       </c>
       <c r="D41">
+        <f t="shared" si="46"/>
+        <v>232</v>
+      </c>
+      <c r="E41" s="4">
         <f t="shared" si="47"/>
-        <v>232</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="48"/>
         <v>1031</v>
       </c>
       <c r="F41" s="1">
@@ -8570,31 +8432,30 @@
         <v>23.231285613925532</v>
       </c>
       <c r="K41" s="10">
+        <f t="shared" si="50"/>
+        <v>47.231285613925536</v>
+      </c>
+      <c r="L41" s="10">
+        <v>21.839466666666659</v>
+      </c>
+      <c r="M41" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>2.1605333333333405</v>
+      </c>
+      <c r="N41" s="8">
         <f t="shared" si="51"/>
-        <v>47.231285613925536</v>
-      </c>
-      <c r="L41" s="10">
-        <f t="shared" si="6"/>
-        <v>39.788213979026217</v>
-      </c>
-      <c r="M41" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>7.4430716348993187</v>
-      </c>
-      <c r="N41" s="8">
+        <v>1.3030840312082994</v>
+      </c>
+      <c r="O41" s="11">
+        <f t="shared" si="48"/>
+        <v>1.0642226076821424</v>
+      </c>
+      <c r="P41" s="8">
+        <f t="shared" si="49"/>
+        <v>0.22495735500702391</v>
+      </c>
+      <c r="Q41" s="9">
         <f t="shared" si="52"/>
-        <v>1.3030840312082994</v>
-      </c>
-      <c r="O41" s="11">
-        <f t="shared" si="49"/>
-        <v>1.0642226076821424</v>
-      </c>
-      <c r="P41" s="8">
-        <f t="shared" si="50"/>
-        <v>0.22495735500702391</v>
-      </c>
-      <c r="Q41" s="9">
-        <f t="shared" si="53"/>
         <v>0.11786345958822574</v>
       </c>
       <c r="R41" s="2">
@@ -8630,7 +8491,7 @@
         <v>1.02163097779315</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2023</v>
       </c>
@@ -8641,11 +8502,11 @@
         <v>45.3</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:D47" si="54">ROUNDUP(1500/C42*7,0)</f>
+        <f t="shared" ref="D42:D47" si="53">ROUNDUP(1500/C42*7,0)</f>
         <v>232</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" ref="E42:E47" si="55">ROUNDUP(1500*7/F42,0)</f>
+        <f t="shared" ref="E42:E47" si="54">ROUNDUP(1500*7/F42,0)</f>
         <v>1069</v>
       </c>
       <c r="F42" s="1">
@@ -8669,31 +8530,30 @@
         <v>11.94314594992324</v>
       </c>
       <c r="K42" s="10">
+        <f t="shared" si="50"/>
+        <v>35.943145949923242</v>
+      </c>
+      <c r="L42" s="10">
+        <v>23.147466666666659</v>
+      </c>
+      <c r="M42" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>0.85253333333334069</v>
+      </c>
+      <c r="N42" s="8">
         <f t="shared" si="51"/>
-        <v>35.943145949923242</v>
-      </c>
-      <c r="L42" s="10">
-        <f t="shared" si="6"/>
-        <v>29.046662369949324</v>
-      </c>
-      <c r="M42" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>6.8964835799739177</v>
-      </c>
-      <c r="N42" s="8">
+        <v>1.3680188948278613</v>
+      </c>
+      <c r="O42" s="11">
+        <f t="shared" ref="O42:O47" si="55">H42/E42</f>
+        <v>1.1636472677823346</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" ref="P42:P47" si="56">F42/C42</f>
+        <v>0.21684784551205788</v>
+      </c>
+      <c r="Q42" s="9">
         <f t="shared" si="52"/>
-        <v>1.3680188948278613</v>
-      </c>
-      <c r="O42" s="11">
-        <f t="shared" ref="O42:O47" si="56">H42/E42</f>
-        <v>1.1636472677823346</v>
-      </c>
-      <c r="P42" s="8">
-        <f t="shared" ref="P42:P47" si="57">F42/C42</f>
-        <v>0.21684784551205788</v>
-      </c>
-      <c r="Q42" s="9">
-        <f t="shared" si="53"/>
         <v>0.13372549608590042</v>
       </c>
       <c r="R42" s="2">
@@ -8729,7 +8589,7 @@
         <v>1.0096941451518944</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2023</v>
       </c>
@@ -8740,11 +8600,11 @@
         <v>45.3</v>
       </c>
       <c r="D43">
+        <f t="shared" si="53"/>
+        <v>232</v>
+      </c>
+      <c r="E43" s="4">
         <f t="shared" si="54"/>
-        <v>232</v>
-      </c>
-      <c r="E43" s="4">
-        <f t="shared" si="55"/>
         <v>1065</v>
       </c>
       <c r="F43" s="1">
@@ -8768,31 +8628,30 @@
         <v>57.836942317217733</v>
       </c>
       <c r="K43" s="10">
+        <f t="shared" si="50"/>
+        <v>104.83694231721773</v>
+      </c>
+      <c r="L43" s="10">
+        <v>21.935466666666663</v>
+      </c>
+      <c r="M43" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>25.064533333333337</v>
+      </c>
+      <c r="N43" s="8">
         <f t="shared" si="51"/>
-        <v>104.83694231721773</v>
-      </c>
-      <c r="L43" s="10">
-        <f t="shared" si="6"/>
-        <v>35.388379632699781</v>
-      </c>
-      <c r="M43" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>69.448562684517952</v>
-      </c>
-      <c r="N43" s="8">
+        <v>1.4518995145601252</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="55"/>
+        <v>1.0823742684872479</v>
+      </c>
+      <c r="P43" s="8">
+        <f t="shared" si="56"/>
+        <v>0.21770880354724609</v>
+      </c>
+      <c r="Q43" s="9">
         <f t="shared" si="52"/>
-        <v>1.4518995145601252</v>
-      </c>
-      <c r="O43" s="11">
-        <f t="shared" si="56"/>
-        <v>1.0823742684872479</v>
-      </c>
-      <c r="P43" s="8">
-        <f t="shared" si="57"/>
-        <v>0.21770880354724609</v>
-      </c>
-      <c r="Q43" s="9">
-        <f t="shared" si="53"/>
         <v>-7.3323803263160472E-2</v>
       </c>
       <c r="R43" s="2">
@@ -8828,7 +8687,7 @@
         <v>1.0528243521867244</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2023</v>
       </c>
@@ -8839,11 +8698,11 @@
         <v>45.3</v>
       </c>
       <c r="D44">
+        <f t="shared" si="53"/>
+        <v>232</v>
+      </c>
+      <c r="E44" s="4">
         <f t="shared" si="54"/>
-        <v>232</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="shared" si="55"/>
         <v>1075</v>
       </c>
       <c r="F44" s="1">
@@ -8867,31 +8726,30 @@
         <v>14.076065279308036</v>
       </c>
       <c r="K44" s="10">
+        <f t="shared" si="50"/>
+        <v>47.07606527930804</v>
+      </c>
+      <c r="L44" s="10">
+        <v>49.415466666666667</v>
+      </c>
+      <c r="M44" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-16.415466666666667</v>
+      </c>
+      <c r="N44" s="8">
         <f t="shared" si="51"/>
-        <v>47.07606527930804</v>
-      </c>
-      <c r="L44" s="10">
-        <f t="shared" si="6"/>
-        <v>39.678196862571369</v>
-      </c>
-      <c r="M44" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>7.3978684167366708</v>
-      </c>
-      <c r="N44" s="8">
+        <v>1.4192097647084041</v>
+      </c>
+      <c r="O44" s="11">
+        <f t="shared" si="55"/>
+        <v>1.0218966314541968</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" si="56"/>
+        <v>0.21573106685474294</v>
+      </c>
+      <c r="Q44" s="9">
         <f t="shared" si="52"/>
-        <v>1.4192097647084041</v>
-      </c>
-      <c r="O44" s="11">
-        <f t="shared" si="56"/>
-        <v>1.0218966314541968</v>
-      </c>
-      <c r="P44" s="8">
-        <f t="shared" si="57"/>
-        <v>0.21573106685474294</v>
-      </c>
-      <c r="Q44" s="9">
-        <f t="shared" si="53"/>
         <v>-4.7009953007645336E-2</v>
       </c>
       <c r="R44" s="2">
@@ -8927,7 +8785,7 @@
         <v>1.0129797583685125</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2023</v>
       </c>
@@ -8938,11 +8796,11 @@
         <v>45.3</v>
       </c>
       <c r="D45">
+        <f t="shared" si="53"/>
+        <v>232</v>
+      </c>
+      <c r="E45" s="4">
         <f t="shared" si="54"/>
-        <v>232</v>
-      </c>
-      <c r="E45" s="4">
-        <f t="shared" si="55"/>
         <v>1077</v>
       </c>
       <c r="F45" s="1">
@@ -8966,31 +8824,30 @@
         <v>83.768981288326671</v>
       </c>
       <c r="K45" s="10">
+        <f t="shared" si="50"/>
+        <v>121.76898128832667</v>
+      </c>
+      <c r="L45" s="10">
+        <v>35.747466666666668</v>
+      </c>
+      <c r="M45" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>2.2525333333333322</v>
+      </c>
+      <c r="N45" s="8">
         <f t="shared" si="51"/>
-        <v>121.76898128832667</v>
-      </c>
-      <c r="L45" s="10">
-        <f t="shared" si="6"/>
-        <v>39.41843930122883</v>
-      </c>
-      <c r="M45" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>82.350541987097841</v>
-      </c>
-      <c r="N45" s="8">
+        <v>1.2584234742982243</v>
+      </c>
+      <c r="O45" s="11">
+        <f t="shared" si="55"/>
+        <v>1.0229155277981445</v>
+      </c>
+      <c r="P45" s="8">
+        <f t="shared" si="56"/>
+        <v>0.21529830983886478</v>
+      </c>
+      <c r="Q45" s="9">
         <f t="shared" si="52"/>
-        <v>1.2584234742982243</v>
-      </c>
-      <c r="O45" s="11">
-        <f t="shared" si="56"/>
-        <v>1.0229155277981445</v>
-      </c>
-      <c r="P45" s="8">
-        <f t="shared" si="57"/>
-        <v>0.21529830983886478</v>
-      </c>
-      <c r="Q45" s="9">
-        <f t="shared" si="53"/>
         <v>2.8593841200535539E-3</v>
       </c>
       <c r="R45" s="2">
@@ -9026,7 +8883,7 @@
         <v>1.0822949922140248</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -9037,11 +8894,11 @@
         <v>45.3</v>
       </c>
       <c r="D46">
+        <f t="shared" si="53"/>
+        <v>232</v>
+      </c>
+      <c r="E46" s="4">
         <f t="shared" si="54"/>
-        <v>232</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="55"/>
         <v>1052</v>
       </c>
       <c r="F46" s="1">
@@ -9065,31 +8922,30 @@
         <v>9.8169319560342618</v>
       </c>
       <c r="K46" s="10">
+        <f t="shared" si="50"/>
+        <v>29.81693195603426</v>
+      </c>
+      <c r="L46" s="10">
+        <v>41.135466666666659</v>
+      </c>
+      <c r="M46" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-21.135466666666659</v>
+      </c>
+      <c r="N46" s="8">
         <f t="shared" si="51"/>
-        <v>29.81693195603426</v>
-      </c>
-      <c r="L46" s="10">
-        <f t="shared" si="6"/>
-        <v>44.696904646852438</v>
-      </c>
-      <c r="M46" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-14.879972690818178</v>
-      </c>
-      <c r="N46" s="8">
+        <v>1.3505293533801424</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="55"/>
+        <v>0.98941088578014147</v>
+      </c>
+      <c r="P46" s="8">
+        <f t="shared" si="56"/>
+        <v>0.22036980780525345</v>
+      </c>
+      <c r="Q46" s="9">
         <f t="shared" si="52"/>
-        <v>1.3505293533801424</v>
-      </c>
-      <c r="O46" s="11">
-        <f t="shared" si="56"/>
-        <v>0.98941088578014147</v>
-      </c>
-      <c r="P46" s="8">
-        <f t="shared" si="57"/>
-        <v>0.22036980780525345</v>
-      </c>
-      <c r="Q46" s="9">
-        <f t="shared" si="53"/>
         <v>-5.5206385070013457E-2</v>
       </c>
       <c r="R46" s="2">
@@ -9125,7 +8981,7 @@
         <v>1.0095213574121524</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2023</v>
       </c>
@@ -9136,11 +8992,11 @@
         <v>45.35</v>
       </c>
       <c r="D47">
+        <f t="shared" si="53"/>
+        <v>232</v>
+      </c>
+      <c r="E47" s="4">
         <f t="shared" si="54"/>
-        <v>232</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="55"/>
         <v>1007</v>
       </c>
       <c r="F47" s="1">
@@ -9164,31 +9020,30 @@
         <v>37.83371030644301</v>
       </c>
       <c r="K47" s="10">
+        <f t="shared" si="50"/>
+        <v>82.83371030644301</v>
+      </c>
+      <c r="L47" s="10">
+        <v>40.307466666666663</v>
+      </c>
+      <c r="M47" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>4.692533333333337</v>
+      </c>
+      <c r="N47" s="8">
         <f t="shared" si="51"/>
-        <v>82.83371030644301</v>
-      </c>
-      <c r="L47" s="10">
-        <f t="shared" si="6"/>
-        <v>48.42008713218717</v>
-      </c>
-      <c r="M47" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>34.413623174255839</v>
-      </c>
-      <c r="N47" s="8">
+        <v>1.4344922481642044</v>
+      </c>
+      <c r="O47" s="11">
+        <f t="shared" si="55"/>
+        <v>0.99430085681997415</v>
+      </c>
+      <c r="P47" s="8">
+        <f t="shared" si="56"/>
+        <v>0.23004399312918727</v>
+      </c>
+      <c r="Q47" s="9">
         <f t="shared" si="52"/>
-        <v>1.4344922481642044</v>
-      </c>
-      <c r="O47" s="11">
-        <f t="shared" si="56"/>
-        <v>0.99430085681997415</v>
-      </c>
-      <c r="P47" s="8">
-        <f t="shared" si="57"/>
-        <v>0.23004399312918727</v>
-      </c>
-      <c r="Q47" s="9">
-        <f t="shared" si="53"/>
         <v>-3.8044770134093804E-2</v>
       </c>
       <c r="R47" s="2">
@@ -9224,7 +9079,7 @@
         <v>1.0392699191431689</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -9235,11 +9090,11 @@
         <v>45.35</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:D55" si="58">ROUNDUP(1500/C48*7,0)</f>
+        <f t="shared" ref="D48:D55" si="57">ROUNDUP(1500/C48*7,0)</f>
         <v>232</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" ref="E48:E55" si="59">ROUNDUP(1500*7/F48,0)</f>
+        <f t="shared" ref="E48:E55" si="58">ROUNDUP(1500*7/F48,0)</f>
         <v>1013</v>
       </c>
       <c r="F48" s="1">
@@ -9263,31 +9118,30 @@
         <v>14.655172413793105</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" ref="K48:K55" si="60">J48+I48</f>
+        <f t="shared" ref="K48:K55" si="59">J48+I48</f>
         <v>55.655172413793103</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" ref="L48:L55" si="61">1.5*(0.65*EXP(-0.003*H48))*H48</f>
-        <v>50.563928459936768</v>
+        <v>36.85146666666666</v>
       </c>
       <c r="M48" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>5.0912439538563348</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>4.1485333333333401</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" ref="N48:N55" si="62">G48/F48</f>
+        <f t="shared" ref="N48:N55" si="60">G48/F48</f>
         <v>1.4116185649152317</v>
       </c>
       <c r="O48" s="11">
-        <f t="shared" ref="O48:O55" si="63">H48/E48</f>
+        <f t="shared" ref="O48:O55" si="61">H48/E48</f>
         <v>0.96692291972234945</v>
       </c>
       <c r="P48" s="8">
-        <f t="shared" ref="P48:P55" si="64">F48/C48</f>
+        <f t="shared" ref="P48:P55" si="62">F48/C48</f>
         <v>0.22870484467215771</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" ref="Q48:Q55" si="65">(H48-H47)/H47</f>
+        <f t="shared" ref="Q48:Q55" si="63">(H48-H47)/H47</f>
         <v>-2.174063101163469E-2</v>
       </c>
       <c r="R48" s="2">
@@ -9323,7 +9177,7 @@
         <v>1.0151892610811664</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2023</v>
       </c>
@@ -9334,11 +9188,11 @@
         <v>45.35</v>
       </c>
       <c r="D49">
+        <f t="shared" si="57"/>
+        <v>232</v>
+      </c>
+      <c r="E49" s="4">
         <f t="shared" si="58"/>
-        <v>232</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" si="59"/>
         <v>1025</v>
       </c>
       <c r="F49" s="1">
@@ -9362,31 +9216,30 @@
         <v>9.1529621308167286</v>
       </c>
       <c r="K49" s="7">
+        <f t="shared" si="59"/>
+        <v>39.152962130816732</v>
+      </c>
+      <c r="L49" s="7">
+        <v>30.827466666666663</v>
+      </c>
+      <c r="M49" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-0.82746666666666258</v>
+      </c>
+      <c r="N49" s="8">
         <f t="shared" si="60"/>
-        <v>39.152962130816732</v>
-      </c>
-      <c r="L49" s="7">
+        <v>1.3197634622213756</v>
+      </c>
+      <c r="O49" s="11">
         <f t="shared" si="61"/>
-        <v>55.835282553293325</v>
-      </c>
-      <c r="M49" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-16.682320422476593</v>
-      </c>
-      <c r="N49" s="8">
+        <v>0.90602949235801489</v>
+      </c>
+      <c r="P49" s="8">
         <f t="shared" si="62"/>
-        <v>1.3197634622213756</v>
-      </c>
-      <c r="O49" s="11">
+        <v>0.22597681418316987</v>
+      </c>
+      <c r="Q49" s="9">
         <f t="shared" si="63"/>
-        <v>0.90602949235801489</v>
-      </c>
-      <c r="P49" s="8">
-        <f t="shared" si="64"/>
-        <v>0.22597681418316987</v>
-      </c>
-      <c r="Q49" s="9">
-        <f t="shared" si="65"/>
         <v>-5.1876524163333056E-2</v>
       </c>
       <c r="R49" s="2">
@@ -9422,7 +9275,7 @@
         <v>1.0099539866341773</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2023</v>
       </c>
@@ -9433,11 +9286,11 @@
         <v>45.35</v>
       </c>
       <c r="D50">
+        <f t="shared" si="57"/>
+        <v>232</v>
+      </c>
+      <c r="E50" s="4">
         <f t="shared" si="58"/>
-        <v>232</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" si="59"/>
         <v>981</v>
       </c>
       <c r="F50" s="1">
@@ -9461,31 +9314,30 @@
         <v>39.684973088083225</v>
       </c>
       <c r="K50" s="7">
+        <f t="shared" si="59"/>
+        <v>78.684973088083225</v>
+      </c>
+      <c r="L50" s="7">
+        <v>38.387466666666661</v>
+      </c>
+      <c r="M50" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>0.6125333333333387</v>
+      </c>
+      <c r="N50" s="8">
         <f t="shared" si="60"/>
-        <v>78.684973088083225</v>
-      </c>
-      <c r="L50" s="7">
+        <v>1.2808130529997055</v>
+      </c>
+      <c r="O50" s="11">
         <f t="shared" si="61"/>
-        <v>50.480310372428136</v>
-      </c>
-      <c r="M50" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>28.20466271565509</v>
-      </c>
-      <c r="N50" s="8">
+        <v>0.9993160323884529</v>
+      </c>
+      <c r="P50" s="8">
         <f t="shared" si="62"/>
-        <v>1.2808130529997055</v>
-      </c>
-      <c r="O50" s="11">
+        <v>0.23614869423554768</v>
+      </c>
+      <c r="Q50" s="9">
         <f t="shared" si="63"/>
-        <v>0.9993160323884529</v>
-      </c>
-      <c r="P50" s="8">
-        <f t="shared" si="64"/>
-        <v>0.23614869423554768</v>
-      </c>
-      <c r="Q50" s="9">
-        <f t="shared" si="65"/>
         <v>5.5615266112242816E-2</v>
       </c>
       <c r="R50" s="2">
@@ -9521,7 +9373,7 @@
         <v>1.0421891499663742</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2023</v>
       </c>
@@ -9532,11 +9384,11 @@
         <v>45.35</v>
       </c>
       <c r="D51">
+        <f t="shared" si="57"/>
+        <v>232</v>
+      </c>
+      <c r="E51" s="4">
         <f t="shared" si="58"/>
-        <v>232</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="59"/>
         <v>1032</v>
       </c>
       <c r="F51" s="1">
@@ -9560,31 +9412,30 @@
         <v>41.734175898089546</v>
       </c>
       <c r="K51" s="7">
+        <f t="shared" si="59"/>
+        <v>74.734175898089546</v>
+      </c>
+      <c r="L51" s="7">
+        <v>31.451466666666658</v>
+      </c>
+      <c r="M51" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>1.5485333333333422</v>
+      </c>
+      <c r="N51" s="8">
         <f t="shared" si="60"/>
-        <v>74.734175898089546</v>
-      </c>
-      <c r="L51" s="7">
+        <v>1.3898001321356666</v>
+      </c>
+      <c r="O51" s="11">
         <f t="shared" si="61"/>
-        <v>43.84530755387928</v>
-      </c>
-      <c r="M51" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>30.888868344210266</v>
-      </c>
-      <c r="N51" s="8">
+        <v>1.0177068210116209</v>
+      </c>
+      <c r="P51" s="8">
         <f t="shared" si="62"/>
-        <v>1.3898001321356666</v>
-      </c>
-      <c r="O51" s="11">
+        <v>0.22455348341867468</v>
+      </c>
+      <c r="Q51" s="9">
         <f t="shared" si="63"/>
-        <v>1.0177068210116209</v>
-      </c>
-      <c r="P51" s="8">
-        <f t="shared" si="64"/>
-        <v>0.22455348341867468</v>
-      </c>
-      <c r="Q51" s="9">
-        <f t="shared" si="65"/>
         <v>7.1347893951285948E-2</v>
       </c>
       <c r="R51" s="2">
@@ -9620,7 +9471,7 @@
         <v>1.0413808142262881</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2023</v>
       </c>
@@ -9631,11 +9482,11 @@
         <v>45.35</v>
       </c>
       <c r="D52">
+        <f t="shared" si="57"/>
+        <v>232</v>
+      </c>
+      <c r="E52" s="4">
         <f t="shared" si="58"/>
-        <v>232</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="59"/>
         <v>1020</v>
       </c>
       <c r="F52" s="1">
@@ -9659,31 +9510,30 @@
         <v>56.126224094900891</v>
       </c>
       <c r="K52" s="7">
+        <f t="shared" si="59"/>
+        <v>89.126224094900891</v>
+      </c>
+      <c r="L52" s="7">
+        <v>33.011466666666664</v>
+      </c>
+      <c r="M52" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-1.1466666666663627E-2</v>
+      </c>
+      <c r="N52" s="8">
         <f t="shared" si="60"/>
-        <v>89.126224094900891</v>
-      </c>
-      <c r="L52" s="7">
+        <v>1.1892615460939049</v>
+      </c>
+      <c r="O52" s="11">
         <f t="shared" si="61"/>
-        <v>46.583290161561244</v>
-      </c>
-      <c r="M52" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>42.542933933339647</v>
-      </c>
-      <c r="N52" s="8">
+        <v>1.0004845069689769</v>
+      </c>
+      <c r="P52" s="8">
         <f t="shared" si="62"/>
-        <v>1.1892615460939049</v>
-      </c>
-      <c r="O52" s="11">
+        <v>0.22708305125179729</v>
+      </c>
+      <c r="Q52" s="9">
         <f t="shared" si="63"/>
-        <v>1.0004845069689769</v>
-      </c>
-      <c r="P52" s="8">
-        <f t="shared" si="64"/>
-        <v>0.22708305125179729</v>
-      </c>
-      <c r="Q52" s="9">
-        <f t="shared" si="65"/>
         <v>-2.8353799174372869E-2</v>
       </c>
       <c r="R52" s="2">
@@ -9719,7 +9569,7 @@
         <v>1.058200008363527</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -9730,11 +9580,11 @@
         <v>45.35</v>
       </c>
       <c r="D53">
+        <f t="shared" si="57"/>
+        <v>232</v>
+      </c>
+      <c r="E53" s="4">
         <f t="shared" si="58"/>
-        <v>232</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="59"/>
         <v>1004</v>
       </c>
       <c r="F53" s="1">
@@ -9758,31 +9608,30 @@
         <v>10.892393429379569</v>
       </c>
       <c r="K53" s="7">
+        <f t="shared" si="59"/>
+        <v>37.892393429379567</v>
+      </c>
+      <c r="L53" s="7">
+        <v>31.295466666666666</v>
+      </c>
+      <c r="M53" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-4.2954666666666661</v>
+      </c>
+      <c r="N53" s="8">
         <f t="shared" si="60"/>
-        <v>37.892393429379567</v>
-      </c>
-      <c r="L53" s="7">
+        <v>1.2805109039704341</v>
+      </c>
+      <c r="O53" s="11">
         <f t="shared" si="61"/>
-        <v>64.022960231000496</v>
-      </c>
-      <c r="M53" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-26.13056680162093</v>
-      </c>
-      <c r="N53" s="8">
+        <v>0.8524323791606282</v>
+      </c>
+      <c r="P53" s="8">
         <f t="shared" si="62"/>
-        <v>1.2805109039704341</v>
-      </c>
-      <c r="O53" s="11">
+        <v>0.23078322631322426</v>
+      </c>
+      <c r="Q53" s="9">
         <f t="shared" si="63"/>
-        <v>0.8524323791606282</v>
-      </c>
-      <c r="P53" s="8">
-        <f t="shared" si="64"/>
-        <v>0.23078322631322426</v>
-      </c>
-      <c r="Q53" s="9">
-        <f t="shared" si="65"/>
         <v>-0.16134544311730459</v>
       </c>
       <c r="R53" s="2">
@@ -9818,7 +9667,7 @@
         <v>1.0128911735607649</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2023</v>
       </c>
@@ -9829,11 +9678,11 @@
         <v>45.35</v>
       </c>
       <c r="D54">
+        <f t="shared" si="57"/>
+        <v>232</v>
+      </c>
+      <c r="E54" s="4">
         <f t="shared" si="58"/>
-        <v>232</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="59"/>
         <v>990</v>
       </c>
       <c r="F54" s="1">
@@ -9857,31 +9706,30 @@
         <v>33.48136819122486</v>
       </c>
       <c r="K54" s="7">
+        <f t="shared" si="59"/>
+        <v>85.48136819122486</v>
+      </c>
+      <c r="L54" s="7">
+        <v>48.56346666666667</v>
+      </c>
+      <c r="M54" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>3.4365333333333297</v>
+      </c>
+      <c r="N54" s="8">
         <f t="shared" si="60"/>
-        <v>85.48136819122486</v>
-      </c>
-      <c r="L54" s="7">
+        <v>1.2134700694283627</v>
+      </c>
+      <c r="O54" s="11">
         <f t="shared" si="61"/>
-        <v>47.946273310981667</v>
-      </c>
-      <c r="M54" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>37.535094880243193</v>
-      </c>
-      <c r="N54" s="8">
+        <v>1.0163320425866711</v>
+      </c>
+      <c r="P54" s="8">
         <f t="shared" si="62"/>
-        <v>1.2134700694283627</v>
-      </c>
-      <c r="O54" s="11">
+        <v>0.23407841838509938</v>
+      </c>
+      <c r="Q54" s="9">
         <f t="shared" si="63"/>
-        <v>1.0163320425866711</v>
-      </c>
-      <c r="P54" s="8">
-        <f t="shared" si="64"/>
-        <v>0.23407841838509938</v>
-      </c>
-      <c r="Q54" s="9">
-        <f t="shared" si="65"/>
         <v>0.17564760130331497</v>
       </c>
       <c r="R54" s="2">
@@ -9917,7 +9765,7 @@
         <v>1.0344215107296151</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2023</v>
       </c>
@@ -9928,11 +9776,11 @@
         <v>45.35</v>
       </c>
       <c r="D55">
+        <f t="shared" si="57"/>
+        <v>232</v>
+      </c>
+      <c r="E55" s="4">
         <f t="shared" si="58"/>
-        <v>232</v>
-      </c>
-      <c r="E55" s="4">
-        <f t="shared" si="59"/>
         <v>1021</v>
       </c>
       <c r="F55" s="1">
@@ -9956,31 +9804,30 @@
         <v>28.474222331636462</v>
       </c>
       <c r="K55" s="7">
+        <f t="shared" si="59"/>
+        <v>78.474222331636469</v>
+      </c>
+      <c r="L55" s="7">
+        <v>30.323466666666658</v>
+      </c>
+      <c r="M55" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>19.676533333333342</v>
+      </c>
+      <c r="N55" s="8">
         <f t="shared" si="60"/>
-        <v>78.474222331636469</v>
-      </c>
-      <c r="L55" s="7">
+        <v>1.2947899447553763</v>
+      </c>
+      <c r="O55" s="11">
         <f t="shared" si="61"/>
-        <v>38.283162476725103</v>
-      </c>
-      <c r="M55" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>40.191059854911366</v>
-      </c>
-      <c r="N55" s="8">
+        <v>1.0926634188540032</v>
+      </c>
+      <c r="P55" s="8">
         <f t="shared" si="62"/>
-        <v>1.2947899447553763</v>
-      </c>
-      <c r="O55" s="11">
+        <v>0.22690206962284284</v>
+      </c>
+      <c r="Q55" s="9">
         <f t="shared" si="63"/>
-        <v>1.0926634188540032</v>
-      </c>
-      <c r="P55" s="8">
-        <f t="shared" si="64"/>
-        <v>0.22690206962284284</v>
-      </c>
-      <c r="Q55" s="9">
-        <f t="shared" si="65"/>
         <v>0.10876965868517863</v>
       </c>
       <c r="R55" s="2">
@@ -10016,7 +9863,7 @@
         <v>1.0261919807298321</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2023</v>
       </c>
@@ -10027,11 +9874,11 @@
         <v>45.35</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:D63" si="66">ROUNDUP(1500/C56*7,0)</f>
+        <f t="shared" ref="D56:D63" si="64">ROUNDUP(1500/C56*7,0)</f>
         <v>232</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" ref="E56:E67" si="67">ROUNDUP(1500*7/F56,0)</f>
+        <f t="shared" ref="E56:E67" si="65">ROUNDUP(1500*7/F56,0)</f>
         <v>1015</v>
       </c>
       <c r="F56" s="1">
@@ -10055,31 +9902,30 @@
         <v>19.609642358849086</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" ref="K56:K67" si="68">J56+I56</f>
+        <f t="shared" ref="K56:K67" si="66">J56+I56</f>
         <v>48.609642358849086</v>
       </c>
       <c r="L56" s="7">
-        <f t="shared" ref="L56:L72" si="69">1.5*(0.65*EXP(-0.003*H56))*H56</f>
-        <v>48.203787251582604</v>
+        <v>29.735466666666664</v>
       </c>
       <c r="M56" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>0.40585510726648266</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-0.73546666666666383</v>
       </c>
       <c r="N56" s="8">
-        <f t="shared" ref="N56:N67" si="70">G56/F56</f>
+        <f t="shared" ref="N56:N67" si="67">G56/F56</f>
         <v>1.2867349663325658</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" ref="O56:O67" si="71">H56/E56</f>
+        <f t="shared" ref="O56:O67" si="68">H56/E56</f>
         <v>0.98866688642424561</v>
       </c>
       <c r="P56" s="8">
-        <f t="shared" ref="P56:P67" si="72">F56/C56</f>
+        <f t="shared" ref="P56:P67" si="69">F56/C56</f>
         <v>0.22827012332446261</v>
       </c>
       <c r="Q56" s="9">
-        <f t="shared" ref="Q56:Q67" si="73">(H56-H55)/H55</f>
+        <f t="shared" ref="Q56:Q67" si="70">(H56-H55)/H55</f>
         <v>-0.10049437185517768</v>
       </c>
       <c r="R56" s="2">
@@ -10115,7 +9961,7 @@
         <v>1.0199307821210519</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2023</v>
       </c>
@@ -10126,11 +9972,11 @@
         <v>45.35</v>
       </c>
       <c r="D57">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>232</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>1013</v>
       </c>
       <c r="F57" s="1">
@@ -10154,31 +10000,30 @@
         <v>28.343676931814112</v>
       </c>
       <c r="K57" s="7">
+        <f t="shared" si="66"/>
+        <v>85.343676931814116</v>
+      </c>
+      <c r="L57" s="7">
+        <v>26.25546666666666</v>
+      </c>
+      <c r="M57" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>30.74453333333334</v>
+      </c>
+      <c r="N57" s="8">
+        <f t="shared" si="67"/>
+        <v>1.1442334597154125</v>
+      </c>
+      <c r="O57" s="11">
         <f t="shared" si="68"/>
-        <v>85.343676931814116</v>
-      </c>
-      <c r="L57" s="7">
+        <v>1.2892403538180182</v>
+      </c>
+      <c r="P57" s="8">
         <f t="shared" si="69"/>
-        <v>25.315210811541473</v>
-      </c>
-      <c r="M57" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>60.02846612027264</v>
-      </c>
-      <c r="N57" s="8">
+        <v>0.22872511248958274</v>
+      </c>
+      <c r="Q57" s="9">
         <f t="shared" si="70"/>
-        <v>1.1442334597154125</v>
-      </c>
-      <c r="O57" s="11">
-        <f t="shared" si="71"/>
-        <v>1.2892403538180182</v>
-      </c>
-      <c r="P57" s="8">
-        <f t="shared" si="72"/>
-        <v>0.22872511248958274</v>
-      </c>
-      <c r="Q57" s="9">
-        <f t="shared" si="73"/>
         <v>0.30144945320285482</v>
       </c>
       <c r="R57" s="2">
@@ -10214,7 +10059,7 @@
         <v>1.0221841083605958</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2023</v>
       </c>
@@ -10225,11 +10070,11 @@
         <v>45.35</v>
       </c>
       <c r="D58">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>232</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>1062</v>
       </c>
       <c r="F58" s="1">
@@ -10253,31 +10098,30 @@
         <v>44.670860734303616</v>
       </c>
       <c r="K58" s="7">
+        <f t="shared" si="66"/>
+        <v>78.670860734303616</v>
+      </c>
+      <c r="L58" s="7">
+        <v>26.651466666666661</v>
+      </c>
+      <c r="M58" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>7.3485333333333394</v>
+      </c>
+      <c r="N58" s="8">
+        <f t="shared" si="67"/>
+        <v>1.2647744133091843</v>
+      </c>
+      <c r="O58" s="11">
         <f t="shared" si="68"/>
-        <v>78.670860734303616</v>
-      </c>
-      <c r="L58" s="7">
+        <v>1.1722899597230607</v>
+      </c>
+      <c r="P58" s="8">
         <f t="shared" si="69"/>
-        <v>28.980832077285307</v>
-      </c>
-      <c r="M58" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>49.69002865701831</v>
-      </c>
-      <c r="N58" s="8">
+        <v>0.21813130459586652</v>
+      </c>
+      <c r="Q58" s="9">
         <f t="shared" si="70"/>
-        <v>1.2647744133091843</v>
-      </c>
-      <c r="O58" s="11">
-        <f t="shared" si="71"/>
-        <v>1.1722899597230607</v>
-      </c>
-      <c r="P58" s="8">
-        <f t="shared" si="72"/>
-        <v>0.21813130459586652</v>
-      </c>
-      <c r="Q58" s="9">
-        <f t="shared" si="73"/>
         <v>-4.6729340609204001E-2</v>
       </c>
       <c r="R58" s="2">
@@ -10313,7 +10157,7 @@
         <v>1.0372163797977039</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2023</v>
       </c>
@@ -10324,11 +10168,11 @@
         <v>45.35</v>
       </c>
       <c r="D59">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>232</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>1032</v>
       </c>
       <c r="F59" s="1">
@@ -10352,31 +10196,30 @@
         <v>4.5191308703966122</v>
       </c>
       <c r="K59" s="7">
+        <f t="shared" si="66"/>
+        <v>57.519130870396609</v>
+      </c>
+      <c r="L59" s="7">
+        <v>55.367466666666658</v>
+      </c>
+      <c r="M59" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-2.3674666666666582</v>
+      </c>
+      <c r="N59" s="8">
+        <f t="shared" si="67"/>
+        <v>1.2964974963044327</v>
+      </c>
+      <c r="O59" s="11">
         <f t="shared" si="68"/>
-        <v>57.519130870396609</v>
-      </c>
-      <c r="L59" s="7">
+        <v>0.9672131981872768</v>
+      </c>
+      <c r="P59" s="8">
         <f t="shared" si="69"/>
-        <v>48.720882768678294</v>
-      </c>
-      <c r="M59" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>8.7982481017183147</v>
-      </c>
-      <c r="N59" s="8">
+        <v>0.22445310722598488</v>
+      </c>
+      <c r="Q59" s="9">
         <f t="shared" si="70"/>
-        <v>1.2964974963044327</v>
-      </c>
-      <c r="O59" s="11">
-        <f t="shared" si="71"/>
-        <v>0.9672131981872768</v>
-      </c>
-      <c r="P59" s="8">
-        <f t="shared" si="72"/>
-        <v>0.22445310722598488</v>
-      </c>
-      <c r="Q59" s="9">
-        <f t="shared" si="73"/>
         <v>-0.19824375900919561</v>
       </c>
       <c r="R59" s="2">
@@ -10412,7 +10255,7 @@
         <v>1.0045480341291226</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2023</v>
       </c>
@@ -10423,11 +10266,11 @@
         <v>45.35</v>
       </c>
       <c r="D60">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>232</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>1034</v>
       </c>
       <c r="F60" s="1">
@@ -10451,31 +10294,30 @@
         <v>16.410369206834194</v>
       </c>
       <c r="K60" s="7">
+        <f t="shared" si="66"/>
+        <v>82.41036920683419</v>
+      </c>
+      <c r="L60" s="7">
+        <v>21.971466666666661</v>
+      </c>
+      <c r="M60" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>44.028533333333343</v>
+      </c>
+      <c r="N60" s="8">
+        <f t="shared" si="67"/>
+        <v>1.3201966711530206</v>
+      </c>
+      <c r="O60" s="11">
         <f t="shared" si="68"/>
-        <v>82.41036920683419</v>
-      </c>
-      <c r="L60" s="7">
+        <v>1.1321266567391697</v>
+      </c>
+      <c r="P60" s="8">
         <f t="shared" si="69"/>
-        <v>34.059643861832058</v>
-      </c>
-      <c r="M60" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>48.350725345002132</v>
-      </c>
-      <c r="N60" s="8">
+        <v>0.22410333669720486</v>
+      </c>
+      <c r="Q60" s="9">
         <f t="shared" si="70"/>
-        <v>1.3201966711530206</v>
-      </c>
-      <c r="O60" s="11">
-        <f t="shared" si="71"/>
-        <v>1.1321266567391697</v>
-      </c>
-      <c r="P60" s="8">
-        <f t="shared" si="72"/>
-        <v>0.22410333669720486</v>
-      </c>
-      <c r="Q60" s="9">
-        <f t="shared" si="73"/>
         <v>0.17277214865708002</v>
       </c>
       <c r="R60" s="2">
@@ -10511,7 +10353,7 @@
         <v>1.0142178539426157</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2023</v>
       </c>
@@ -10522,11 +10364,11 @@
         <v>45.35</v>
       </c>
       <c r="D61">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>232</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>1037</v>
       </c>
       <c r="F61" s="1">
@@ -10549,31 +10391,30 @@
         <v>43.117829503346627</v>
       </c>
       <c r="K61" s="7">
+        <f t="shared" si="66"/>
+        <v>43.117829503346627</v>
+      </c>
+      <c r="L61" s="7">
+        <v>5.5794666666666641</v>
+      </c>
+      <c r="M61" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-5.5794666666666641</v>
+      </c>
+      <c r="N61" s="8">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="11">
         <f t="shared" si="68"/>
-        <v>43.117829503346627</v>
-      </c>
-      <c r="L61" s="7">
+        <v>1.0584764253835308</v>
+      </c>
+      <c r="P61" s="8">
         <f t="shared" si="69"/>
-        <v>39.752780188398823</v>
-      </c>
-      <c r="M61" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>3.3650493149478038</v>
-      </c>
-      <c r="N61" s="8">
+        <v>0.22329651316884958</v>
+      </c>
+      <c r="Q61" s="9">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="11">
-        <f t="shared" si="71"/>
-        <v>1.0584764253835308</v>
-      </c>
-      <c r="P61" s="8">
-        <f t="shared" si="72"/>
-        <v>0.22329651316884958</v>
-      </c>
-      <c r="Q61" s="9">
-        <f t="shared" si="73"/>
         <v>-6.2342155943122132E-2</v>
       </c>
       <c r="R61" s="2">
@@ -10609,7 +10450,7 @@
         <v>1.0408884976888928</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2023</v>
       </c>
@@ -10620,11 +10461,11 @@
         <v>45.35</v>
       </c>
       <c r="D62">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>232</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>1068</v>
       </c>
       <c r="F62" s="1">
@@ -10648,31 +10489,30 @@
         <v>26.234716843407202</v>
       </c>
       <c r="K62" s="7">
+        <f t="shared" si="66"/>
+        <v>92.234716843407199</v>
+      </c>
+      <c r="L62" s="7">
+        <v>27.995466666666662</v>
+      </c>
+      <c r="M62" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>38.004533333333342</v>
+      </c>
+      <c r="N62" s="8">
+        <f t="shared" si="67"/>
+        <v>1.3643346930649995</v>
+      </c>
+      <c r="O62" s="11">
         <f t="shared" si="68"/>
-        <v>92.234716843407199</v>
-      </c>
-      <c r="L62" s="7">
+        <v>0.90653515495882508</v>
+      </c>
+      <c r="P62" s="8">
         <f t="shared" si="69"/>
-        <v>51.705342177177343</v>
-      </c>
-      <c r="M62" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>40.529374666229856</v>
-      </c>
-      <c r="N62" s="8">
+        <v>0.21685329897847805</v>
+      </c>
+      <c r="Q62" s="9">
         <f t="shared" si="70"/>
-        <v>1.3643346930649995</v>
-      </c>
-      <c r="O62" s="11">
-        <f t="shared" si="71"/>
-        <v>0.90653515495882508</v>
-      </c>
-      <c r="P62" s="8">
-        <f t="shared" si="72"/>
-        <v>0.21685329897847805</v>
-      </c>
-      <c r="Q62" s="9">
-        <f t="shared" si="73"/>
         <v>-0.11794440924271</v>
       </c>
       <c r="R62" s="2">
@@ -10708,7 +10548,7 @@
         <v>1.0278516491044747</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2023</v>
       </c>
@@ -10719,11 +10559,11 @@
         <v>45.35</v>
       </c>
       <c r="D63">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>232</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>1047</v>
       </c>
       <c r="F63" s="1">
@@ -10747,31 +10587,30 @@
         <v>27.298574344527193</v>
       </c>
       <c r="K63" s="7">
+        <f t="shared" si="66"/>
+        <v>91.298574344527196</v>
+      </c>
+      <c r="L63" s="7">
+        <v>53.495466666666665</v>
+      </c>
+      <c r="M63" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>10.504533333333335</v>
+      </c>
+      <c r="N63" s="8">
+        <f t="shared" si="67"/>
+        <v>1.5357908033072596</v>
+      </c>
+      <c r="O63" s="11">
         <f t="shared" si="68"/>
-        <v>91.298574344527196</v>
-      </c>
-      <c r="L63" s="7">
+        <v>0.79834535340365254</v>
+      </c>
+      <c r="P63" s="8">
         <f t="shared" si="69"/>
-        <v>66.390212690746679</v>
-      </c>
-      <c r="M63" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>24.908361653780517</v>
-      </c>
-      <c r="N63" s="8">
+        <v>0.22132644310940106</v>
+      </c>
+      <c r="Q63" s="9">
         <f t="shared" si="70"/>
-        <v>1.5357908033072596</v>
-      </c>
-      <c r="O63" s="11">
-        <f t="shared" si="71"/>
-        <v>0.79834535340365254</v>
-      </c>
-      <c r="P63" s="8">
-        <f t="shared" si="72"/>
-        <v>0.22132644310940106</v>
-      </c>
-      <c r="Q63" s="9">
-        <f t="shared" si="73"/>
         <v>-0.13666056166742699</v>
       </c>
       <c r="R63" s="2">
@@ -10807,7 +10646,7 @@
         <v>1.0337615886638263</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2023</v>
       </c>
@@ -10822,7 +10661,7 @@
         <v>215</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>911</v>
       </c>
       <c r="F64" s="1">
@@ -10846,31 +10685,30 @@
         <v>0</v>
       </c>
       <c r="K64" s="7">
+        <f t="shared" si="66"/>
+        <v>37</v>
+      </c>
+      <c r="L64" s="7">
+        <v>29.615466666666659</v>
+      </c>
+      <c r="M64" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>7.3845333333333407</v>
+      </c>
+      <c r="N64" s="8">
+        <f t="shared" si="67"/>
+        <v>1.1909651705202091</v>
+      </c>
+      <c r="O64" s="11">
         <f t="shared" si="68"/>
-        <v>37</v>
-      </c>
-      <c r="L64" s="7">
+        <v>0.87495328760061364</v>
+      </c>
+      <c r="P64" s="8">
         <f t="shared" si="69"/>
-        <v>71.121734169166231</v>
-      </c>
-      <c r="M64" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-34.121734169166231</v>
-      </c>
-      <c r="N64" s="8">
+        <v>0.23594181101000045</v>
+      </c>
+      <c r="Q64" s="9">
         <f t="shared" si="70"/>
-        <v>1.1909651705202091</v>
-      </c>
-      <c r="O64" s="11">
-        <f t="shared" si="71"/>
-        <v>0.87495328760061364</v>
-      </c>
-      <c r="P64" s="8">
-        <f t="shared" si="72"/>
-        <v>0.23594181101000045</v>
-      </c>
-      <c r="Q64" s="9">
-        <f t="shared" si="73"/>
         <v>-4.640105766134358E-2</v>
       </c>
       <c r="R64" s="2">
@@ -10906,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2023</v>
       </c>
@@ -10917,11 +10755,11 @@
         <v>48.89</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:D67" si="74">ROUNDUP(1500/C65*7,0)</f>
+        <f t="shared" ref="D65:D67" si="71">ROUNDUP(1500/C65*7,0)</f>
         <v>215</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>915</v>
       </c>
       <c r="F65" s="1">
@@ -10945,31 +10783,30 @@
         <v>7.7356717229530609</v>
       </c>
       <c r="K65" s="7">
+        <f t="shared" si="66"/>
+        <v>12.735671722953061</v>
+      </c>
+      <c r="L65" s="7">
+        <v>13.271466666666662</v>
+      </c>
+      <c r="M65" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-8.2714666666666616</v>
+      </c>
+      <c r="N65" s="8">
+        <f t="shared" si="67"/>
+        <v>1.2321964049474141</v>
+      </c>
+      <c r="O65" s="11">
         <f t="shared" si="68"/>
-        <v>12.735671722953061</v>
-      </c>
-      <c r="L65" s="7">
+        <v>0.86998176392052551</v>
+      </c>
+      <c r="P65" s="8">
         <f t="shared" si="69"/>
-        <v>71.252028346549864</v>
-      </c>
-      <c r="M65" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-58.516356623596806</v>
-      </c>
-      <c r="N65" s="8">
+        <v>0.23479827251408192</v>
+      </c>
+      <c r="Q65" s="9">
         <f t="shared" si="70"/>
-        <v>1.2321964049474141</v>
-      </c>
-      <c r="O65" s="11">
-        <f t="shared" si="71"/>
-        <v>0.86998176392052551</v>
-      </c>
-      <c r="P65" s="8">
-        <f t="shared" si="72"/>
-        <v>0.23479827251408192</v>
-      </c>
-      <c r="Q65" s="9">
-        <f t="shared" si="73"/>
         <v>-1.3162139292538172E-3</v>
       </c>
       <c r="R65" s="2">
@@ -11005,7 +10842,7 @@
         <v>1.0098131356840456</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2023</v>
       </c>
@@ -11016,11 +10853,11 @@
         <v>48.89</v>
       </c>
       <c r="D66">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>215</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>906</v>
       </c>
       <c r="F66" s="1">
@@ -11044,31 +10881,30 @@
         <v>34.581985437731674</v>
       </c>
       <c r="K66" s="7">
+        <f t="shared" si="66"/>
+        <v>55.581985437731674</v>
+      </c>
+      <c r="L66" s="7">
+        <v>22.535466666666661</v>
+      </c>
+      <c r="M66" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-1.535466666666661</v>
+      </c>
+      <c r="N66" s="8">
+        <f t="shared" si="67"/>
+        <v>1.3321780757388355</v>
+      </c>
+      <c r="O66" s="11">
         <f t="shared" si="68"/>
-        <v>55.581985437731674</v>
-      </c>
-      <c r="L66" s="7">
+        <v>0.81703485070356996</v>
+      </c>
+      <c r="P66" s="8">
         <f t="shared" si="69"/>
-        <v>78.331298280004887</v>
-      </c>
-      <c r="M66" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-22.749312842273213</v>
-      </c>
-      <c r="N66" s="8">
+        <v>0.23717800503353872</v>
+      </c>
+      <c r="Q66" s="9">
         <f t="shared" si="70"/>
-        <v>1.3321780757388355</v>
-      </c>
-      <c r="O66" s="11">
-        <f t="shared" si="71"/>
-        <v>0.81703485070356996</v>
-      </c>
-      <c r="P66" s="8">
-        <f t="shared" si="72"/>
-        <v>0.23717800503353872</v>
-      </c>
-      <c r="Q66" s="9">
-        <f t="shared" si="73"/>
         <v>-7.0097241245280342E-2</v>
       </c>
       <c r="R66" s="2">
@@ -11104,7 +10940,7 @@
         <v>1.0490071672226393</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2023</v>
       </c>
@@ -11115,11 +10951,11 @@
         <v>48.89</v>
       </c>
       <c r="D67">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>215</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>916</v>
       </c>
       <c r="F67" s="1">
@@ -11143,31 +10979,30 @@
         <v>0</v>
       </c>
       <c r="K67" s="7">
+        <f t="shared" si="66"/>
+        <v>29</v>
+      </c>
+      <c r="L67" s="7">
+        <v>28.235466666666664</v>
+      </c>
+      <c r="M67" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>0.76453333333333617</v>
+      </c>
+      <c r="N67" s="8">
+        <f t="shared" si="67"/>
+        <v>1.282098155406977</v>
+      </c>
+      <c r="O67" s="11">
         <f t="shared" si="68"/>
-        <v>29</v>
-      </c>
-      <c r="L67" s="7">
+        <v>0.81217278504291057</v>
+      </c>
+      <c r="P67" s="8">
         <f t="shared" si="69"/>
-        <v>77.851687270419376</v>
-      </c>
-      <c r="M67" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-48.851687270419376</v>
-      </c>
-      <c r="N67" s="8">
+        <v>0.23449250873628363</v>
+      </c>
+      <c r="Q67" s="9">
         <f t="shared" si="70"/>
-        <v>1.282098155406977</v>
-      </c>
-      <c r="O67" s="11">
-        <f t="shared" si="71"/>
-        <v>0.81217278504291057</v>
-      </c>
-      <c r="P67" s="8">
-        <f t="shared" si="72"/>
-        <v>0.23449250873628363</v>
-      </c>
-      <c r="Q67" s="9">
-        <f t="shared" si="73"/>
         <v>5.0209778220205387E-3</v>
       </c>
       <c r="R67" s="2">
@@ -11203,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2023</v>
       </c>
@@ -11242,31 +11077,30 @@
         <v>12.762229043798433</v>
       </c>
       <c r="K68" s="7">
-        <f>J68+I68</f>
+        <f t="shared" ref="K68:K77" si="72">J68+I68</f>
         <v>43.762229043798435</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" si="69"/>
-        <v>54.453089346748357</v>
+        <v>31.091466666666658</v>
       </c>
       <c r="M68" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-10.690860302949922</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-9.1466666666658369E-2</v>
       </c>
       <c r="N68" s="8">
-        <f>G68/F68</f>
+        <f t="shared" ref="N68:N77" si="73">G68/F68</f>
         <v>1.2382252523832753</v>
       </c>
       <c r="O68" s="11">
-        <f>H68/E68</f>
+        <f t="shared" ref="O68:O77" si="74">H68/E68</f>
         <v>0.74794563231609967</v>
       </c>
       <c r="P68" s="8">
-        <f>F68/C68</f>
+        <f t="shared" ref="P68:P77" si="75">F68/C68</f>
         <v>0.22758402420777626</v>
       </c>
       <c r="Q68" s="9">
-        <f>(H68-H67)/H67</f>
+        <f t="shared" ref="Q68:Q77" si="76">(H68-H67)/H67</f>
         <v>0.26576141936813907</v>
       </c>
       <c r="R68" s="2">
@@ -11302,7 +11136,7 @@
         <v>1.0137390578966352</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2023</v>
       </c>
@@ -11313,11 +11147,11 @@
         <v>48.89</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D72" si="75">ROUNDUP(2000/C69*7,0)</f>
+        <f t="shared" ref="D69:D72" si="77">ROUNDUP(2000/C69*7,0)</f>
         <v>287</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" ref="E69:E72" si="76">ROUNDUP(2000*7/F69,0)</f>
+        <f t="shared" ref="E69:E72" si="78">ROUNDUP(2000*7/F69,0)</f>
         <v>1238</v>
       </c>
       <c r="F69" s="1">
@@ -11341,31 +11175,30 @@
         <v>26.69974691904363</v>
       </c>
       <c r="K69" s="7">
-        <f>J69+I69</f>
+        <f t="shared" si="72"/>
         <v>74.699746919043633</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="69"/>
-        <v>60.146721267502841</v>
+        <v>34.091466666666662</v>
       </c>
       <c r="M69" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>14.553025651540793</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>13.908533333333338</v>
       </c>
       <c r="N69" s="8">
-        <f>G69/F69</f>
+        <f t="shared" si="73"/>
         <v>1.1829509442060797</v>
       </c>
       <c r="O69" s="11">
-        <f>H69/E69</f>
+        <f t="shared" si="74"/>
         <v>0.71852116073228534</v>
       </c>
       <c r="P69" s="8">
-        <f>F69/C69</f>
+        <f t="shared" si="75"/>
         <v>0.23135546402859586</v>
       </c>
       <c r="Q69" s="9">
-        <f>(H69-H68)/H68</f>
+        <f t="shared" si="76"/>
         <v>-5.5364099034391399E-2</v>
       </c>
       <c r="R69" s="2">
@@ -11401,7 +11234,7 @@
         <v>1.0309444084424264</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2023</v>
       </c>
@@ -11412,11 +11245,11 @@
         <v>48.89</v>
       </c>
       <c r="D70">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>287</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1248</v>
       </c>
       <c r="F70" s="1">
@@ -11440,31 +11273,30 @@
         <v>2.4952690942607973</v>
       </c>
       <c r="K70" s="7">
-        <f>J70+I70</f>
+        <f t="shared" si="72"/>
         <v>33.495269094260799</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" si="69"/>
-        <v>62.120985012042041</v>
+        <v>33.455466666666666</v>
       </c>
       <c r="M70" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-28.625715917781243</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-2.4554666666666662</v>
       </c>
       <c r="N70" s="8">
-        <f>G70/F70</f>
+        <f t="shared" si="73"/>
         <v>1.2277807579780111</v>
       </c>
       <c r="O70" s="11">
-        <f>H70/E70</f>
+        <f t="shared" si="74"/>
         <v>0.69888559449763887</v>
       </c>
       <c r="P70" s="8">
-        <f>F70/C70</f>
+        <f t="shared" si="75"/>
         <v>0.2295200376630451</v>
       </c>
       <c r="Q70" s="9">
-        <f>(H70-H69)/H69</f>
+        <f t="shared" si="76"/>
         <v>-1.9470946105187178E-2</v>
       </c>
       <c r="R70" s="2">
@@ -11500,7 +11332,7 @@
         <v>1.0028690687163475</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2023</v>
       </c>
@@ -11511,11 +11343,11 @@
         <v>48.89</v>
       </c>
       <c r="D71">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>287</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1241</v>
       </c>
       <c r="F71" s="1">
@@ -11539,31 +11371,30 @@
         <v>25.299411365706028</v>
       </c>
       <c r="K71" s="7">
-        <f>J71+I71</f>
+        <f t="shared" si="72"/>
         <v>70.299411365706021</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" si="69"/>
-        <v>69.189905997851099</v>
+        <v>47.363466666666667</v>
       </c>
       <c r="M71" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>1.109505367854922</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-2.3634666666666675</v>
       </c>
       <c r="N71" s="8">
-        <f>G71/F71</f>
+        <f t="shared" si="73"/>
         <v>1.3852135542274819</v>
       </c>
       <c r="O71" s="11">
-        <f>H71/E71</f>
+        <f t="shared" si="74"/>
         <v>0.65491573975235795</v>
       </c>
       <c r="P71" s="8">
-        <f>F71/C71</f>
+        <f t="shared" si="75"/>
         <v>0.23083668766584764</v>
       </c>
       <c r="Q71" s="9">
-        <f>(H71-H70)/H70</f>
+        <f t="shared" si="76"/>
         <v>-6.8170328179516571E-2</v>
       </c>
       <c r="R71" s="2">
@@ -11599,7 +11430,7 @@
         <v>1.0321282348610701</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2023</v>
       </c>
@@ -11610,11 +11441,11 @@
         <v>48.89</v>
       </c>
       <c r="D72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>287</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1260</v>
       </c>
       <c r="F72" s="1">
@@ -11637,31 +11468,30 @@
         <v>0</v>
       </c>
       <c r="K72" s="7">
-        <f>J72+I72</f>
+        <f t="shared" si="72"/>
         <v>67</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="69"/>
-        <v>60.359757965858449</v>
+        <v>61.475466666666669</v>
       </c>
       <c r="M72" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>6.6402420341415507</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>5.5245333333333306</v>
       </c>
       <c r="N72" s="8">
-        <f>G72/F72</f>
+        <f t="shared" si="73"/>
         <v>1.365453874029932</v>
       </c>
       <c r="O72" s="11">
-        <f>H72/E72</f>
+        <f t="shared" si="74"/>
         <v>0.70447865746844007</v>
       </c>
       <c r="P72" s="8">
-        <f>F72/C72</f>
+        <f t="shared" si="75"/>
         <v>0.22733499485904038</v>
       </c>
       <c r="Q72" s="9">
-        <f>(H72-H71)/H71</f>
+        <f t="shared" si="76"/>
         <v>9.2147198369499014E-2</v>
       </c>
       <c r="R72" s="2">
@@ -11697,7 +11527,7 @@
         <v>1.0198477767006608</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2023</v>
       </c>
@@ -11707,12 +11537,12 @@
       <c r="C73" s="3">
         <v>48.89</v>
       </c>
-      <c r="D73" s="18">
-        <f>ROUNDUP(1500/C73*7,0)</f>
+      <c r="D73">
+        <f t="shared" ref="D73:D80" si="79">ROUNDUP(1500/C73*7,0)</f>
         <v>215</v>
       </c>
       <c r="E73" s="4">
-        <f>ROUNDUP(1500*7/F73,0)</f>
+        <f t="shared" ref="E73:E80" si="80">ROUNDUP(1500*7/F73,0)</f>
         <v>945</v>
       </c>
       <c r="F73" s="1">
@@ -11736,31 +11566,30 @@
         <v>17.274874356840414</v>
       </c>
       <c r="K73" s="7">
-        <f>J73+I73</f>
+        <f t="shared" si="72"/>
         <v>55.274874356840414</v>
       </c>
       <c r="L73" s="7">
-        <f>1.5*(0.65*EXP(-0.003*H73))*H73</f>
-        <v>60.359757965858449</v>
+        <v>42.947466666666671</v>
       </c>
       <c r="M73" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-5.0848836090180356</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-4.9474666666666707</v>
       </c>
       <c r="N73" s="8">
-        <f>G73/F73</f>
+        <f t="shared" si="73"/>
         <v>1.5016611322870776</v>
       </c>
       <c r="O73" s="11">
-        <f>H73/E73</f>
+        <f t="shared" si="74"/>
         <v>0.93930487662458673</v>
       </c>
       <c r="P73" s="8">
-        <f>F73/C73</f>
+        <f t="shared" si="75"/>
         <v>0.22733499485904038</v>
       </c>
       <c r="Q73" s="9">
-        <f>(H73-H72)/H72</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="R73" s="2">
@@ -11796,7 +11625,7 @@
         <v>1.0198477767006608</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2023</v>
       </c>
@@ -11806,12 +11635,12 @@
       <c r="C74" s="3">
         <v>48.89</v>
       </c>
-      <c r="D74" s="18">
-        <f>ROUNDUP(1500/C74*7,0)</f>
+      <c r="D74">
+        <f t="shared" si="79"/>
         <v>215</v>
       </c>
       <c r="E74" s="4">
-        <f>ROUNDUP(1500*7/F74,0)</f>
+        <f t="shared" si="80"/>
         <v>951</v>
       </c>
       <c r="F74" s="1">
@@ -11835,31 +11664,30 @@
         <v>12.316690193970889</v>
       </c>
       <c r="K74" s="7">
-        <f>J74+I74</f>
+        <f t="shared" si="72"/>
         <v>52.316690193970885</v>
       </c>
       <c r="L74" s="7">
-        <f>1.5*(0.65*EXP(-0.003*H74))*H74</f>
-        <v>57.98900687816991</v>
+        <v>38.651466666666664</v>
       </c>
       <c r="M74" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-5.6723166841990249</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>1.3485333333333358</v>
       </c>
       <c r="N74" s="8">
-        <f>G74/F74</f>
+        <f t="shared" si="73"/>
         <v>1.433707279068636</v>
       </c>
       <c r="O74" s="11">
-        <f>H74/E74</f>
+        <f t="shared" si="74"/>
         <v>0.95571078007690879</v>
       </c>
       <c r="P74" s="8">
-        <f>F74/C74</f>
+        <f t="shared" si="75"/>
         <v>0.22585247467507405</v>
       </c>
       <c r="Q74" s="9">
-        <f>(H74-H73)/H73</f>
+        <f t="shared" si="76"/>
         <v>2.3926106384065355E-2</v>
       </c>
       <c r="R74" s="2">
@@ -11895,7 +11723,7 @@
         <v>1.0137376546452763</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2023</v>
       </c>
@@ -11905,12 +11733,12 @@
       <c r="C75" s="3">
         <v>48.89</v>
       </c>
-      <c r="D75" s="18">
-        <f>ROUNDUP(1500/C75*7,0)</f>
+      <c r="D75">
+        <f t="shared" si="79"/>
         <v>215</v>
       </c>
       <c r="E75" s="4">
-        <f>ROUNDUP(1500*7/F75,0)</f>
+        <f t="shared" si="80"/>
         <v>933</v>
       </c>
       <c r="F75" s="1">
@@ -11934,31 +11762,30 @@
         <v>3.1096200628753863</v>
       </c>
       <c r="K75" s="7">
-        <f>J75+I75</f>
+        <f t="shared" si="72"/>
         <v>41.109620062875386</v>
       </c>
       <c r="L75" s="7">
-        <f>1.5*(0.65*EXP(-0.003*H75))*H75</f>
-        <v>62.958116983812417</v>
+        <v>39.875466666666668</v>
       </c>
       <c r="M75" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-21.848496920937031</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-1.8754666666666679</v>
       </c>
       <c r="N75" s="8">
-        <f>G75/F75</f>
+        <f t="shared" si="73"/>
         <v>1.3556299055555421</v>
       </c>
       <c r="O75" s="11">
-        <f>H75/E75</f>
+        <f t="shared" si="74"/>
         <v>0.92708311570331592</v>
       </c>
       <c r="P75" s="8">
-        <f>F75/C75</f>
+        <f t="shared" si="75"/>
         <v>0.23021874252886873</v>
       </c>
       <c r="Q75" s="9">
-        <f>(H75-H74)/H74</f>
+        <f t="shared" si="76"/>
         <v>-4.831480383917431E-2</v>
       </c>
       <c r="R75" s="2">
@@ -11994,7 +11821,7 @@
         <v>1.003608038352753</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2023</v>
       </c>
@@ -12004,12 +11831,12 @@
       <c r="C76" s="3">
         <v>48.89</v>
       </c>
-      <c r="D76" s="18">
-        <f>ROUNDUP(1500/C76*7,0)</f>
+      <c r="D76">
+        <f t="shared" si="79"/>
         <v>215</v>
       </c>
       <c r="E76" s="4">
-        <f>ROUNDUP(1500*7/F76,0)</f>
+        <f t="shared" si="80"/>
         <v>920</v>
       </c>
       <c r="F76" s="1">
@@ -12033,31 +11860,30 @@
         <v>8.5280269821416308</v>
       </c>
       <c r="K76" s="7">
-        <f>J76+I76</f>
+        <f t="shared" si="72"/>
         <v>53.528026982141633</v>
       </c>
       <c r="L76" s="7">
-        <f>1.5*(0.65*EXP(-0.003*H76))*H76</f>
-        <v>77.838243833634152</v>
+        <v>42.023466666666664</v>
       </c>
       <c r="M76" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-24.31021685149252</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>2.9765333333333359</v>
       </c>
       <c r="N76" s="8">
-        <f>G76/F76</f>
+        <f t="shared" si="73"/>
         <v>1.2881058483508163</v>
       </c>
       <c r="O76" s="11">
-        <f>H76/E76</f>
+        <f t="shared" si="74"/>
         <v>0.808754957245713</v>
       </c>
       <c r="P76" s="8">
-        <f>F76/C76</f>
+        <f t="shared" si="75"/>
         <v>0.23365597703189156</v>
       </c>
       <c r="Q76" s="9">
-        <f>(H76-H75)/H75</f>
+        <f t="shared" si="76"/>
         <v>-0.1397900382751841</v>
       </c>
       <c r="R76" s="2">
@@ -12093,7 +11919,7 @@
         <v>1.0115944518540054</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2023</v>
       </c>
@@ -12103,12 +11929,12 @@
       <c r="C77" s="3">
         <v>48.89</v>
       </c>
-      <c r="D77" s="18">
-        <f>ROUNDUP(1500/C77*7,0)</f>
+      <c r="D77">
+        <f t="shared" si="79"/>
         <v>215</v>
       </c>
       <c r="E77" s="4">
-        <f>ROUNDUP(1500*7/F77,0)</f>
+        <f t="shared" si="80"/>
         <v>930</v>
       </c>
       <c r="F77" s="1">
@@ -12132,31 +11958,30 @@
         <v>24.20906630643421</v>
       </c>
       <c r="K77" s="7">
-        <f>J77+I77</f>
+        <f t="shared" si="72"/>
         <v>70.20906630643421</v>
       </c>
       <c r="L77" s="7">
-        <f>1.5*(0.65*EXP(-0.003*H77))*H77</f>
-        <v>73.50044230983822</v>
+        <v>25.12746666666666</v>
       </c>
       <c r="M77" s="10">
-        <f>Tabela1[[#This Row],[Conversões + Equiv. Prod. Line]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-3.2913760034040109</v>
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>20.87253333333334</v>
       </c>
       <c r="N77" s="8">
-        <f>G77/F77</f>
+        <f t="shared" si="73"/>
         <v>1.3871873190616326</v>
       </c>
       <c r="O77" s="11">
-        <f>H77/E77</f>
+        <f t="shared" si="74"/>
         <v>0.83663269196311241</v>
       </c>
       <c r="P77" s="8">
-        <f>F77/C77</f>
+        <f t="shared" si="75"/>
         <v>0.23099701500937689</v>
       </c>
       <c r="Q77" s="9">
-        <f>(H77-H76)/H76</f>
+        <f t="shared" si="76"/>
         <v>4.5714178311319457E-2</v>
       </c>
       <c r="R77" s="2">
@@ -12192,17 +12017,899 @@
         <v>1.0321135059436066</v>
       </c>
     </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2023</v>
+      </c>
+      <c r="B78">
+        <v>50</v>
+      </c>
+      <c r="C78" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="79"/>
+        <v>215</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="80"/>
+        <v>899</v>
+      </c>
+      <c r="F78" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.684642267445613</v>
+      </c>
+      <c r="G78" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>14.741700330871039</v>
+      </c>
+      <c r="H78" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>1041.3301256042612</v>
+      </c>
+      <c r="I78">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>57</v>
+      </c>
+      <c r="J78" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>24.877098788882797</v>
+      </c>
+      <c r="K78" s="7">
+        <f t="shared" ref="K78:K86" si="81">J78+I78</f>
+        <v>81.87709878888279</v>
+      </c>
+      <c r="L78" s="7">
+        <v>52.549000000000007</v>
+      </c>
+      <c r="M78" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>4.4509999999999934</v>
+      </c>
+      <c r="N78" s="8">
+        <f t="shared" ref="N78:N86" si="82">G78/F78</f>
+        <v>1.2616304370688904</v>
+      </c>
+      <c r="O78" s="11">
+        <f t="shared" ref="O78:O86" si="83">H78/E78</f>
+        <v>1.1583204956665865</v>
+      </c>
+      <c r="P78" s="8">
+        <f t="shared" ref="P78:P86" si="84">F78/C78</f>
+        <v>0.23899861459287405</v>
+      </c>
+      <c r="Q78" s="9">
+        <f t="shared" ref="Q78:Q86" si="85">(H78-H77)/H77</f>
+        <v>0.33835292743624801</v>
+      </c>
+      <c r="R78" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>3.583429668877966E-2</v>
+      </c>
+      <c r="S78" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.61600216891795723</v>
+      </c>
+      <c r="T78" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.15102943615710845</v>
+      </c>
+      <c r="U78" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>0.11322745264122182</v>
+      </c>
+      <c r="V78" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>5.0197484358278983E-2</v>
+      </c>
+      <c r="W78" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>3.3709161236653712E-2</v>
+      </c>
+      <c r="X78" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>2.447442049223324E-2</v>
+      </c>
+      <c r="Y78" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0244744204922329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2023</v>
+      </c>
+      <c r="B79">
+        <v>51</v>
+      </c>
+      <c r="C79" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="79"/>
+        <v>215</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="80"/>
+        <v>918</v>
+      </c>
+      <c r="F79" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.446303293665002</v>
+      </c>
+      <c r="G79" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>14.663393509816206</v>
+      </c>
+      <c r="H79" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>1079.9416792355507</v>
+      </c>
+      <c r="I79">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>56</v>
+      </c>
+      <c r="J79" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>43.137944830911373</v>
+      </c>
+      <c r="K79" s="7">
+        <f t="shared" si="81"/>
+        <v>99.13794483091138</v>
+      </c>
+      <c r="L79" s="7">
+        <v>56.102000000000004</v>
+      </c>
+      <c r="M79" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-0.10200000000000387</v>
+      </c>
+      <c r="N79" s="8">
+        <f t="shared" si="82"/>
+        <v>1.2810593196435494</v>
+      </c>
+      <c r="O79" s="11">
+        <f t="shared" si="83"/>
+        <v>1.1764070579907959</v>
+      </c>
+      <c r="P79" s="8">
+        <f t="shared" si="84"/>
+        <v>0.23412361001564741</v>
+      </c>
+      <c r="Q79" s="9">
+        <f t="shared" si="85"/>
+        <v>3.7079070970777984E-2</v>
+      </c>
+      <c r="R79" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>2.7624020755723382E-2</v>
+      </c>
+      <c r="S79" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.65245875945960274</v>
+      </c>
+      <c r="T79" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.13628063706386395</v>
+      </c>
+      <c r="U79" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>0.1088613760019955</v>
+      </c>
+      <c r="V79" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>3.4236157865510819E-2</v>
+      </c>
+      <c r="W79" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.0539048853303575E-2</v>
+      </c>
+      <c r="X79" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>4.1606664211797373E-2</v>
+      </c>
+      <c r="Y79" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0416066642117974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2023</v>
+      </c>
+      <c r="B80">
+        <v>52</v>
+      </c>
+      <c r="C80" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="79"/>
+        <v>215</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="80"/>
+        <v>980</v>
+      </c>
+      <c r="F80" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>10.719660851866944</v>
+      </c>
+      <c r="G80" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>15.356992500541478</v>
+      </c>
+      <c r="H80" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>1004.3937162550113</v>
+      </c>
+      <c r="I80">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>54</v>
+      </c>
+      <c r="J80" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>68.938748176095061</v>
+      </c>
+      <c r="K80" s="7">
+        <f t="shared" si="81"/>
+        <v>122.93874817609506</v>
+      </c>
+      <c r="L80" s="7">
+        <v>19.071000000000002</v>
+      </c>
+      <c r="M80" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>34.929000000000002</v>
+      </c>
+      <c r="N80" s="8">
+        <f t="shared" si="82"/>
+        <v>1.4326005936901347</v>
+      </c>
+      <c r="O80" s="11">
+        <f t="shared" si="83"/>
+        <v>1.0248915471989912</v>
+      </c>
+      <c r="P80" s="8">
+        <f t="shared" si="84"/>
+        <v>0.21926080695166586</v>
+      </c>
+      <c r="Q80" s="9">
+        <f t="shared" si="85"/>
+        <v>-6.9955595226231945E-2</v>
+      </c>
+      <c r="R80" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>2.5519158815129204E-2</v>
+      </c>
+      <c r="S80" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.64200678915331044</v>
+      </c>
+      <c r="T80" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.15315085323142949</v>
+      </c>
+      <c r="U80" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>9.5857898473836647E-2</v>
+      </c>
+      <c r="V80" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>2.9097226100345437E-2</v>
+      </c>
+      <c r="W80" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>5.4368074225948762E-2</v>
+      </c>
+      <c r="X80" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>7.3695421509888545E-2</v>
+      </c>
+      <c r="Y80" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0736954215098886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2024</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D81">
+        <f>ROUNDUP(2000/C81*7,0)</f>
+        <v>287</v>
+      </c>
+      <c r="E81" s="4">
+        <f>ROUNDUP(2000*7/F81,0)</f>
+        <v>1284</v>
+      </c>
+      <c r="F81" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>10.90544471943277</v>
+      </c>
+      <c r="G81" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>14.555771091331271</v>
+      </c>
+      <c r="H81" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>793.97403982717776</v>
+      </c>
+      <c r="I81">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>68</v>
+      </c>
+      <c r="J81" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>19.421491323740941</v>
+      </c>
+      <c r="K81" s="7">
+        <f t="shared" si="81"/>
+        <v>87.421491323740938</v>
+      </c>
+      <c r="L81" s="7">
+        <v>84.85799999999999</v>
+      </c>
+      <c r="M81" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-16.85799999999999</v>
+      </c>
+      <c r="N81" s="8">
+        <f t="shared" si="82"/>
+        <v>1.3347251272929626</v>
+      </c>
+      <c r="O81" s="11">
+        <f t="shared" si="83"/>
+        <v>0.61835984410216338</v>
+      </c>
+      <c r="P81" s="8">
+        <f t="shared" si="84"/>
+        <v>0.22306084515100777</v>
+      </c>
+      <c r="Q81" s="9">
+        <f t="shared" si="85"/>
+        <v>-0.20949919640318507</v>
+      </c>
+      <c r="R81" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>5.040819998958191E-2</v>
+      </c>
+      <c r="S81" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.62876294566962321</v>
+      </c>
+      <c r="T81" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.15296726349735518</v>
+      </c>
+      <c r="U81" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>8.4100089500925748E-2</v>
+      </c>
+      <c r="V81" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>3.9483404444739079E-2</v>
+      </c>
+      <c r="W81" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.4278096897774809E-2</v>
+      </c>
+      <c r="X81" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>2.5074465717357025E-2</v>
+      </c>
+      <c r="Y81" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0250744657173569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2024</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82:D86" si="86">ROUNDUP(2000/C82*7,0)</f>
+        <v>287</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" ref="E82:E86" si="87">ROUNDUP(2000*7/F82,0)</f>
+        <v>1248</v>
+      </c>
+      <c r="F82" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.223761205261834</v>
+      </c>
+      <c r="G82" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>15.100360122119024</v>
+      </c>
+      <c r="H82" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>928.08727925506435</v>
+      </c>
+      <c r="I82">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>68</v>
+      </c>
+      <c r="J82" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>28.689134962087625</v>
+      </c>
+      <c r="K82" s="7">
+        <f t="shared" si="81"/>
+        <v>96.689134962087621</v>
+      </c>
+      <c r="L82" s="7">
+        <v>88.64</v>
+      </c>
+      <c r="M82" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-20.64</v>
+      </c>
+      <c r="N82" s="8">
+        <f t="shared" si="82"/>
+        <v>1.3453921413652132</v>
+      </c>
+      <c r="O82" s="11">
+        <f t="shared" si="83"/>
+        <v>0.74365967889027595</v>
+      </c>
+      <c r="P82" s="8">
+        <f t="shared" si="84"/>
+        <v>0.2295717162049874</v>
+      </c>
+      <c r="Q82" s="9">
+        <f t="shared" si="85"/>
+        <v>0.16891388471224911</v>
+      </c>
+      <c r="R82" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>4.3013958906864373E-2</v>
+      </c>
+      <c r="S82" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.59673311453713507</v>
+      </c>
+      <c r="T82" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.16214264415832971</v>
+      </c>
+      <c r="U82" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>9.1611084309182203E-2</v>
+      </c>
+      <c r="V82" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>6.3394101616403978E-2</v>
+      </c>
+      <c r="W82" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.3105096472084665E-2</v>
+      </c>
+      <c r="X82" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>3.1898147827112047E-2</v>
+      </c>
+      <c r="Y82" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0318981478271121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2024</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="86"/>
+        <v>287</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="87"/>
+        <v>1247</v>
+      </c>
+      <c r="F83" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.233651387612044</v>
+      </c>
+      <c r="G83" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>14.899068852687273</v>
+      </c>
+      <c r="H83" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>944.41688048993603</v>
+      </c>
+      <c r="I83">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>84</v>
+      </c>
+      <c r="J83" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>15.845248695921812</v>
+      </c>
+      <c r="K83" s="7">
+        <f t="shared" si="81"/>
+        <v>99.845248695921811</v>
+      </c>
+      <c r="L83" s="7">
+        <v>72.929000000000016</v>
+      </c>
+      <c r="M83" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>11.070999999999984</v>
+      </c>
+      <c r="N83" s="8">
+        <f t="shared" si="82"/>
+        <v>1.3262890522949007</v>
+      </c>
+      <c r="O83" s="11">
+        <f t="shared" si="83"/>
+        <v>0.7573511471450971</v>
+      </c>
+      <c r="P83" s="8">
+        <f t="shared" si="84"/>
+        <v>0.22977401079181925</v>
+      </c>
+      <c r="Q83" s="9">
+        <f t="shared" si="85"/>
+        <v>1.7594898238427269E-2</v>
+      </c>
+      <c r="R83" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>3.9310724985020952E-2</v>
+      </c>
+      <c r="S83" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.63543199520671068</v>
+      </c>
+      <c r="T83" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.13487453565008978</v>
+      </c>
+      <c r="U83" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>0.11265763930497304</v>
+      </c>
+      <c r="V83" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>3.1206231276213279E-2</v>
+      </c>
+      <c r="W83" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.6518873576992199E-2</v>
+      </c>
+      <c r="X83" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>1.7064110245656069E-2</v>
+      </c>
+      <c r="Y83" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0170641102456561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2024</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="86"/>
+        <v>287</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="87"/>
+        <v>1190</v>
+      </c>
+      <c r="F84" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.770956898962281</v>
+      </c>
+      <c r="G84" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>15.951802701674277</v>
+      </c>
+      <c r="H84" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>834.43598377850776</v>
+      </c>
+      <c r="I84">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>73</v>
+      </c>
+      <c r="J84" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>4.7574721818017123</v>
+      </c>
+      <c r="K84" s="7">
+        <f t="shared" si="81"/>
+        <v>77.757472181801717</v>
+      </c>
+      <c r="L84" s="7">
+        <v>89.081000000000003</v>
+      </c>
+      <c r="M84" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-16.081000000000003</v>
+      </c>
+      <c r="N84" s="8">
+        <f t="shared" si="82"/>
+        <v>1.3551831714786566</v>
+      </c>
+      <c r="O84" s="11">
+        <f t="shared" si="83"/>
+        <v>0.70120670905756954</v>
+      </c>
+      <c r="P84" s="8">
+        <f t="shared" si="84"/>
+        <v>0.24076410102193252</v>
+      </c>
+      <c r="Q84" s="9">
+        <f t="shared" si="85"/>
+        <v>-0.11645375996919219</v>
+      </c>
+      <c r="R84" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>5.490722508757323E-2</v>
+      </c>
+      <c r="S84" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.57240498007906937</v>
+      </c>
+      <c r="T84" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.12046864104541109</v>
+      </c>
+      <c r="U84" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>0.11401980932018992</v>
+      </c>
+      <c r="V84" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>9.7512725128019187E-2</v>
+      </c>
+      <c r="W84" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.0686619339737086E-2</v>
+      </c>
+      <c r="X84" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>5.7341152209016664E-3</v>
+      </c>
+      <c r="Y84" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0057341152209016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2024</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="86"/>
+        <v>287</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="87"/>
+        <v>1225</v>
+      </c>
+      <c r="F85" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.432785386956674</v>
+      </c>
+      <c r="G85" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>15.913511885423436</v>
+      </c>
+      <c r="H85" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>895.10033238926053</v>
+      </c>
+      <c r="I85">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>81</v>
+      </c>
+      <c r="J85" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>19.505307976340927</v>
+      </c>
+      <c r="K85" s="7">
+        <f t="shared" si="81"/>
+        <v>100.50530797634093</v>
+      </c>
+      <c r="L85" s="7">
+        <v>96.398999999999987</v>
+      </c>
+      <c r="M85" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-15.398999999999987</v>
+      </c>
+      <c r="N85" s="8">
+        <f t="shared" si="82"/>
+        <v>1.3919190596876496</v>
+      </c>
+      <c r="O85" s="11">
+        <f t="shared" si="83"/>
+        <v>0.73069414888919226</v>
+      </c>
+      <c r="P85" s="8">
+        <f t="shared" si="84"/>
+        <v>0.23384711366243963</v>
+      </c>
+      <c r="Q85" s="9">
+        <f t="shared" si="85"/>
+        <v>7.2701021756098522E-2</v>
+      </c>
+      <c r="R85" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>3.1864574061809162E-2</v>
+      </c>
+      <c r="S85" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.61101104940916995</v>
+      </c>
+      <c r="T85" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.15049213375169448</v>
+      </c>
+      <c r="U85" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>9.9982118757423424E-2</v>
+      </c>
+      <c r="V85" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>6.4423419832595599E-2</v>
+      </c>
+      <c r="W85" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.2226704187307507E-2</v>
+      </c>
+      <c r="X85" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>2.2276631813227924E-2</v>
+      </c>
+      <c r="Y85" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0222766318132281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2024</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="86"/>
+        <v>287</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="87"/>
+        <v>1159</v>
+      </c>
+      <c r="F86" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>12.08826491167906</v>
+      </c>
+      <c r="G86" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>14.989051670457009</v>
+      </c>
+      <c r="H86" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>689.42317701427783</v>
+      </c>
+      <c r="I86">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>54</v>
+      </c>
+      <c r="J86" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.7469298561456</v>
+      </c>
+      <c r="K86" s="7">
+        <f t="shared" si="81"/>
+        <v>65.746929856145599</v>
+      </c>
+      <c r="L86" s="7">
+        <v>72.006</v>
+      </c>
+      <c r="M86" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-18.006</v>
+      </c>
+      <c r="N86" s="8">
+        <f t="shared" si="82"/>
+        <v>1.2399671731197219</v>
+      </c>
+      <c r="O86" s="11">
+        <f t="shared" si="83"/>
+        <v>0.5948431208061068</v>
+      </c>
+      <c r="P86" s="8">
+        <f t="shared" si="84"/>
+        <v>0.24725434468560156</v>
+      </c>
+      <c r="Q86" s="9">
+        <f t="shared" si="85"/>
+        <v>-0.2297811183087998</v>
+      </c>
+      <c r="R86" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>5.3406218070711088E-2</v>
+      </c>
+      <c r="S86" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.64190489908971382</v>
+      </c>
+      <c r="T86" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>9.8007429262701271E-2</v>
+      </c>
+      <c r="U86" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>9.5981044759903975E-2</v>
+      </c>
+      <c r="V86" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>7.1874393457951949E-2</v>
+      </c>
+      <c r="W86" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>3.882601535901798E-2</v>
+      </c>
+      <c r="X86" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>1.7334132493807938E-2</v>
+      </c>
+      <c r="Y86" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0173341324938081</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M2:M77">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="M2:M86">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N77">
+  <conditionalFormatting sqref="N2:N86">
     <cfRule type="iconSet" priority="66">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -12211,7 +12918,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O77">
+  <conditionalFormatting sqref="O2:O86">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -12223,7 +12930,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P77">
+  <conditionalFormatting sqref="P2:P86">
     <cfRule type="iconSet" priority="68">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
@@ -12234,7 +12941,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q77">
+  <conditionalFormatting sqref="Q2:Q86">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -12266,7 +12973,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q77</xm:sqref>
+          <xm:sqref>Q2:Q86</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12282,18 +12989,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="17"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -12301,7 +13008,7 @@
         <v>7.0568261580929686E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -12309,7 +13016,7 @@
         <v>5.9654612566935354E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12317,7 +13024,7 @@
         <v>7.0685719062960811E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -12325,7 +13032,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -12333,7 +13040,7 @@
         <v>4.0459726744444709E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -12341,7 +13048,7 @@
         <v>1.6369894882351343E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12349,7 +13056,7 @@
         <v>4.4367887051815931</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -12357,7 +13064,7 @@
         <v>1.4134313474815658</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12365,7 +13072,7 @@
         <v>0.21541526146547929</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -12373,7 +13080,7 @@
         <v>1.9214875353949785E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -12381,7 +13088,7 @@
         <v>0.23463013681942907</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -12389,7 +13096,7 @@
         <v>3.2461400327227654</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -12397,7 +13104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>67</v>
       </c>
@@ -12418,32 +13125,32 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -12451,7 +13158,7 @@
         <v>0.79668472802169177</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -12459,7 +13166,7 @@
         <v>0.63470655586299696</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -12467,7 +13174,7 @@
         <v>0.62640443213261054</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -12475,7 +13182,7 @@
         <v>2.472998215628458E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
@@ -12483,12 +13190,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16" t="s">
         <v>48</v>
@@ -12506,7 +13213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -12526,7 +13233,7 @@
         <v>3.5424237328808716E-11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -12540,7 +13247,7 @@
         <v>6.1157201745015374E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>46</v>
       </c>
@@ -12554,8 +13261,8 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
         <v>53</v>
@@ -12582,7 +13289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -12611,7 +13318,7 @@
         <v>0.27378641728571529</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
@@ -12640,7 +13347,7 @@
         <v>-1.4113058198744131E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -12648,8 +13355,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>61</v>
       </c>
@@ -12669,7 +13376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -12689,7 +13396,7 @@
         <v>1.9214875353949785E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12709,7 +13416,7 @@
         <v>1.9293551665185388E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -12729,7 +13436,7 @@
         <v>2.1402378806555832E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -12749,7 +13456,7 @@
         <v>2.1873591432871254E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -12769,7 +13476,7 @@
         <v>2.4451688592768837E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -12789,7 +13496,7 @@
         <v>2.8968352462320372E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7</v>
       </c>
@@ -12809,7 +13516,7 @@
         <v>2.9123905736681291E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -12829,7 +13536,7 @@
         <v>3.0039901760827534E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -12849,7 +13556,7 @@
         <v>3.0396480060029658E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -12869,7 +13576,7 @@
         <v>3.4492773937565911E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>11</v>
       </c>
@@ -12889,7 +13596,7 @@
         <v>3.6880605292335375E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12</v>
       </c>
@@ -12909,7 +13616,7 @@
         <v>3.8038822925710994E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13</v>
       </c>
@@ -12929,7 +13636,7 @@
         <v>3.8280116662410074E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -12949,7 +13656,7 @@
         <v>3.8522186862285888E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>15</v>
       </c>
@@ -12969,7 +13676,7 @@
         <v>4.0772823859477184E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>16</v>
       </c>
@@ -12989,7 +13696,7 @@
         <v>4.4943328134318304E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>17</v>
       </c>
@@ -13009,7 +13716,7 @@
         <v>4.8146899121257733E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>18</v>
       </c>
@@ -13029,7 +13736,7 @@
         <v>5.026244705287583E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>19</v>
       </c>
@@ -13049,7 +13756,7 @@
         <v>5.4034847987806937E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20</v>
       </c>
@@ -13069,7 +13776,7 @@
         <v>5.4232283794637112E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>21</v>
       </c>
@@ -13089,7 +13796,7 @@
         <v>5.4712666443967696E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>22</v>
       </c>
@@ -13109,7 +13816,7 @@
         <v>6.8655731660971955E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>23</v>
       </c>
@@ -13129,7 +13836,7 @@
         <v>6.9808663946635929E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>24</v>
       </c>
@@ -13149,7 +13856,7 @@
         <v>7.1562774179285707E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>25</v>
       </c>
@@ -13169,7 +13876,7 @@
         <v>7.4817245762244772E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>26</v>
       </c>
@@ -13189,7 +13896,7 @@
         <v>7.8362202475799836E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>27</v>
       </c>
@@ -13209,7 +13916,7 @@
         <v>8.1709814281439128E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>28</v>
       </c>
@@ -13229,7 +13936,7 @@
         <v>8.1733465109056644E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>29</v>
       </c>
@@ -13249,7 +13956,7 @@
         <v>8.3661483017992949E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>30</v>
       </c>
@@ -13269,7 +13976,7 @@
         <v>8.6385510879121108E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>31</v>
       </c>
@@ -13289,7 +13996,7 @@
         <v>8.9449859808939478E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>32</v>
       </c>
@@ -13309,7 +14016,7 @@
         <v>9.2790307738703851E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>33</v>
       </c>
@@ -13329,7 +14036,7 @@
         <v>9.306450307036801E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>34</v>
       </c>
@@ -13349,7 +14056,7 @@
         <v>9.4047894538948587E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>35</v>
       </c>
@@ -13369,7 +14076,7 @@
         <v>9.4474396241194178E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>36</v>
       </c>
@@ -13389,7 +14096,7 @@
         <v>0.10133634213983586</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>37</v>
       </c>
@@ -13409,7 +14116,7 @@
         <v>0.10213722860700671</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>38</v>
       </c>
@@ -13429,7 +14136,7 @@
         <v>0.10229080091330563</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>39</v>
       </c>
@@ -13449,7 +14156,7 @@
         <v>0.10312374334598796</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>40</v>
       </c>
@@ -13469,7 +14176,7 @@
         <v>0.10535754576217192</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>41</v>
       </c>
@@ -13489,7 +14196,7 @@
         <v>0.10853867252938192</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>42</v>
       </c>
@@ -13509,7 +14216,7 @@
         <v>0.1098349467048972</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>43</v>
       </c>
@@ -13529,7 +14236,7 @@
         <v>0.11118730729518359</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>44</v>
       </c>
@@ -13549,7 +14256,7 @@
         <v>0.11639822704796121</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>45</v>
       </c>
@@ -13569,7 +14276,7 @@
         <v>0.13269670090106236</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <v>46</v>
       </c>
@@ -13606,14 +14313,14 @@
       <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -13624,7 +14331,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>396.36851966536864</v>
       </c>
@@ -13636,7 +14343,7 @@
         <v>0.23463013681942907</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>986.44451665860322</v>
       </c>
@@ -13648,7 +14355,7 @@
         <v>3.8522186862285888E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>857.37515372107919</v>
       </c>
@@ -13660,7 +14367,7 @@
         <v>9.4474396241194178E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>881.16743745116571</v>
       </c>
@@ -13672,7 +14379,7 @@
         <v>0.10213722860700671</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>1013.036838553253</v>
       </c>
@@ -13684,7 +14391,7 @@
         <v>9.2790307738703851E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>815.71834250067877</v>
       </c>
@@ -13696,7 +14403,7 @@
         <v>5.026244705287583E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>753.03470279687349</v>
       </c>
@@ -13708,7 +14415,7 @@
         <v>8.3661483017992949E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>683.38721711047322</v>
       </c>
@@ -13720,7 +14427,7 @@
         <v>0.10535754576217192</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>680.90083520861299</v>
       </c>
@@ -13732,7 +14439,7 @@
         <v>0.10133634213983586</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>833.9495562284186</v>
       </c>
@@ -13744,7 +14451,7 @@
         <v>0.10312374334598796</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>845.04912058862044</v>
       </c>
@@ -13756,7 +14463,7 @@
         <v>8.6385510879121108E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>650.82397365936777</v>
       </c>
@@ -13768,7 +14475,7 @@
         <v>7.8362202475799836E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>690.99794803273608</v>
       </c>
@@ -13780,7 +14487,7 @@
         <v>0.10853867252938192</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>730.2516726906523</v>
       </c>
@@ -13792,7 +14499,7 @@
         <v>0.11639822704796121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>811.412162764713</v>
       </c>
@@ -13804,7 +14511,7 @@
         <v>0.10229080091330563</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>827.27910538999583</v>
       </c>
@@ -13816,7 +14523,7 @@
         <v>8.9449859808939478E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>896.78190333251371</v>
       </c>
@@ -13828,7 +14535,7 @@
         <v>0.13269670090106236</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>752.16648335909065</v>
       </c>
@@ -13840,7 +14547,7 @@
         <v>9.306450307036801E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>695.02692153686439</v>
       </c>
@@ -13852,7 +14559,7 @@
         <v>7.4817245762244772E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>685.35218801397684</v>
       </c>
@@ -13864,7 +14571,7 @@
         <v>8.1709814281439128E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>673.73820646375907</v>
       </c>
@@ -13876,7 +14583,7 @@
         <v>0.1098349467048972</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>712.40297646698423</v>
       </c>
@@ -13888,7 +14595,7 @@
         <v>9.4047894538948587E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>755.48191644747851</v>
       </c>
@@ -13900,7 +14607,7 @@
         <v>0.11118730729518359</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>844.20744804999481</v>
       </c>
@@ -13912,7 +14619,7 @@
         <v>8.1733465109056644E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>932.14246928049272</v>
       </c>
@@ -13924,7 +14631,7 @@
         <v>5.4712666443967696E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>1044.9288948818382</v>
       </c>
@@ -13936,7 +14643,7 @@
         <v>3.8280116662410074E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>996.94893910223027</v>
       </c>
@@ -13948,7 +14655,7 @@
         <v>4.8146899121257733E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>830.84243016507423</v>
       </c>
@@ -13960,7 +14667,7 @@
         <v>6.9808663946635929E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>1139.1742089207062</v>
       </c>
@@ -13972,7 +14679,7 @@
         <v>2.8968352462320372E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>1052.7534746392862</v>
       </c>
@@ -13984,7 +14691,7 @@
         <v>3.0396480060029658E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>949.00828558998171</v>
       </c>
@@ -13996,7 +14703,7 @@
         <v>3.6880605292335375E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>1020.0834279721132</v>
       </c>
@@ -14008,7 +14715,7 @@
         <v>7.1562774179285707E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>1073.3813855289795</v>
       </c>
@@ -14020,7 +14727,7 @@
         <v>5.4034847987806937E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>995.74556593468049</v>
       </c>
@@ -14032,7 +14739,7 @@
         <v>2.9123905736681291E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>866.64246296497856</v>
       </c>
@@ -14044,7 +14751,7 @@
         <v>5.4232283794637112E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>1121.5378255705259</v>
       </c>
@@ -14056,7 +14763,7 @@
         <v>6.8655731660971955E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>1130.4240429305103</v>
       </c>
@@ -14068,7 +14775,7 @@
         <v>3.8038822925710994E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>934.47556371041037</v>
       </c>
@@ -14080,7 +14787,7 @@
         <v>2.1402378806555832E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>981.52730470719246</v>
       </c>
@@ -14092,7 +14799,7 @@
         <v>2.4451688592768837E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>1097.2135085202888</v>
       </c>
@@ -14104,7 +14811,7 @@
         <v>2.1873591432871254E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>1243.9389292593157</v>
       </c>
@@ -14116,7 +14823,7 @@
         <v>1.9293551665185388E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>1152.7285959389192</v>
       </c>
@@ -14128,7 +14835,7 @@
         <v>4.0772823859477184E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>1098.5388788132616</v>
       </c>
@@ -14140,7 +14847,7 @@
         <v>3.0039901760827534E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>1101.6800234386017</v>
       </c>
@@ -14152,7 +14859,7 @@
         <v>3.4492773937565911E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>1040.8602518407088</v>
       </c>
@@ -14164,7 +14871,7 @@
         <v>1.9214875353949785E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>1001.260962817714</v>
       </c>

--- a/Controle de bandejas.xlsx
+++ b/Controle de bandejas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\Repositories\Self_owned\bonus_bandejas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426A26F-C607-446E-8CE9-662451FB4A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE60058-0EED-4E64-A4C3-A37699B00377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2112" yWindow="732" windowWidth="21624" windowHeight="11244" xr2:uid="{E9CFECCB-4CFF-4A8C-8AE9-C6FF4049EEB0}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{E9CFECCB-4CFF-4A8C-8AE9-C6FF4049EEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="linhadotempo" sheetId="1" r:id="rId1"/>
@@ -4076,10 +4076,10 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -4087,8 +4087,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}" name="Tabela1" displayName="Tabela1" ref="A1:Y86" totalsRowShown="0" dataDxfId="43" dataCellStyle="Porcentagem">
-  <autoFilter ref="A1:Y86" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}" name="Tabela1" displayName="Tabela1" ref="A1:Y89" totalsRowShown="0" dataDxfId="43" dataCellStyle="Porcentagem">
+  <autoFilter ref="A1:Y89" xr:uid="{630A916A-EDCB-4FF0-A421-CC5E5D212239}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{3F285AB6-3207-4521-9833-C1F884DD7E56}" name="Ano"/>
     <tableColumn id="2" xr3:uid="{4AF046E5-793E-4801-8A36-97DB43D8876E}" name="Semana"/>
@@ -4165,9 +4165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4205,7 +4205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4311,7 +4311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4453,7 +4453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4461,10 +4461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88528C36-905A-4A75-A2E6-76E08C9D0F38}">
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12060,26 +12060,27 @@
         <v>81.87709878888279</v>
       </c>
       <c r="L78" s="7">
-        <v>52.549000000000007</v>
+        <f t="shared" ref="L78:L86" si="82">1.5*(0.65*EXP(-0.003*H78))*H78</f>
+        <v>44.65409234937961</v>
       </c>
       <c r="M78" s="10">
         <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>4.4509999999999934</v>
+        <v>12.34590765062039</v>
       </c>
       <c r="N78" s="8">
-        <f t="shared" ref="N78:N86" si="82">G78/F78</f>
+        <f t="shared" ref="N78:N86" si="83">G78/F78</f>
         <v>1.2616304370688904</v>
       </c>
       <c r="O78" s="11">
-        <f t="shared" ref="O78:O86" si="83">H78/E78</f>
+        <f t="shared" ref="O78:O86" si="84">H78/E78</f>
         <v>1.1583204956665865</v>
       </c>
       <c r="P78" s="8">
-        <f t="shared" ref="P78:P86" si="84">F78/C78</f>
+        <f t="shared" ref="P78:P86" si="85">F78/C78</f>
         <v>0.23899861459287405</v>
       </c>
       <c r="Q78" s="9">
-        <f t="shared" ref="Q78:Q86" si="85">(H78-H77)/H77</f>
+        <f t="shared" ref="Q78:Q86" si="86">(H78-H77)/H77</f>
         <v>0.33835292743624801</v>
       </c>
       <c r="R78" s="2">
@@ -12158,26 +12159,27 @@
         <v>99.13794483091138</v>
       </c>
       <c r="L79" s="7">
-        <v>56.102000000000004</v>
+        <f t="shared" si="82"/>
+        <v>41.244570185979285</v>
       </c>
       <c r="M79" s="10">
         <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-0.10200000000000387</v>
+        <v>14.755429814020715</v>
       </c>
       <c r="N79" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.2810593196435494</v>
       </c>
       <c r="O79" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1.1764070579907959</v>
       </c>
       <c r="P79" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.23412361001564741</v>
       </c>
       <c r="Q79" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>3.7079070970777984E-2</v>
       </c>
       <c r="R79" s="2">
@@ -12256,26 +12258,27 @@
         <v>122.93874817609506</v>
       </c>
       <c r="L80" s="7">
-        <v>19.071000000000002</v>
+        <f t="shared" si="82"/>
+        <v>48.117234295406035</v>
       </c>
       <c r="M80" s="10">
         <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>34.929000000000002</v>
+        <v>5.8827657045939645</v>
       </c>
       <c r="N80" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.4326005936901347</v>
       </c>
       <c r="O80" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1.0248915471989912</v>
       </c>
       <c r="P80" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.21926080695166586</v>
       </c>
       <c r="Q80" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-6.9955595226231945E-2</v>
       </c>
       <c r="R80" s="2">
@@ -12354,26 +12357,27 @@
         <v>87.421491323740938</v>
       </c>
       <c r="L81" s="7">
-        <v>84.85799999999999</v>
+        <f t="shared" si="82"/>
+        <v>71.508107709878288</v>
       </c>
       <c r="M81" s="10">
         <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-16.85799999999999</v>
+        <v>-3.5081077098782885</v>
       </c>
       <c r="N81" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.3347251272929626</v>
       </c>
       <c r="O81" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.61835984410216338</v>
       </c>
       <c r="P81" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.22306084515100777</v>
       </c>
       <c r="Q81" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-0.20949919640318507</v>
       </c>
       <c r="R81" s="2">
@@ -12420,11 +12424,11 @@
         <v>48.89</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D86" si="86">ROUNDUP(2000/C82*7,0)</f>
+        <f t="shared" ref="D82:D86" si="87">ROUNDUP(2000/C82*7,0)</f>
         <v>287</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" ref="E82:E86" si="87">ROUNDUP(2000*7/F82,0)</f>
+        <f t="shared" ref="E82:E86" si="88">ROUNDUP(2000*7/F82,0)</f>
         <v>1248</v>
       </c>
       <c r="F82" s="1">
@@ -12452,26 +12456,27 @@
         <v>96.689134962087621</v>
       </c>
       <c r="L82" s="7">
-        <v>88.64</v>
+        <f t="shared" si="82"/>
+        <v>55.898980022943455</v>
       </c>
       <c r="M82" s="10">
         <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-20.64</v>
+        <v>12.101019977056545</v>
       </c>
       <c r="N82" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.3453921413652132</v>
       </c>
       <c r="O82" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.74365967889027595</v>
       </c>
       <c r="P82" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.2295717162049874</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.16891388471224911</v>
       </c>
       <c r="R82" s="2">
@@ -12518,11 +12523,11 @@
         <v>48.89</v>
       </c>
       <c r="D83">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>287</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1247</v>
       </c>
       <c r="F83" s="1">
@@ -12550,26 +12555,27 @@
         <v>99.845248695921811</v>
       </c>
       <c r="L83" s="7">
-        <v>72.929000000000016</v>
+        <f t="shared" si="82"/>
+        <v>54.163065612872074</v>
       </c>
       <c r="M83" s="10">
         <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>11.070999999999984</v>
+        <v>29.836934387127926</v>
       </c>
       <c r="N83" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.3262890522949007</v>
       </c>
       <c r="O83" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.7573511471450971</v>
       </c>
       <c r="P83" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.22977401079181925</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1.7594898238427269E-2</v>
       </c>
       <c r="R83" s="2">
@@ -12616,11 +12622,11 @@
         <v>48.89</v>
       </c>
       <c r="D84">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>287</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1190</v>
       </c>
       <c r="F84" s="1">
@@ -12648,26 +12654,27 @@
         <v>77.757472181801717</v>
       </c>
       <c r="L84" s="7">
-        <v>89.081000000000003</v>
+        <f t="shared" si="82"/>
+        <v>66.561762016795242</v>
       </c>
       <c r="M84" s="10">
         <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-16.081000000000003</v>
+        <v>6.4382379832047576</v>
       </c>
       <c r="N84" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.3551831714786566</v>
       </c>
       <c r="O84" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.70120670905756954</v>
       </c>
       <c r="P84" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.24076410102193252</v>
       </c>
       <c r="Q84" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-0.11645375996919219</v>
       </c>
       <c r="R84" s="2">
@@ -12714,16 +12721,16 @@
         <v>48.89</v>
       </c>
       <c r="D85">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>287</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="87"/>
-        <v>1225</v>
+        <f t="shared" si="88"/>
+        <v>1221</v>
       </c>
       <c r="F85" s="1">
         <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
-        <v>11.432785386956674</v>
+        <v>11.475167547642982</v>
       </c>
       <c r="G85" s="1">
         <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
@@ -12731,7 +12738,7 @@
       </c>
       <c r="H85" s="4">
         <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
-        <v>895.10033238926053</v>
+        <v>551.84205143049996</v>
       </c>
       <c r="I85">
         <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
@@ -12739,66 +12746,67 @@
       </c>
       <c r="J85" s="5">
         <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
-        <v>19.505307976340927</v>
+        <v>7.2330098584964304</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="81"/>
-        <v>100.50530797634093</v>
+        <v>88.23300985849643</v>
       </c>
       <c r="L85" s="7">
-        <v>96.398999999999987</v>
+        <f t="shared" si="82"/>
+        <v>102.76223321499245</v>
       </c>
       <c r="M85" s="10">
         <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-15.398999999999987</v>
+        <v>-21.762233214992449</v>
       </c>
       <c r="N85" s="8">
-        <f t="shared" si="82"/>
-        <v>1.3919190596876496</v>
+        <f t="shared" si="83"/>
+        <v>1.3867781728984077</v>
       </c>
       <c r="O85" s="11">
-        <f t="shared" si="83"/>
-        <v>0.73069414888919226</v>
+        <f t="shared" si="84"/>
+        <v>0.45195909208067153</v>
       </c>
       <c r="P85" s="8">
-        <f t="shared" si="84"/>
-        <v>0.23384711366243963</v>
+        <f t="shared" si="85"/>
+        <v>0.23471400179265661</v>
       </c>
       <c r="Q85" s="9">
-        <f t="shared" si="85"/>
-        <v>7.2701021756098522E-2</v>
+        <f t="shared" si="86"/>
+        <v>-0.33866460440543439</v>
       </c>
       <c r="R85" s="2">
         <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
-        <v>3.1864574061809162E-2</v>
+        <v>2.9876085690329422E-2</v>
       </c>
       <c r="S85" s="2">
         <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
-        <v>0.61101104940916995</v>
+        <v>0.62220696761970617</v>
       </c>
       <c r="T85" s="2">
         <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
-        <v>0.15049213375169448</v>
+        <v>0.14210462310464228</v>
       </c>
       <c r="U85" s="2">
         <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
-        <v>9.9982118757423424E-2</v>
+        <v>8.1085146284170753E-2</v>
       </c>
       <c r="V85" s="2">
         <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
-        <v>6.4423419832595599E-2</v>
+        <v>8.3818173672049495E-2</v>
       </c>
       <c r="W85" s="2">
         <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
-        <v>4.2226704187307507E-2</v>
+        <v>4.0909003629101964E-2</v>
       </c>
       <c r="X85" s="2">
         <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
-        <v>2.2276631813227924E-2</v>
+        <v>1.3281104987934991E-2</v>
       </c>
       <c r="Y85" s="2">
         <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
-        <v>1.0222766318132281</v>
+        <v>1.0132811049879349</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
@@ -12812,11 +12820,11 @@
         <v>48.89</v>
       </c>
       <c r="D86">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>287</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1159</v>
       </c>
       <c r="F86" s="1">
@@ -12844,27 +12852,28 @@
         <v>65.746929856145599</v>
       </c>
       <c r="L86" s="7">
-        <v>72.006</v>
+        <f t="shared" si="82"/>
+        <v>84.967423798349827</v>
       </c>
       <c r="M86" s="10">
         <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
-        <v>-18.006</v>
+        <v>-30.967423798349827</v>
       </c>
       <c r="N86" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.2399671731197219</v>
       </c>
       <c r="O86" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.5948431208061068</v>
       </c>
       <c r="P86" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.24725434468560156</v>
       </c>
       <c r="Q86" s="9">
-        <f t="shared" si="85"/>
-        <v>-0.2297811183087998</v>
+        <f t="shared" si="86"/>
+        <v>0.24931250749582481</v>
       </c>
       <c r="R86" s="2">
         <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
@@ -12899,9 +12908,306 @@
         <v>1.0173341324938081</v>
       </c>
     </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2024</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" s="3">
+        <v>48.89</v>
+      </c>
+      <c r="D87">
+        <f>ROUNDUP(1500/C87*7,0)</f>
+        <v>215</v>
+      </c>
+      <c r="E87" s="4">
+        <f>ROUNDUP(1500*7/F87,0)</f>
+        <v>988</v>
+      </c>
+      <c r="F87" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>10.630912785935369</v>
+      </c>
+      <c r="G87" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>14.212922119164029</v>
+      </c>
+      <c r="H87" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>969.33068754296221</v>
+      </c>
+      <c r="I87">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>61</v>
+      </c>
+      <c r="J87" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="7">
+        <f>J87+I87</f>
+        <v>61</v>
+      </c>
+      <c r="L87" s="7">
+        <f>1.5*(0.65*EXP(-0.003*H87))*H87</f>
+        <v>51.588354027546757</v>
+      </c>
+      <c r="M87" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>9.4116459724532433</v>
+      </c>
+      <c r="N87" s="8">
+        <f>G87/F87</f>
+        <v>1.3369427823702622</v>
+      </c>
+      <c r="O87" s="11">
+        <f>H87/E87</f>
+        <v>0.98110393476008317</v>
+      </c>
+      <c r="P87" s="8">
+        <f>F87/C87</f>
+        <v>0.21744554685897666</v>
+      </c>
+      <c r="Q87" s="9">
+        <f>(H87-H86)/H86</f>
+        <v>0.40600246678809804</v>
+      </c>
+      <c r="R87" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>4.8439233100466113E-2</v>
+      </c>
+      <c r="S87" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.5861403394705611</v>
+      </c>
+      <c r="T87" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.15617858352410069</v>
+      </c>
+      <c r="U87" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>8.948778587211681E-2</v>
+      </c>
+      <c r="V87" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>6.3808665223336156E-2</v>
+      </c>
+      <c r="W87" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>5.594539280941916E-2</v>
+      </c>
+      <c r="X87" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y87" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2024</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" s="3">
+        <v>51.54</v>
+      </c>
+      <c r="D88">
+        <f>ROUNDUP(1500/C88*7,0)</f>
+        <v>204</v>
+      </c>
+      <c r="E88" s="4">
+        <f>ROUNDUP(1500*7/F88,0)</f>
+        <v>895</v>
+      </c>
+      <c r="F88" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.733722025912837</v>
+      </c>
+      <c r="G88" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>14.788333333333332</v>
+      </c>
+      <c r="H88" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>901.32355075773387</v>
+      </c>
+      <c r="I88">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>48</v>
+      </c>
+      <c r="J88" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>5.7100381151042026</v>
+      </c>
+      <c r="K88" s="7">
+        <f>J88+I88</f>
+        <v>53.710038115104204</v>
+      </c>
+      <c r="L88" s="7">
+        <f>1.5*(0.65*EXP(-0.003*H88))*H88</f>
+        <v>58.825523551634028</v>
+      </c>
+      <c r="M88" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-10.825523551634028</v>
+      </c>
+      <c r="N88" s="8">
+        <f>G88/F88</f>
+        <v>1.260327567047751</v>
+      </c>
+      <c r="O88" s="11">
+        <f>H88/E88</f>
+        <v>1.0070654198410434</v>
+      </c>
+      <c r="P88" s="8">
+        <f>F88/C88</f>
+        <v>0.22766243744495221</v>
+      </c>
+      <c r="Q88" s="9">
+        <f>(H88-H87)/H87</f>
+        <v>-7.0158860809009682E-2</v>
+      </c>
+      <c r="R88" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>3.7268481512777792E-2</v>
+      </c>
+      <c r="S88" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.62156861625596616</v>
+      </c>
+      <c r="T88" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.15203332800450683</v>
+      </c>
+      <c r="U88" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>9.4609511194342383E-2</v>
+      </c>
+      <c r="V88" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>4.8312474783230995E-2</v>
+      </c>
+      <c r="W88" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>4.6207588249175875E-2</v>
+      </c>
+      <c r="X88" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>6.3755604783763895E-3</v>
+      </c>
+      <c r="Y88" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0063755604783764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2024</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3">
+        <v>51.54</v>
+      </c>
+      <c r="D89">
+        <f>ROUNDUP(1500/C89*7,0)</f>
+        <v>204</v>
+      </c>
+      <c r="E89" s="4">
+        <f>ROUNDUP(1500*7/F89,0)</f>
+        <v>898</v>
+      </c>
+      <c r="F89" s="1">
+        <f>[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>11.700560578661847</v>
+      </c>
+      <c r="G89" s="1">
+        <f>[1]!Tabela2[[#This Row],[Ticket Recomendado]]</f>
+        <v>16.593877551020409</v>
+      </c>
+      <c r="H89" s="4">
+        <f>[1]!Tabela1[[#This Row],[$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>646.05707984501794</v>
+      </c>
+      <c r="I89">
+        <f>[1]!Tabela2[[#This Row],[Recomendações]]</f>
+        <v>49</v>
+      </c>
+      <c r="J89" s="5">
+        <f>[1]!Tabela1[[#This Row],[S$ Total]]/[1]!Tabela1[[#This Row],[Ticket período]]</f>
+        <v>20.511837735166701</v>
+      </c>
+      <c r="K89" s="7">
+        <f>J89+I89</f>
+        <v>69.511837735166694</v>
+      </c>
+      <c r="L89" s="7">
+        <f>1.5*(0.65*EXP(-0.003*H89))*H89</f>
+        <v>90.68562102966267</v>
+      </c>
+      <c r="M89" s="10">
+        <f>Tabela1[[#This Row],[total de conversões]]-Tabela1[[#This Row],[meta de conversões]]</f>
+        <v>-41.68562102966267</v>
+      </c>
+      <c r="N89" s="8">
+        <f>G89/F89</f>
+        <v>1.4182121821823168</v>
+      </c>
+      <c r="O89" s="11">
+        <f>H89/E89</f>
+        <v>0.7194399552839843</v>
+      </c>
+      <c r="P89" s="8">
+        <f>F89/C89</f>
+        <v>0.22701902558521239</v>
+      </c>
+      <c r="Q89" s="9">
+        <f>(H89-H88)/H88</f>
+        <v>-0.28321291582597163</v>
+      </c>
+      <c r="R89" s="2">
+        <f>[1]!Tabela1[[#This Row],[A$%  (total -S)]]</f>
+        <v>3.9907203353358171E-2</v>
+      </c>
+      <c r="S89" s="2">
+        <f>[1]!Tabela1[[#This Row],[B$%  (total -S)]]</f>
+        <v>0.60286942752174777</v>
+      </c>
+      <c r="T89" s="2">
+        <f>[1]!Tabela1[[#This Row],[D$% (total-S)]]</f>
+        <v>0.1471220333286424</v>
+      </c>
+      <c r="U89" s="2">
+        <f>[1]!Tabela1[[#This Row],[F$%  (total -S)]]</f>
+        <v>0.1064688498653546</v>
+      </c>
+      <c r="V89" s="2">
+        <f>[1]!Tabela1[[#This Row],[K$%  (total -S)]]</f>
+        <v>5.1551870893522901E-2</v>
+      </c>
+      <c r="W89" s="2">
+        <f>[1]!Tabela1[[#This Row],[P$%  (total-S)]]</f>
+        <v>5.2080615037374059E-2</v>
+      </c>
+      <c r="X89" s="2">
+        <f>[1]!Tabela1[[#This Row],[S$%  (total -S)]]</f>
+        <v>3.2790334502399814E-2</v>
+      </c>
+      <c r="Y89" s="2">
+        <f>[1]!Tabela1[[#This Row],[$%  (Total-S)]]</f>
+        <v>1.0327903345023997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M2:M86">
+  <conditionalFormatting sqref="M2:M89">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12909,7 +13215,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N86">
+  <conditionalFormatting sqref="N2:N89">
     <cfRule type="iconSet" priority="66">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -12918,7 +13224,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O86">
+  <conditionalFormatting sqref="O2:O89">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -12930,7 +13236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P86">
+  <conditionalFormatting sqref="P2:P89">
     <cfRule type="iconSet" priority="68">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
@@ -12941,7 +13247,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q86">
+  <conditionalFormatting sqref="Q2:Q89">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -12973,7 +13279,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q86</xm:sqref>
+          <xm:sqref>Q2:Q89</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
